--- a/BackTest/2019-10-25 BackTest BSV.xlsx
+++ b/BackTest/2019-10-25 BackTest BSV.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>2000</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>76.47058823529412</v>
+      </c>
       <c r="L12" t="n">
         <v>118270</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>2700</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>83.33333333333334</v>
+      </c>
       <c r="L13" t="n">
         <v>118470</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>3100</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>84.61538461538461</v>
+      </c>
       <c r="L14" t="n">
         <v>118710</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>4200</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>100</v>
+      </c>
       <c r="L15" t="n">
         <v>119040</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>5000</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>100</v>
+      </c>
       <c r="L16" t="n">
         <v>119470</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>5200</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>100</v>
+      </c>
       <c r="L17" t="n">
         <v>119920</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>5200</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>100</v>
+      </c>
       <c r="L18" t="n">
         <v>120350</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>5400</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>91.11111111111111</v>
+      </c>
       <c r="L19" t="n">
         <v>120760</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>5400</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>90.2439024390244</v>
+      </c>
       <c r="L20" t="n">
         <v>121170</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>5600</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>77.77777777777779</v>
+      </c>
       <c r="L21" t="n">
         <v>121520</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>5700</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>66.66666666666666</v>
+      </c>
       <c r="L22" t="n">
         <v>121790</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>6400</v>
       </c>
       <c r="K23" t="n">
-        <v>54.09836065573771</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L23" t="n">
         <v>121920</v>
@@ -1470,7 +1492,7 @@
         <v>6500</v>
       </c>
       <c r="K24" t="n">
-        <v>54.83870967741935</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L24" t="n">
         <v>122020</v>
@@ -1525,7 +1547,7 @@
         <v>6600</v>
       </c>
       <c r="K25" t="n">
-        <v>50.81967213114754</v>
+        <v>-62.5</v>
       </c>
       <c r="L25" t="n">
         <v>122000</v>
@@ -1584,7 +1606,7 @@
         <v>6800</v>
       </c>
       <c r="K26" t="n">
-        <v>50.81967213114754</v>
+        <v>-87.5</v>
       </c>
       <c r="L26" t="n">
         <v>121880</v>
@@ -1641,7 +1663,7 @@
         <v>7200</v>
       </c>
       <c r="K27" t="n">
-        <v>53.84615384615385</v>
+        <v>-50</v>
       </c>
       <c r="L27" t="n">
         <v>121780</v>
@@ -1700,7 +1722,7 @@
         <v>7700</v>
       </c>
       <c r="K28" t="n">
-        <v>55.88235294117647</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L28" t="n">
         <v>121730</v>
@@ -1759,7 +1781,7 @@
         <v>8200</v>
       </c>
       <c r="K29" t="n">
-        <v>58.9041095890411</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="L29" t="n">
         <v>121750</v>
@@ -1816,7 +1838,7 @@
         <v>12100</v>
       </c>
       <c r="K30" t="n">
-        <v>73.21428571428571</v>
+        <v>66.15384615384615</v>
       </c>
       <c r="L30" t="n">
         <v>122160</v>
@@ -1877,7 +1899,7 @@
         <v>12200</v>
       </c>
       <c r="K31" t="n">
-        <v>70.64220183486239</v>
+        <v>66.15384615384615</v>
       </c>
       <c r="L31" t="n">
         <v>122580</v>
@@ -1936,7 +1958,7 @@
         <v>12200</v>
       </c>
       <c r="K32" t="n">
-        <v>68.62745098039215</v>
+        <v>86.20689655172413</v>
       </c>
       <c r="L32" t="n">
         <v>123010</v>
@@ -1995,7 +2017,7 @@
         <v>12700</v>
       </c>
       <c r="K33" t="n">
-        <v>57.99999999999999</v>
+        <v>70.96774193548387</v>
       </c>
       <c r="L33" t="n">
         <v>123460</v>
@@ -2052,7 +2074,7 @@
         <v>12900</v>
       </c>
       <c r="K34" t="n">
-        <v>53.06122448979592</v>
+        <v>68.25396825396825</v>
       </c>
       <c r="L34" t="n">
         <v>123880</v>
@@ -2109,7 +2131,7 @@
         <v>12900</v>
       </c>
       <c r="K35" t="n">
-        <v>47.12643678160919</v>
+        <v>73.77049180327869</v>
       </c>
       <c r="L35" t="n">
         <v>124310</v>
@@ -2166,7 +2188,7 @@
         <v>13000</v>
       </c>
       <c r="K36" t="n">
-        <v>42.5</v>
+        <v>72.41379310344827</v>
       </c>
       <c r="L36" t="n">
         <v>124770</v>
@@ -2223,7 +2245,7 @@
         <v>13300</v>
       </c>
       <c r="K37" t="n">
-        <v>43.20987654320987</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L37" t="n">
         <v>125220</v>
@@ -2280,7 +2302,7 @@
         <v>14000</v>
       </c>
       <c r="K38" t="n">
-        <v>31.81818181818182</v>
+        <v>48.27586206896552</v>
       </c>
       <c r="L38" t="n">
         <v>125550</v>
@@ -2337,7 +2359,7 @@
         <v>14500</v>
       </c>
       <c r="K39" t="n">
-        <v>38.46153846153847</v>
+        <v>-25</v>
       </c>
       <c r="L39" t="n">
         <v>125880</v>
@@ -2388,7 +2410,7 @@
         <v>14600</v>
       </c>
       <c r="K40" t="n">
-        <v>36.95652173913043</v>
+        <v>-25</v>
       </c>
       <c r="L40" t="n">
         <v>125810</v>
@@ -2439,7 +2461,7 @@
         <v>14700</v>
       </c>
       <c r="K41" t="n">
-        <v>38.46153846153847</v>
+        <v>-28</v>
       </c>
       <c r="L41" t="n">
         <v>125740</v>
@@ -2490,7 +2512,7 @@
         <v>14800</v>
       </c>
       <c r="K42" t="n">
-        <v>38.46153846153847</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L42" t="n">
         <v>125660</v>
@@ -2541,7 +2563,7 @@
         <v>14800</v>
       </c>
       <c r="K43" t="n">
-        <v>50</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L43" t="n">
         <v>125630</v>
@@ -2592,7 +2614,7 @@
         <v>14900</v>
       </c>
       <c r="K44" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>125630</v>
@@ -2643,7 +2665,7 @@
         <v>14900</v>
       </c>
       <c r="K45" t="n">
-        <v>51.80722891566265</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L45" t="n">
         <v>125630</v>
@@ -2694,7 +2716,7 @@
         <v>15300</v>
       </c>
       <c r="K46" t="n">
-        <v>57.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>125660</v>
@@ -2745,7 +2767,7 @@
         <v>16600</v>
       </c>
       <c r="K47" t="n">
-        <v>61.70212765957447</v>
+        <v>76.92307692307693</v>
       </c>
       <c r="L47" t="n">
         <v>125790</v>
@@ -2796,7 +2818,7 @@
         <v>17300</v>
       </c>
       <c r="K48" t="n">
-        <v>47.91666666666667</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L48" t="n">
         <v>125920</v>
@@ -2847,7 +2869,7 @@
         <v>17600</v>
       </c>
       <c r="K49" t="n">
-        <v>46.80851063829788</v>
+        <v>40</v>
       </c>
       <c r="L49" t="n">
         <v>126030</v>
@@ -2898,7 +2920,7 @@
         <v>17600</v>
       </c>
       <c r="K50" t="n">
-        <v>9.090909090909092</v>
+        <v>44.82758620689656</v>
       </c>
       <c r="L50" t="n">
         <v>126150</v>
@@ -2949,7 +2971,7 @@
         <v>17800</v>
       </c>
       <c r="K51" t="n">
-        <v>7.142857142857142</v>
+        <v>40</v>
       </c>
       <c r="L51" t="n">
         <v>126260</v>
@@ -3000,7 +3022,7 @@
         <v>18200</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="L52" t="n">
         <v>126340</v>
@@ -3051,7 +3073,7 @@
         <v>19100</v>
       </c>
       <c r="K53" t="n">
-        <v>-6.25</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L53" t="n">
         <v>126330</v>
@@ -3102,7 +3124,7 @@
         <v>19200</v>
       </c>
       <c r="K54" t="n">
-        <v>-1.587301587301587</v>
+        <v>-2.325581395348837</v>
       </c>
       <c r="L54" t="n">
         <v>126320</v>
@@ -3153,7 +3175,7 @@
         <v>19300</v>
       </c>
       <c r="K55" t="n">
-        <v>-3.125</v>
+        <v>-15</v>
       </c>
       <c r="L55" t="n">
         <v>126300</v>
@@ -3204,7 +3226,7 @@
         <v>19300</v>
       </c>
       <c r="K56" t="n">
-        <v>-4.761904761904762</v>
+        <v>-70.37037037037037</v>
       </c>
       <c r="L56" t="n">
         <v>126240</v>
@@ -3255,7 +3277,7 @@
         <v>20000</v>
       </c>
       <c r="K57" t="n">
-        <v>-19.40298507462687</v>
+        <v>-70.37037037037037</v>
       </c>
       <c r="L57" t="n">
         <v>125980</v>
@@ -3306,7 +3328,7 @@
         <v>20200</v>
       </c>
       <c r="K58" t="n">
-        <v>-12.90322580645161</v>
+        <v>-92.30769230769231</v>
       </c>
       <c r="L58" t="n">
         <v>125770</v>
@@ -3357,7 +3379,7 @@
         <v>20900</v>
       </c>
       <c r="K59" t="n">
-        <v>-9.375</v>
+        <v>-51.51515151515152</v>
       </c>
       <c r="L59" t="n">
         <v>125600</v>
@@ -3408,7 +3430,7 @@
         <v>20900</v>
       </c>
       <c r="K60" t="n">
-        <v>-7.936507936507936</v>
+        <v>-48.38709677419355</v>
       </c>
       <c r="L60" t="n">
         <v>125430</v>
@@ -3459,7 +3481,7 @@
         <v>21300</v>
       </c>
       <c r="K61" t="n">
-        <v>-12.12121212121212</v>
+        <v>-48.38709677419355</v>
       </c>
       <c r="L61" t="n">
         <v>125240</v>
@@ -3510,7 +3532,7 @@
         <v>21800</v>
       </c>
       <c r="K62" t="n">
-        <v>-17.14285714285714</v>
+        <v>-40.74074074074074</v>
       </c>
       <c r="L62" t="n">
         <v>125040</v>
@@ -3561,7 +3583,7 @@
         <v>22400</v>
       </c>
       <c r="K63" t="n">
-        <v>-7.894736842105263</v>
+        <v>-18.75</v>
       </c>
       <c r="L63" t="n">
         <v>124990</v>
@@ -3612,7 +3634,7 @@
         <v>22500</v>
       </c>
       <c r="K64" t="n">
-        <v>-7.894736842105263</v>
+        <v>-12.5</v>
       </c>
       <c r="L64" t="n">
         <v>124940</v>
@@ -3663,7 +3685,7 @@
         <v>22700</v>
       </c>
       <c r="K65" t="n">
-        <v>-5.128205128205128</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L65" t="n">
         <v>124920</v>
@@ -3714,7 +3736,7 @@
         <v>22800</v>
       </c>
       <c r="K66" t="n">
-        <v>-12</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L66" t="n">
         <v>124890</v>
@@ -3765,7 +3787,7 @@
         <v>23100</v>
       </c>
       <c r="K67" t="n">
-        <v>-29.23076923076923</v>
+        <v>31.03448275862069</v>
       </c>
       <c r="L67" t="n">
         <v>124960</v>
@@ -3816,7 +3838,7 @@
         <v>23300</v>
       </c>
       <c r="K68" t="n">
-        <v>-16.66666666666666</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L68" t="n">
         <v>125070</v>
@@ -3867,7 +3889,7 @@
         <v>23600</v>
       </c>
       <c r="K69" t="n">
-        <v>-26.66666666666667</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L69" t="n">
         <v>125080</v>
@@ -3918,7 +3940,7 @@
         <v>24000</v>
       </c>
       <c r="K70" t="n">
-        <v>-18.75</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L70" t="n">
         <v>125130</v>
@@ -3969,7 +3991,7 @@
         <v>24100</v>
       </c>
       <c r="K71" t="n">
-        <v>-17.46031746031746</v>
+        <v>56.52173913043478</v>
       </c>
       <c r="L71" t="n">
         <v>125210</v>
@@ -4020,7 +4042,7 @@
         <v>24400</v>
       </c>
       <c r="K72" t="n">
-        <v>-16.12903225806452</v>
+        <v>20</v>
       </c>
       <c r="L72" t="n">
         <v>125310</v>
@@ -4071,7 +4093,7 @@
         <v>24900</v>
       </c>
       <c r="K73" t="n">
-        <v>-10.3448275862069</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L73" t="n">
         <v>125300</v>
@@ -4122,7 +4144,7 @@
         <v>25000</v>
       </c>
       <c r="K74" t="n">
-        <v>-10.3448275862069</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L74" t="n">
         <v>125290</v>
@@ -4173,7 +4195,7 @@
         <v>25200</v>
       </c>
       <c r="K75" t="n">
-        <v>-11.86440677966102</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L75" t="n">
         <v>125240</v>
@@ -4224,7 +4246,7 @@
         <v>25300</v>
       </c>
       <c r="K76" t="n">
-        <v>-13.33333333333333</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L76" t="n">
         <v>125190</v>
@@ -4275,7 +4297,7 @@
         <v>25400</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L77" t="n">
         <v>125120</v>
@@ -4326,7 +4348,7 @@
         <v>25700</v>
       </c>
       <c r="K78" t="n">
-        <v>9.090909090909092</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L78" t="n">
         <v>125060</v>
@@ -4377,7 +4399,7 @@
         <v>25700</v>
       </c>
       <c r="K79" t="n">
-        <v>-4.166666666666666</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L79" t="n">
         <v>125030</v>
@@ -4428,7 +4450,7 @@
         <v>25800</v>
       </c>
       <c r="K80" t="n">
-        <v>-2.040816326530612</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L80" t="n">
         <v>124970</v>
@@ -4479,7 +4501,7 @@
         <v>26100</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L81" t="n">
         <v>124890</v>
@@ -4530,7 +4552,7 @@
         <v>26200</v>
       </c>
       <c r="K82" t="n">
-        <v>13.63636363636363</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L82" t="n">
         <v>124850</v>
@@ -4632,7 +4654,7 @@
         <v>26200</v>
       </c>
       <c r="K84" t="n">
-        <v>-2.702702702702703</v>
+        <v>20</v>
       </c>
       <c r="L84" t="n">
         <v>124860</v>
@@ -4683,7 +4705,7 @@
         <v>26200</v>
       </c>
       <c r="K85" t="n">
-        <v>-8.571428571428571</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L85" t="n">
         <v>124880</v>
@@ -4734,7 +4756,7 @@
         <v>26500</v>
       </c>
       <c r="K86" t="n">
-        <v>-13.51351351351351</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L86" t="n">
         <v>124880</v>
@@ -4785,7 +4807,7 @@
         <v>26600</v>
       </c>
       <c r="K87" t="n">
-        <v>-25.71428571428571</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L87" t="n">
         <v>124860</v>
@@ -4836,7 +4858,7 @@
         <v>27000</v>
       </c>
       <c r="K88" t="n">
-        <v>-40.54054054054054</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L88" t="n">
         <v>124770</v>
@@ -4887,7 +4909,7 @@
         <v>27200</v>
       </c>
       <c r="K89" t="n">
-        <v>-38.88888888888889</v>
+        <v>-85.71428571428571</v>
       </c>
       <c r="L89" t="n">
         <v>124660</v>
@@ -4938,7 +4960,7 @@
         <v>27300</v>
       </c>
       <c r="K90" t="n">
-        <v>-57.57575757575758</v>
+        <v>-83.33333333333334</v>
       </c>
       <c r="L90" t="n">
         <v>124530</v>
@@ -4989,7 +5011,7 @@
         <v>28200</v>
       </c>
       <c r="K91" t="n">
-        <v>-65.85365853658537</v>
+        <v>-100</v>
       </c>
       <c r="L91" t="n">
         <v>124340</v>
@@ -5040,7 +5062,7 @@
         <v>28400</v>
       </c>
       <c r="K92" t="n">
-        <v>-65</v>
+        <v>-100</v>
       </c>
       <c r="L92" t="n">
         <v>124120</v>
@@ -5091,7 +5113,7 @@
         <v>28600</v>
       </c>
       <c r="K93" t="n">
-        <v>-51.35135135135135</v>
+        <v>-83.33333333333334</v>
       </c>
       <c r="L93" t="n">
         <v>123920</v>
@@ -5142,7 +5164,7 @@
         <v>28900</v>
       </c>
       <c r="K94" t="n">
-        <v>-43.58974358974359</v>
+        <v>-62.96296296296296</v>
       </c>
       <c r="L94" t="n">
         <v>123750</v>
@@ -5193,7 +5215,7 @@
         <v>29300</v>
       </c>
       <c r="K95" t="n">
-        <v>-46.34146341463415</v>
+        <v>-64.28571428571429</v>
       </c>
       <c r="L95" t="n">
         <v>123540</v>
@@ -5244,7 +5266,7 @@
         <v>30100</v>
       </c>
       <c r="K96" t="n">
-        <v>-20.83333333333334</v>
+        <v>-25.71428571428571</v>
       </c>
       <c r="L96" t="n">
         <v>123440</v>
@@ -5295,7 +5317,7 @@
         <v>30300</v>
       </c>
       <c r="K97" t="n">
-        <v>-26.53061224489796</v>
+        <v>-21.21212121212121</v>
       </c>
       <c r="L97" t="n">
         <v>123330</v>
@@ -5346,7 +5368,7 @@
         <v>30400</v>
       </c>
       <c r="K98" t="n">
-        <v>-31.91489361702128</v>
+        <v>-12.5</v>
       </c>
       <c r="L98" t="n">
         <v>123270</v>
@@ -5397,7 +5419,7 @@
         <v>30400</v>
       </c>
       <c r="K99" t="n">
-        <v>-31.91489361702128</v>
+        <v>-9.67741935483871</v>
       </c>
       <c r="L99" t="n">
         <v>123230</v>
@@ -5448,7 +5470,7 @@
         <v>30400</v>
       </c>
       <c r="K100" t="n">
-        <v>-34.78260869565217</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L100" t="n">
         <v>123200</v>
@@ -5499,7 +5521,7 @@
         <v>30900</v>
       </c>
       <c r="K101" t="n">
-        <v>-37.5</v>
+        <v>12</v>
       </c>
       <c r="L101" t="n">
         <v>123210</v>
@@ -5550,7 +5572,7 @@
         <v>31100</v>
       </c>
       <c r="K102" t="n">
-        <v>-34.69387755102041</v>
+        <v>12</v>
       </c>
       <c r="L102" t="n">
         <v>123260</v>
@@ -5601,7 +5623,7 @@
         <v>31100</v>
       </c>
       <c r="K103" t="n">
-        <v>-34.69387755102041</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
         <v>123290</v>
@@ -5652,7 +5674,7 @@
         <v>31500</v>
       </c>
       <c r="K104" t="n">
-        <v>-39.62264150943396</v>
+        <v>0</v>
       </c>
       <c r="L104" t="n">
         <v>123250</v>
@@ -5703,7 +5725,7 @@
         <v>31600</v>
       </c>
       <c r="K105" t="n">
-        <v>-40.74074074074074</v>
+        <v>-60</v>
       </c>
       <c r="L105" t="n">
         <v>123240</v>
@@ -5754,7 +5776,7 @@
         <v>31800</v>
       </c>
       <c r="K106" t="n">
-        <v>-39.62264150943396</v>
+        <v>-60</v>
       </c>
       <c r="L106" t="n">
         <v>123130</v>
@@ -5805,7 +5827,7 @@
         <v>32000</v>
       </c>
       <c r="K107" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L107" t="n">
         <v>123060</v>
@@ -5856,7 +5878,7 @@
         <v>32300</v>
       </c>
       <c r="K108" t="n">
-        <v>-20.75471698113208</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L108" t="n">
         <v>123010</v>
@@ -5907,7 +5929,7 @@
         <v>32900</v>
       </c>
       <c r="K109" t="n">
-        <v>-5.263157894736842</v>
+        <v>4</v>
       </c>
       <c r="L109" t="n">
         <v>123020</v>
@@ -5958,7 +5980,7 @@
         <v>33000</v>
       </c>
       <c r="K110" t="n">
-        <v>-1.754385964912281</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L110" t="n">
         <v>123040</v>
@@ -6009,7 +6031,7 @@
         <v>33200</v>
       </c>
       <c r="K111" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L111" t="n">
         <v>123130</v>
@@ -6060,7 +6082,7 @@
         <v>34100</v>
       </c>
       <c r="K112" t="n">
-        <v>36.84210526315789</v>
+        <v>53.33333333333334</v>
       </c>
       <c r="L112" t="n">
         <v>123290</v>
@@ -6111,7 +6133,7 @@
         <v>34500</v>
       </c>
       <c r="K113" t="n">
-        <v>38.98305084745763</v>
+        <v>80</v>
       </c>
       <c r="L113" t="n">
         <v>123490</v>
@@ -6162,7 +6184,7 @@
         <v>35000</v>
       </c>
       <c r="K114" t="n">
-        <v>40.98360655737705</v>
+        <v>88.23529411764706</v>
       </c>
       <c r="L114" t="n">
         <v>123780</v>
@@ -6213,7 +6235,7 @@
         <v>35200</v>
       </c>
       <c r="K115" t="n">
-        <v>45.76271186440678</v>
+        <v>88.23529411764706</v>
       </c>
       <c r="L115" t="n">
         <v>124060</v>
@@ -6264,7 +6286,7 @@
         <v>35600</v>
       </c>
       <c r="K116" t="n">
-        <v>27.27272727272727</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L116" t="n">
         <v>124320</v>
@@ -6315,7 +6337,7 @@
         <v>36200</v>
       </c>
       <c r="K117" t="n">
-        <v>18.64406779661017</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L117" t="n">
         <v>124500</v>
@@ -6366,7 +6388,7 @@
         <v>36400</v>
       </c>
       <c r="K118" t="n">
-        <v>13.33333333333333</v>
+        <v>20</v>
       </c>
       <c r="L118" t="n">
         <v>124630</v>
@@ -6417,7 +6439,7 @@
         <v>36800</v>
       </c>
       <c r="K119" t="n">
-        <v>18.75</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L119" t="n">
         <v>124740</v>
@@ -6468,7 +6490,7 @@
         <v>37000</v>
       </c>
       <c r="K120" t="n">
-        <v>21.21212121212121</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L120" t="n">
         <v>124860</v>
@@ -6519,7 +6541,7 @@
         <v>37200</v>
       </c>
       <c r="K121" t="n">
-        <v>33.33333333333333</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="L121" t="n">
         <v>124980</v>
@@ -6570,7 +6592,7 @@
         <v>37300</v>
       </c>
       <c r="K122" t="n">
-        <v>29.03225806451613</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L122" t="n">
         <v>125000</v>
@@ -6621,7 +6643,7 @@
         <v>37600</v>
       </c>
       <c r="K123" t="n">
-        <v>32.30769230769231</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L123" t="n">
         <v>125010</v>
@@ -6672,7 +6694,7 @@
         <v>37600</v>
       </c>
       <c r="K124" t="n">
-        <v>40.98360655737705</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L124" t="n">
         <v>124970</v>
@@ -6723,7 +6745,7 @@
         <v>37700</v>
       </c>
       <c r="K125" t="n">
-        <v>40.98360655737705</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L125" t="n">
         <v>124940</v>
@@ -6774,7 +6796,7 @@
         <v>37700</v>
       </c>
       <c r="K126" t="n">
-        <v>45.76271186440678</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L126" t="n">
         <v>124950</v>
@@ -6825,7 +6847,7 @@
         <v>37800</v>
       </c>
       <c r="K127" t="n">
-        <v>44.82758620689656</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L127" t="n">
         <v>125030</v>
@@ -6876,7 +6898,7 @@
         <v>37800</v>
       </c>
       <c r="K128" t="n">
-        <v>41.81818181818181</v>
+        <v>60</v>
       </c>
       <c r="L128" t="n">
         <v>125130</v>
@@ -6927,7 +6949,7 @@
         <v>37900</v>
       </c>
       <c r="K129" t="n">
-        <v>32</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L129" t="n">
         <v>125180</v>
@@ -6978,7 +7000,7 @@
         <v>38000</v>
       </c>
       <c r="K130" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="L130" t="n">
         <v>125200</v>
@@ -7029,7 +7051,7 @@
         <v>38300</v>
       </c>
       <c r="K131" t="n">
-        <v>29.41176470588236</v>
+        <v>40</v>
       </c>
       <c r="L131" t="n">
         <v>125230</v>
@@ -7080,7 +7102,7 @@
         <v>38700</v>
       </c>
       <c r="K132" t="n">
-        <v>21.73913043478261</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L132" t="n">
         <v>125310</v>
@@ -7131,7 +7153,7 @@
         <v>39300</v>
       </c>
       <c r="K133" t="n">
-        <v>25</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="L133" t="n">
         <v>125420</v>
@@ -7182,7 +7204,7 @@
         <v>39700</v>
       </c>
       <c r="K134" t="n">
-        <v>6.382978723404255</v>
+        <v>40</v>
       </c>
       <c r="L134" t="n">
         <v>125490</v>
@@ -7233,7 +7255,7 @@
         <v>40100</v>
       </c>
       <c r="K135" t="n">
-        <v>2.040816326530612</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L135" t="n">
         <v>125530</v>
@@ -7284,7 +7306,7 @@
         <v>40200</v>
       </c>
       <c r="K136" t="n">
-        <v>8.695652173913043</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L136" t="n">
         <v>125560</v>
@@ -7335,7 +7357,7 @@
         <v>40400</v>
       </c>
       <c r="K137" t="n">
-        <v>19.04761904761905</v>
+        <v>0</v>
       </c>
       <c r="L137" t="n">
         <v>125560</v>
@@ -7386,7 +7408,7 @@
         <v>41900</v>
       </c>
       <c r="K138" t="n">
-        <v>45.45454545454545</v>
+        <v>40</v>
       </c>
       <c r="L138" t="n">
         <v>125710</v>
@@ -7437,7 +7459,7 @@
         <v>43400</v>
       </c>
       <c r="K139" t="n">
-        <v>9.090909090909092</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L139" t="n">
         <v>125720</v>
@@ -7488,7 +7510,7 @@
         <v>44600</v>
       </c>
       <c r="K140" t="n">
-        <v>21.05263157894737</v>
+        <v>17.46031746031746</v>
       </c>
       <c r="L140" t="n">
         <v>125860</v>
@@ -7539,7 +7561,7 @@
         <v>44800</v>
       </c>
       <c r="K141" t="n">
-        <v>15.78947368421053</v>
+        <v>8.196721311475409</v>
       </c>
       <c r="L141" t="n">
         <v>125950</v>
@@ -7590,7 +7612,7 @@
         <v>44900</v>
       </c>
       <c r="K142" t="n">
-        <v>15.78947368421053</v>
+        <v>-3.571428571428571</v>
       </c>
       <c r="L142" t="n">
         <v>125990</v>
@@ -7641,7 +7663,7 @@
         <v>45900</v>
       </c>
       <c r="K143" t="n">
-        <v>22.89156626506024</v>
+        <v>19.35483870967742</v>
       </c>
       <c r="L143" t="n">
         <v>126070</v>
@@ -7692,7 +7714,7 @@
         <v>46200</v>
       </c>
       <c r="K144" t="n">
-        <v>18.6046511627907</v>
+        <v>21.31147540983606</v>
       </c>
       <c r="L144" t="n">
         <v>126160</v>
@@ -7743,7 +7765,7 @@
         <v>46500</v>
       </c>
       <c r="K145" t="n">
-        <v>22.72727272727273</v>
+        <v>26.98412698412698</v>
       </c>
       <c r="L145" t="n">
         <v>126320</v>
@@ -7794,7 +7816,7 @@
         <v>46600</v>
       </c>
       <c r="K146" t="n">
-        <v>23.59550561797753</v>
+        <v>32.25806451612903</v>
       </c>
       <c r="L146" t="n">
         <v>126500</v>
@@ -7845,7 +7867,7 @@
         <v>47100</v>
       </c>
       <c r="K147" t="n">
-        <v>26.88172043010752</v>
+        <v>19.23076923076923</v>
       </c>
       <c r="L147" t="n">
         <v>126750</v>
@@ -7896,7 +7918,7 @@
         <v>47300</v>
       </c>
       <c r="K148" t="n">
-        <v>28.42105263157895</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L148" t="n">
         <v>126870</v>
@@ -7947,7 +7969,7 @@
         <v>47700</v>
       </c>
       <c r="K149" t="n">
-        <v>24.48979591836735</v>
+        <v>35.48387096774194</v>
       </c>
       <c r="L149" t="n">
         <v>127100</v>
@@ -7998,7 +8020,7 @@
         <v>47900</v>
       </c>
       <c r="K150" t="n">
-        <v>27.27272727272727</v>
+        <v>48.38709677419355</v>
       </c>
       <c r="L150" t="n">
         <v>127230</v>
@@ -8049,7 +8071,7 @@
         <v>51200</v>
       </c>
       <c r="K151" t="n">
-        <v>44.18604651162791</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L151" t="n">
         <v>127710</v>
@@ -8100,7 +8122,7 @@
         <v>53900</v>
       </c>
       <c r="K152" t="n">
-        <v>52.63157894736842</v>
+        <v>82.5</v>
       </c>
       <c r="L152" t="n">
         <v>128470</v>
@@ -8151,7 +8173,7 @@
         <v>56500</v>
       </c>
       <c r="K153" t="n">
-        <v>27.90697674418605</v>
+        <v>41.74757281553398</v>
       </c>
       <c r="L153" t="n">
         <v>128870</v>
@@ -8202,7 +8224,7 @@
         <v>57700</v>
       </c>
       <c r="K154" t="n">
-        <v>35.55555555555556</v>
+        <v>46.42857142857143</v>
       </c>
       <c r="L154" t="n">
         <v>129420</v>
@@ -8253,7 +8275,7 @@
         <v>57800</v>
       </c>
       <c r="K155" t="n">
-        <v>37.85310734463277</v>
+        <v>44.64285714285715</v>
       </c>
       <c r="L155" t="n">
         <v>129930</v>
@@ -8304,7 +8326,7 @@
         <v>58900</v>
       </c>
       <c r="K156" t="n">
-        <v>30.48128342245989</v>
+        <v>28.8135593220339</v>
       </c>
       <c r="L156" t="n">
         <v>130320</v>
@@ -8355,7 +8377,7 @@
         <v>59800</v>
       </c>
       <c r="K157" t="n">
-        <v>35.05154639175257</v>
+        <v>32.8</v>
       </c>
       <c r="L157" t="n">
         <v>130750</v>
@@ -8406,7 +8428,7 @@
         <v>60700</v>
       </c>
       <c r="K158" t="n">
-        <v>23.40425531914894</v>
+        <v>27.69230769230769</v>
       </c>
       <c r="L158" t="n">
         <v>131070</v>
@@ -8457,7 +8479,7 @@
         <v>61200</v>
       </c>
       <c r="K159" t="n">
-        <v>30.3370786516854</v>
+        <v>21.80451127819549</v>
       </c>
       <c r="L159" t="n">
         <v>131380</v>
@@ -8508,7 +8530,7 @@
         <v>61900</v>
       </c>
       <c r="K160" t="n">
-        <v>28.32369942196532</v>
+        <v>2.803738317757009</v>
       </c>
       <c r="L160" t="n">
         <v>131740</v>
@@ -8559,7 +8581,7 @@
         <v>62300</v>
       </c>
       <c r="K161" t="n">
-        <v>31.42857142857143</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L161" t="n">
         <v>131810</v>
@@ -8610,7 +8632,7 @@
         <v>62800</v>
       </c>
       <c r="K162" t="n">
-        <v>28.49162011173184</v>
+        <v>1.587301587301587</v>
       </c>
       <c r="L162" t="n">
         <v>131560</v>
@@ -8661,7 +8683,7 @@
         <v>63600</v>
       </c>
       <c r="K163" t="n">
-        <v>18.64406779661017</v>
+        <v>-32.20338983050847</v>
       </c>
       <c r="L163" t="n">
         <v>131490</v>
@@ -8712,7 +8734,7 @@
         <v>63800</v>
       </c>
       <c r="K164" t="n">
-        <v>19.31818181818182</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L164" t="n">
         <v>131280</v>
@@ -8763,7 +8785,7 @@
         <v>63800</v>
       </c>
       <c r="K165" t="n">
-        <v>17.91907514450867</v>
+        <v>-18.36734693877551</v>
       </c>
       <c r="L165" t="n">
         <v>131080</v>
@@ -8814,7 +8836,7 @@
         <v>63900</v>
       </c>
       <c r="K166" t="n">
-        <v>17.91907514450867</v>
+        <v>-41.46341463414634</v>
       </c>
       <c r="L166" t="n">
         <v>131000</v>
@@ -8865,7 +8887,7 @@
         <v>64200</v>
       </c>
       <c r="K167" t="n">
-        <v>13.45029239766082</v>
+        <v>-31.42857142857143</v>
       </c>
       <c r="L167" t="n">
         <v>130800</v>
@@ -8916,7 +8938,7 @@
         <v>64500</v>
       </c>
       <c r="K168" t="n">
-        <v>10.46511627906977</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L168" t="n">
         <v>130660</v>
@@ -8967,7 +8989,7 @@
         <v>64600</v>
       </c>
       <c r="K169" t="n">
-        <v>13.6094674556213</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L169" t="n">
         <v>130580</v>
@@ -9018,7 +9040,7 @@
         <v>64900</v>
       </c>
       <c r="K170" t="n">
-        <v>14.11764705882353</v>
+        <v>-61.53846153846154</v>
       </c>
       <c r="L170" t="n">
         <v>130460</v>
@@ -9069,7 +9091,7 @@
         <v>65000</v>
       </c>
       <c r="K171" t="n">
-        <v>-7.246376811594203</v>
+        <v>-54.54545454545454</v>
       </c>
       <c r="L171" t="n">
         <v>130290</v>
@@ -9120,7 +9142,7 @@
         <v>65000</v>
       </c>
       <c r="K172" t="n">
-        <v>-33.33333333333333</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L172" t="n">
         <v>130170</v>
@@ -9171,7 +9193,7 @@
         <v>65300</v>
       </c>
       <c r="K173" t="n">
-        <v>-9.090909090909092</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L173" t="n">
         <v>130160</v>
@@ -9222,7 +9244,7 @@
         <v>65600</v>
       </c>
       <c r="K174" t="n">
-        <v>-21.51898734177215</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L174" t="n">
         <v>130200</v>
@@ -9273,7 +9295,7 @@
         <v>66000</v>
       </c>
       <c r="K175" t="n">
-        <v>-24.39024390243902</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L175" t="n">
         <v>130200</v>
@@ -9324,7 +9346,7 @@
         <v>66300</v>
       </c>
       <c r="K176" t="n">
-        <v>-8.108108108108109</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L176" t="n">
         <v>130220</v>
@@ -9375,7 +9397,7 @@
         <v>67000</v>
       </c>
       <c r="K177" t="n">
-        <v>-30.55555555555556</v>
+        <v>4</v>
       </c>
       <c r="L177" t="n">
         <v>130200</v>
@@ -9426,7 +9448,7 @@
         <v>67200</v>
       </c>
       <c r="K178" t="n">
-        <v>-23.07692307692308</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L178" t="n">
         <v>130190</v>
@@ -9477,7 +9499,7 @@
         <v>68000</v>
       </c>
       <c r="K179" t="n">
-        <v>-2.941176470588235</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="L179" t="n">
         <v>130250</v>
@@ -9528,7 +9550,7 @@
         <v>68100</v>
       </c>
       <c r="K180" t="n">
-        <v>-16.12903225806452</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="L180" t="n">
         <v>130270</v>
@@ -9579,7 +9601,7 @@
         <v>68200</v>
       </c>
       <c r="K181" t="n">
-        <v>-25.42372881355932</v>
+        <v>6.25</v>
       </c>
       <c r="L181" t="n">
         <v>130290</v>
@@ -9630,7 +9652,7 @@
         <v>68300</v>
       </c>
       <c r="K182" t="n">
-        <v>-16.36363636363636</v>
+        <v>0</v>
       </c>
       <c r="L182" t="n">
         <v>130320</v>
@@ -9681,7 +9703,7 @@
         <v>69300</v>
       </c>
       <c r="K183" t="n">
-        <v>15.78947368421053</v>
+        <v>18.91891891891892</v>
       </c>
       <c r="L183" t="n">
         <v>130420</v>
@@ -9732,7 +9754,7 @@
         <v>69700</v>
       </c>
       <c r="K184" t="n">
-        <v>11.86440677966102</v>
+        <v>18.91891891891892</v>
       </c>
       <c r="L184" t="n">
         <v>130450</v>
@@ -9783,7 +9805,7 @@
         <v>69800</v>
       </c>
       <c r="K185" t="n">
-        <v>10</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="L185" t="n">
         <v>130510</v>
@@ -9834,7 +9856,7 @@
         <v>70400</v>
       </c>
       <c r="K186" t="n">
-        <v>16.92307692307692</v>
+        <v>47.05882352941176</v>
       </c>
       <c r="L186" t="n">
         <v>130600</v>
@@ -9885,7 +9907,7 @@
         <v>70800</v>
       </c>
       <c r="K187" t="n">
-        <v>15.15151515151515</v>
+        <v>38.88888888888889</v>
       </c>
       <c r="L187" t="n">
         <v>130720</v>
@@ -9936,7 +9958,7 @@
         <v>70900</v>
       </c>
       <c r="K188" t="n">
-        <v>21.875</v>
+        <v>24.13793103448276</v>
       </c>
       <c r="L188" t="n">
         <v>130870</v>
@@ -9987,7 +10009,7 @@
         <v>71000</v>
       </c>
       <c r="K189" t="n">
-        <v>21.875</v>
+        <v>31.03448275862069</v>
       </c>
       <c r="L189" t="n">
         <v>130950</v>
@@ -10038,7 +10060,7 @@
         <v>71400</v>
       </c>
       <c r="K190" t="n">
-        <v>10.76923076923077</v>
+        <v>18.75</v>
       </c>
       <c r="L190" t="n">
         <v>131000</v>
@@ -10089,7 +10111,7 @@
         <v>71500</v>
       </c>
       <c r="K191" t="n">
-        <v>13.84615384615385</v>
+        <v>18.75</v>
       </c>
       <c r="L191" t="n">
         <v>131070</v>
@@ -10140,7 +10162,7 @@
         <v>72200</v>
       </c>
       <c r="K192" t="n">
-        <v>22.22222222222222</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L192" t="n">
         <v>131200</v>
@@ -10191,7 +10213,7 @@
         <v>72300</v>
       </c>
       <c r="K193" t="n">
-        <v>17.14285714285714</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L193" t="n">
         <v>131220</v>
@@ -10242,7 +10264,7 @@
         <v>72400</v>
       </c>
       <c r="K194" t="n">
-        <v>11.76470588235294</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L194" t="n">
         <v>131270</v>
@@ -10293,7 +10315,7 @@
         <v>72900</v>
       </c>
       <c r="K195" t="n">
-        <v>10.14492753623188</v>
+        <v>-20</v>
       </c>
       <c r="L195" t="n">
         <v>131280</v>
@@ -10344,7 +10366,7 @@
         <v>72900</v>
       </c>
       <c r="K196" t="n">
-        <v>6.060606060606061</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L196" t="n">
         <v>131230</v>
@@ -10395,7 +10417,7 @@
         <v>73000</v>
       </c>
       <c r="K197" t="n">
-        <v>16.66666666666666</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L197" t="n">
         <v>131210</v>
@@ -10446,7 +10468,7 @@
         <v>73900</v>
       </c>
       <c r="K198" t="n">
-        <v>4.477611940298507</v>
+        <v>-44.82758620689656</v>
       </c>
       <c r="L198" t="n">
         <v>131090</v>
@@ -10497,7 +10519,7 @@
         <v>74000</v>
       </c>
       <c r="K199" t="n">
-        <v>-10</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L199" t="n">
         <v>130950</v>
@@ -10548,7 +10570,7 @@
         <v>74300</v>
       </c>
       <c r="K200" t="n">
-        <v>-3.225806451612903</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L200" t="n">
         <v>130880</v>
@@ -10599,7 +10621,7 @@
         <v>74400</v>
       </c>
       <c r="K201" t="n">
-        <v>0</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L201" t="n">
         <v>130810</v>
@@ -10650,7 +10672,7 @@
         <v>74400</v>
       </c>
       <c r="K202" t="n">
-        <v>-1.639344262295082</v>
+        <v>-61.90476190476191</v>
       </c>
       <c r="L202" t="n">
         <v>130670</v>
@@ -10701,7 +10723,7 @@
         <v>74600</v>
       </c>
       <c r="K203" t="n">
-        <v>-16.9811320754717</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L203" t="n">
         <v>130560</v>
@@ -10752,7 +10774,7 @@
         <v>75200</v>
       </c>
       <c r="K204" t="n">
-        <v>-20</v>
+        <v>-47.82608695652174</v>
       </c>
       <c r="L204" t="n">
         <v>130400</v>
@@ -10803,7 +10825,7 @@
         <v>75300</v>
       </c>
       <c r="K205" t="n">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="L205" t="n">
         <v>130280</v>
@@ -10854,7 +10876,7 @@
         <v>75400</v>
       </c>
       <c r="K206" t="n">
-        <v>-36</v>
+        <v>-50</v>
       </c>
       <c r="L206" t="n">
         <v>130150</v>
@@ -10905,7 +10927,7 @@
         <v>75700</v>
       </c>
       <c r="K207" t="n">
-        <v>-22.44897959183674</v>
+        <v>0</v>
       </c>
       <c r="L207" t="n">
         <v>130060</v>
@@ -10956,7 +10978,7 @@
         <v>75800</v>
       </c>
       <c r="K208" t="n">
-        <v>-22.44897959183674</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L208" t="n">
         <v>130070</v>
@@ -11007,7 +11029,7 @@
         <v>76300</v>
       </c>
       <c r="K209" t="n">
-        <v>-32.0754716981132</v>
+        <v>-30</v>
       </c>
       <c r="L209" t="n">
         <v>130040</v>
@@ -11058,7 +11080,7 @@
         <v>76500</v>
       </c>
       <c r="K210" t="n">
-        <v>-29.41176470588236</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L210" t="n">
         <v>129960</v>
@@ -11109,7 +11131,7 @@
         <v>76600</v>
       </c>
       <c r="K211" t="n">
-        <v>-29.41176470588236</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L211" t="n">
         <v>129880</v>
@@ -11160,7 +11182,7 @@
         <v>76800</v>
       </c>
       <c r="K212" t="n">
-        <v>-52.17391304347826</v>
+        <v>-54.54545454545454</v>
       </c>
       <c r="L212" t="n">
         <v>129780</v>
@@ -11211,7 +11233,7 @@
         <v>76800</v>
       </c>
       <c r="K213" t="n">
-        <v>-51.11111111111111</v>
+        <v>-37.5</v>
       </c>
       <c r="L213" t="n">
         <v>129660</v>
@@ -11262,7 +11284,7 @@
         <v>77000</v>
       </c>
       <c r="K214" t="n">
-        <v>-43.47826086956522</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L214" t="n">
         <v>129620</v>
@@ -11313,7 +11335,7 @@
         <v>77600</v>
       </c>
       <c r="K215" t="n">
-        <v>-44.68085106382978</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L215" t="n">
         <v>129530</v>
@@ -11364,7 +11386,7 @@
         <v>78200</v>
       </c>
       <c r="K216" t="n">
-        <v>-28.30188679245283</v>
+        <v>-20</v>
       </c>
       <c r="L216" t="n">
         <v>129510</v>
@@ -11415,7 +11437,7 @@
         <v>78600</v>
       </c>
       <c r="K217" t="n">
-        <v>-32.14285714285715</v>
+        <v>-35.71428571428572</v>
       </c>
       <c r="L217" t="n">
         <v>129420</v>
@@ -11466,7 +11488,7 @@
         <v>79300</v>
       </c>
       <c r="K218" t="n">
-        <v>-3.703703703703703</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L218" t="n">
         <v>129390</v>
@@ -11517,7 +11539,7 @@
         <v>79600</v>
       </c>
       <c r="K219" t="n">
-        <v>-7.142857142857142</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="L219" t="n">
         <v>129380</v>
@@ -11568,7 +11590,7 @@
         <v>79600</v>
       </c>
       <c r="K220" t="n">
-        <v>-13.20754716981132</v>
+        <v>0</v>
       </c>
       <c r="L220" t="n">
         <v>129390</v>
@@ -11619,7 +11641,7 @@
         <v>79800</v>
       </c>
       <c r="K221" t="n">
-        <v>-11.11111111111111</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L221" t="n">
         <v>129410</v>
@@ -11670,7 +11692,7 @@
         <v>80400</v>
       </c>
       <c r="K222" t="n">
-        <v>-20</v>
+        <v>-5.555555555555555</v>
       </c>
       <c r="L222" t="n">
         <v>129390</v>
@@ -11721,7 +11743,7 @@
         <v>81100</v>
       </c>
       <c r="K223" t="n">
-        <v>-10.76923076923077</v>
+        <v>7.317073170731707</v>
       </c>
       <c r="L223" t="n">
         <v>129440</v>
@@ -11772,7 +11794,7 @@
         <v>81100</v>
       </c>
       <c r="K224" t="n">
-        <v>-1.694915254237288</v>
+        <v>25.71428571428571</v>
       </c>
       <c r="L224" t="n">
         <v>129470</v>
@@ -11823,7 +11845,7 @@
         <v>81700</v>
       </c>
       <c r="K225" t="n">
-        <v>-9.375</v>
+        <v>-8.571428571428571</v>
       </c>
       <c r="L225" t="n">
         <v>129500</v>
@@ -11874,7 +11896,7 @@
         <v>82200</v>
       </c>
       <c r="K226" t="n">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L226" t="n">
         <v>129520</v>
@@ -11925,7 +11947,7 @@
         <v>82300</v>
       </c>
       <c r="K227" t="n">
-        <v>-3.03030303030303</v>
+        <v>0</v>
       </c>
       <c r="L227" t="n">
         <v>129590</v>
@@ -11976,7 +11998,7 @@
         <v>82300</v>
       </c>
       <c r="K228" t="n">
-        <v>-4.615384615384616</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L228" t="n">
         <v>129590</v>
@@ -12027,7 +12049,7 @@
         <v>82300</v>
       </c>
       <c r="K229" t="n">
-        <v>3.333333333333333</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L229" t="n">
         <v>129620</v>
@@ -12078,7 +12100,7 @@
         <v>82800</v>
       </c>
       <c r="K230" t="n">
-        <v>-1.587301587301587</v>
+        <v>-13.33333333333333</v>
       </c>
       <c r="L230" t="n">
         <v>129600</v>
@@ -12129,7 +12151,7 @@
         <v>83300</v>
       </c>
       <c r="K231" t="n">
-        <v>4.477611940298507</v>
+        <v>24.13793103448276</v>
       </c>
       <c r="L231" t="n">
         <v>129610</v>
@@ -12180,7 +12202,7 @@
         <v>83800</v>
       </c>
       <c r="K232" t="n">
-        <v>14.28571428571428</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="L232" t="n">
         <v>129730</v>
@@ -12231,7 +12253,7 @@
         <v>83900</v>
       </c>
       <c r="K233" t="n">
-        <v>15.49295774647887</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="L233" t="n">
         <v>129790</v>
@@ -12282,7 +12304,7 @@
         <v>84000</v>
       </c>
       <c r="K234" t="n">
-        <v>11.42857142857143</v>
+        <v>47.82608695652174</v>
       </c>
       <c r="L234" t="n">
         <v>129840</v>
@@ -12333,7 +12355,7 @@
         <v>84200</v>
       </c>
       <c r="K235" t="n">
-        <v>18.18181818181818</v>
+        <v>20</v>
       </c>
       <c r="L235" t="n">
         <v>129930</v>
@@ -12384,7 +12406,7 @@
         <v>84300</v>
       </c>
       <c r="K236" t="n">
-        <v>11.47540983606557</v>
+        <v>20</v>
       </c>
       <c r="L236" t="n">
         <v>129980</v>
@@ -12435,7 +12457,7 @@
         <v>84800</v>
       </c>
       <c r="K237" t="n">
-        <v>9.67741935483871</v>
+        <v>-4</v>
       </c>
       <c r="L237" t="n">
         <v>129970</v>
@@ -12486,7 +12508,7 @@
         <v>85100</v>
       </c>
       <c r="K238" t="n">
-        <v>-6.896551724137931</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L238" t="n">
         <v>129930</v>
@@ -12537,7 +12559,7 @@
         <v>85500</v>
       </c>
       <c r="K239" t="n">
-        <v>-8.474576271186439</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L239" t="n">
         <v>129850</v>
@@ -12588,7 +12610,7 @@
         <v>86100</v>
       </c>
       <c r="K240" t="n">
-        <v>1.538461538461539</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L240" t="n">
         <v>129880</v>
@@ -12639,7 +12661,7 @@
         <v>87500</v>
       </c>
       <c r="K241" t="n">
-        <v>16.88311688311688</v>
+        <v>18.91891891891892</v>
       </c>
       <c r="L241" t="n">
         <v>130000</v>
@@ -12690,7 +12712,7 @@
         <v>88200</v>
       </c>
       <c r="K242" t="n">
-        <v>15.38461538461539</v>
+        <v>-2.325581395348837</v>
       </c>
       <c r="L242" t="n">
         <v>130000</v>
@@ -12741,7 +12763,7 @@
         <v>88400</v>
       </c>
       <c r="K243" t="n">
-        <v>9.58904109589041</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="L243" t="n">
         <v>130010</v>
@@ -12792,7 +12814,7 @@
         <v>88900</v>
       </c>
       <c r="K244" t="n">
-        <v>2.564102564102564</v>
+        <v>-2.127659574468085</v>
       </c>
       <c r="L244" t="n">
         <v>129980</v>
@@ -12843,7 +12865,7 @@
         <v>89000</v>
       </c>
       <c r="K245" t="n">
-        <v>12.32876712328767</v>
+        <v>-2.127659574468085</v>
       </c>
       <c r="L245" t="n">
         <v>129980</v>
@@ -12894,7 +12916,7 @@
         <v>89000</v>
       </c>
       <c r="K246" t="n">
-        <v>5.88235294117647</v>
+        <v>9.523809523809524</v>
       </c>
       <c r="L246" t="n">
         <v>129970</v>
@@ -12945,7 +12967,7 @@
         <v>89100</v>
       </c>
       <c r="K247" t="n">
-        <v>5.88235294117647</v>
+        <v>20</v>
       </c>
       <c r="L247" t="n">
         <v>130020</v>
@@ -12996,7 +13018,7 @@
         <v>89800</v>
       </c>
       <c r="K248" t="n">
-        <v>14.66666666666667</v>
+        <v>44.18604651162791</v>
       </c>
       <c r="L248" t="n">
         <v>130170</v>
@@ -13047,7 +13069,7 @@
         <v>89900</v>
       </c>
       <c r="K249" t="n">
-        <v>15.78947368421053</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L249" t="n">
         <v>130370</v>
@@ -13098,7 +13120,7 @@
         <v>90600</v>
       </c>
       <c r="K250" t="n">
-        <v>30.76923076923077</v>
+        <v>22.58064516129032</v>
       </c>
       <c r="L250" t="n">
         <v>130580</v>
@@ -13149,7 +13171,7 @@
         <v>90600</v>
       </c>
       <c r="K251" t="n">
-        <v>26.02739726027397</v>
+        <v>58.33333333333334</v>
       </c>
       <c r="L251" t="n">
         <v>130650</v>
@@ -13200,7 +13222,7 @@
         <v>90600</v>
       </c>
       <c r="K252" t="n">
-        <v>20.58823529411764</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="L252" t="n">
         <v>130790</v>
@@ -13251,7 +13273,7 @@
         <v>91100</v>
       </c>
       <c r="K253" t="n">
-        <v>11.11111111111111</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="L253" t="n">
         <v>130860</v>
@@ -13302,7 +13324,7 @@
         <v>91500</v>
       </c>
       <c r="K254" t="n">
-        <v>17.33333333333334</v>
+        <v>60</v>
       </c>
       <c r="L254" t="n">
         <v>131020</v>
@@ -13353,7 +13375,7 @@
         <v>92000</v>
       </c>
       <c r="K255" t="n">
-        <v>12.82051282051282</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L255" t="n">
         <v>131120</v>
@@ -13404,7 +13426,7 @@
         <v>92500</v>
       </c>
       <c r="K256" t="n">
-        <v>17.07317073170732</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L256" t="n">
         <v>131270</v>
@@ -13455,7 +13477,7 @@
         <v>92600</v>
       </c>
       <c r="K257" t="n">
-        <v>25.64102564102564</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L257" t="n">
         <v>131420</v>
@@ -13506,7 +13528,7 @@
         <v>92800</v>
       </c>
       <c r="K258" t="n">
-        <v>32.46753246753246</v>
+        <v>31.03448275862069</v>
       </c>
       <c r="L258" t="n">
         <v>131520</v>
@@ -13557,7 +13579,7 @@
         <v>93000</v>
       </c>
       <c r="K259" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="L259" t="n">
         <v>131590</v>
@@ -13608,7 +13630,7 @@
         <v>93100</v>
       </c>
       <c r="K260" t="n">
-        <v>28.57142857142857</v>
+        <v>-4</v>
       </c>
       <c r="L260" t="n">
         <v>131580</v>
@@ -13659,7 +13681,7 @@
         <v>93400</v>
       </c>
       <c r="K261" t="n">
-        <v>5.084745762711865</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L261" t="n">
         <v>131540</v>
@@ -13710,7 +13732,7 @@
         <v>93900</v>
       </c>
       <c r="K262" t="n">
-        <v>8.771929824561402</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L262" t="n">
         <v>131450</v>
@@ -13761,7 +13783,7 @@
         <v>94000</v>
       </c>
       <c r="K263" t="n">
-        <v>3.571428571428571</v>
+        <v>-36</v>
       </c>
       <c r="L263" t="n">
         <v>131400</v>
@@ -13812,7 +13834,7 @@
         <v>94500</v>
       </c>
       <c r="K264" t="n">
-        <v>3.571428571428571</v>
+        <v>-36</v>
       </c>
       <c r="L264" t="n">
         <v>131260</v>
@@ -13863,7 +13885,7 @@
         <v>95500</v>
       </c>
       <c r="K265" t="n">
-        <v>16.92307692307692</v>
+        <v>-13.33333333333333</v>
       </c>
       <c r="L265" t="n">
         <v>131270</v>
@@ -13914,7 +13936,7 @@
         <v>96000</v>
       </c>
       <c r="K266" t="n">
-        <v>8.571428571428571</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L266" t="n">
         <v>131180</v>
@@ -13965,7 +13987,7 @@
         <v>96500</v>
       </c>
       <c r="K267" t="n">
-        <v>0</v>
+        <v>-45.94594594594595</v>
       </c>
       <c r="L267" t="n">
         <v>131030</v>
@@ -14016,7 +14038,7 @@
         <v>97000</v>
       </c>
       <c r="K268" t="n">
-        <v>-2.777777777777778</v>
+        <v>-25</v>
       </c>
       <c r="L268" t="n">
         <v>130910</v>
@@ -14067,7 +14089,7 @@
         <v>97700</v>
       </c>
       <c r="K269" t="n">
-        <v>-12.82051282051282</v>
+        <v>-34.78260869565217</v>
       </c>
       <c r="L269" t="n">
         <v>130740</v>
@@ -14118,7 +14140,7 @@
         <v>97900</v>
       </c>
       <c r="K270" t="n">
-        <v>-20.54794520547945</v>
+        <v>-24.44444444444444</v>
       </c>
       <c r="L270" t="n">
         <v>130600</v>
@@ -14169,7 +14191,7 @@
         <v>97900</v>
       </c>
       <c r="K271" t="n">
-        <v>-20.54794520547945</v>
+        <v>-15</v>
       </c>
       <c r="L271" t="n">
         <v>130490</v>
@@ -14220,7 +14242,7 @@
         <v>97900</v>
       </c>
       <c r="K272" t="n">
-        <v>-20.54794520547945</v>
+        <v>-12.82051282051282</v>
       </c>
       <c r="L272" t="n">
         <v>130430</v>
@@ -14271,7 +14293,7 @@
         <v>98800</v>
       </c>
       <c r="K273" t="n">
-        <v>-1.298701298701299</v>
+        <v>20.93023255813954</v>
       </c>
       <c r="L273" t="n">
         <v>130470</v>
@@ -14322,7 +14344,7 @@
         <v>100000</v>
       </c>
       <c r="K274" t="n">
-        <v>-20</v>
+        <v>-28.88888888888889</v>
       </c>
       <c r="L274" t="n">
         <v>130440</v>
@@ -14373,7 +14395,7 @@
         <v>100700</v>
       </c>
       <c r="K275" t="n">
-        <v>-5.747126436781609</v>
+        <v>-2.127659574468085</v>
       </c>
       <c r="L275" t="n">
         <v>130380</v>
@@ -14424,7 +14446,7 @@
         <v>101000</v>
       </c>
       <c r="K276" t="n">
-        <v>-8.235294117647058</v>
+        <v>15.55555555555556</v>
       </c>
       <c r="L276" t="n">
         <v>130400</v>
@@ -14475,7 +14497,7 @@
         <v>101700</v>
       </c>
       <c r="K277" t="n">
-        <v>-1.098901098901099</v>
+        <v>19.14893617021277</v>
       </c>
       <c r="L277" t="n">
         <v>130540</v>
@@ -14526,7 +14548,7 @@
         <v>102900</v>
       </c>
       <c r="K278" t="n">
-        <v>-14.85148514851485</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L278" t="n">
         <v>130510</v>
@@ -14577,7 +14599,7 @@
         <v>103100</v>
       </c>
       <c r="K279" t="n">
-        <v>-10.89108910891089</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L279" t="n">
         <v>130570</v>
@@ -14628,7 +14650,7 @@
         <v>103200</v>
       </c>
       <c r="K280" t="n">
-        <v>-8.91089108910891</v>
+        <v>9.433962264150944</v>
       </c>
       <c r="L280" t="n">
         <v>130620</v>
@@ -14679,7 +14701,7 @@
         <v>103200</v>
       </c>
       <c r="K281" t="n">
-        <v>-6.122448979591836</v>
+        <v>9.433962264150944</v>
       </c>
       <c r="L281" t="n">
         <v>130670</v>
@@ -14730,7 +14752,7 @@
         <v>103200</v>
       </c>
       <c r="K282" t="n">
-        <v>-1.075268817204301</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L282" t="n">
         <v>130720</v>
@@ -14781,7 +14803,7 @@
         <v>103200</v>
       </c>
       <c r="K283" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L283" t="n">
         <v>130680</v>
@@ -14832,7 +14854,7 @@
         <v>103300</v>
       </c>
       <c r="K284" t="n">
-        <v>4.545454545454546</v>
+        <v>0</v>
       </c>
       <c r="L284" t="n">
         <v>130750</v>
@@ -14883,7 +14905,7 @@
         <v>103400</v>
       </c>
       <c r="K285" t="n">
-        <v>-8.860759493670885</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L285" t="n">
         <v>130740</v>
@@ -14934,7 +14956,7 @@
         <v>103700</v>
       </c>
       <c r="K286" t="n">
-        <v>-6.493506493506493</v>
+        <v>-70</v>
       </c>
       <c r="L286" t="n">
         <v>130670</v>
@@ -14985,7 +15007,7 @@
         <v>103700</v>
       </c>
       <c r="K287" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L287" t="n">
         <v>130530</v>
@@ -15036,7 +15058,7 @@
         <v>104100</v>
       </c>
       <c r="K288" t="n">
-        <v>-1.408450704225352</v>
+        <v>0</v>
       </c>
       <c r="L288" t="n">
         <v>130550</v>
@@ -15087,7 +15109,7 @@
         <v>104600</v>
       </c>
       <c r="K289" t="n">
-        <v>15.94202898550724</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L289" t="n">
         <v>130600</v>
@@ -15138,7 +15160,7 @@
         <v>104900</v>
       </c>
       <c r="K290" t="n">
-        <v>8.571428571428571</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L290" t="n">
         <v>130610</v>
@@ -15189,7 +15211,7 @@
         <v>105200</v>
       </c>
       <c r="K291" t="n">
-        <v>12.32876712328767</v>
+        <v>20</v>
       </c>
       <c r="L291" t="n">
         <v>130650</v>
@@ -15240,7 +15262,7 @@
         <v>105400</v>
       </c>
       <c r="K292" t="n">
-        <v>14.66666666666667</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L292" t="n">
         <v>130710</v>
@@ -15291,7 +15313,7 @@
         <v>105400</v>
       </c>
       <c r="K293" t="n">
-        <v>3.03030303030303</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L293" t="n">
         <v>130770</v>
@@ -15342,7 +15364,7 @@
         <v>105500</v>
       </c>
       <c r="K294" t="n">
-        <v>27.27272727272727</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L294" t="n">
         <v>130850</v>
@@ -15393,7 +15415,7 @@
         <v>105600</v>
       </c>
       <c r="K295" t="n">
-        <v>14.28571428571428</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="L295" t="n">
         <v>130930</v>
@@ -15444,7 +15466,7 @@
         <v>105700</v>
       </c>
       <c r="K296" t="n">
-        <v>6.382978723404255</v>
+        <v>50</v>
       </c>
       <c r="L296" t="n">
         <v>131030</v>
@@ -15495,7 +15517,7 @@
         <v>105700</v>
       </c>
       <c r="K297" t="n">
-        <v>-10</v>
+        <v>37.5</v>
       </c>
       <c r="L297" t="n">
         <v>131130</v>
@@ -15546,7 +15568,7 @@
         <v>105800</v>
       </c>
       <c r="K298" t="n">
-        <v>24.13793103448276</v>
+        <v>0</v>
       </c>
       <c r="L298" t="n">
         <v>131180</v>
@@ -15597,7 +15619,7 @@
         <v>106000</v>
       </c>
       <c r="K299" t="n">
-        <v>24.13793103448276</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L299" t="n">
         <v>131200</v>
@@ -15648,7 +15670,7 @@
         <v>106000</v>
       </c>
       <c r="K300" t="n">
-        <v>21.42857142857143</v>
+        <v>25</v>
       </c>
       <c r="L300" t="n">
         <v>131250</v>
@@ -15699,7 +15721,7 @@
         <v>106200</v>
       </c>
       <c r="K301" t="n">
-        <v>13.33333333333333</v>
+        <v>-25</v>
       </c>
       <c r="L301" t="n">
         <v>131250</v>
@@ -15750,7 +15772,7 @@
         <v>106700</v>
       </c>
       <c r="K302" t="n">
-        <v>-2.857142857142857</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L302" t="n">
         <v>131180</v>
@@ -15801,7 +15823,7 @@
         <v>107200</v>
       </c>
       <c r="K303" t="n">
-        <v>10</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L303" t="n">
         <v>131160</v>
@@ -15852,7 +15874,7 @@
         <v>107700</v>
       </c>
       <c r="K304" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L304" t="n">
         <v>131080</v>
@@ -15903,7 +15925,7 @@
         <v>108100</v>
       </c>
       <c r="K305" t="n">
-        <v>10.63829787234043</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L305" t="n">
         <v>131050</v>
@@ -15954,7 +15976,7 @@
         <v>108200</v>
       </c>
       <c r="K306" t="n">
-        <v>20</v>
+        <v>-4</v>
       </c>
       <c r="L306" t="n">
         <v>131040</v>
@@ -16005,7 +16027,7 @@
         <v>108300</v>
       </c>
       <c r="K307" t="n">
-        <v>17.39130434782609</v>
+        <v>-4</v>
       </c>
       <c r="L307" t="n">
         <v>131020</v>
@@ -16056,7 +16078,7 @@
         <v>108700</v>
       </c>
       <c r="K308" t="n">
-        <v>0</v>
+        <v>-25.92592592592592</v>
       </c>
       <c r="L308" t="n">
         <v>130970</v>
@@ -16107,7 +16129,7 @@
         <v>108700</v>
       </c>
       <c r="K309" t="n">
-        <v>-12.19512195121951</v>
+        <v>-25.92592592592592</v>
       </c>
       <c r="L309" t="n">
         <v>130900</v>
@@ -16158,7 +16180,7 @@
         <v>109000</v>
       </c>
       <c r="K310" t="n">
-        <v>2.439024390243902</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L310" t="n">
         <v>130860</v>
@@ -16209,7 +16231,7 @@
         <v>109200</v>
       </c>
       <c r="K311" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L311" t="n">
         <v>130860</v>
@@ -16260,7 +16282,7 @@
         <v>109300</v>
       </c>
       <c r="K312" t="n">
-        <v>-7.692307692307693</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L312" t="n">
         <v>130900</v>
@@ -16311,7 +16333,7 @@
         <v>109400</v>
       </c>
       <c r="K313" t="n">
-        <v>-5</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L313" t="n">
         <v>130900</v>
@@ -16362,7 +16384,7 @@
         <v>109600</v>
       </c>
       <c r="K314" t="n">
-        <v>-2.439024390243902</v>
+        <v>20</v>
       </c>
       <c r="L314" t="n">
         <v>130970</v>
@@ -16413,7 +16435,7 @@
         <v>109900</v>
       </c>
       <c r="K315" t="n">
-        <v>6.976744186046512</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L315" t="n">
         <v>131030</v>
@@ -16464,7 +16486,7 @@
         <v>110100</v>
       </c>
       <c r="K316" t="n">
-        <v>13.63636363636363</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L316" t="n">
         <v>131100</v>
@@ -16515,7 +16537,7 @@
         <v>110400</v>
       </c>
       <c r="K317" t="n">
-        <v>19.14893617021277</v>
+        <v>88.23529411764706</v>
       </c>
       <c r="L317" t="n">
         <v>131210</v>
@@ -16566,7 +16588,7 @@
         <v>110800</v>
       </c>
       <c r="K318" t="n">
-        <v>12</v>
+        <v>52.38095238095239</v>
       </c>
       <c r="L318" t="n">
         <v>131320</v>
@@ -16617,7 +16639,7 @@
         <v>111300</v>
       </c>
       <c r="K319" t="n">
-        <v>16.9811320754717</v>
+        <v>56.52173913043478</v>
       </c>
       <c r="L319" t="n">
         <v>131480</v>
@@ -16668,7 +16690,7 @@
         <v>111900</v>
       </c>
       <c r="K320" t="n">
-        <v>5.084745762711865</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="L320" t="n">
         <v>131550</v>
@@ -16719,7 +16741,7 @@
         <v>112100</v>
       </c>
       <c r="K321" t="n">
-        <v>5.084745762711865</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L321" t="n">
         <v>131580</v>
@@ -16770,7 +16792,7 @@
         <v>112500</v>
       </c>
       <c r="K322" t="n">
-        <v>20.68965517241379</v>
+        <v>22.58064516129032</v>
       </c>
       <c r="L322" t="n">
         <v>131660</v>
@@ -16821,7 +16843,7 @@
         <v>112700</v>
       </c>
       <c r="K323" t="n">
-        <v>9.090909090909092</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="L323" t="n">
         <v>131710</v>
@@ -16872,7 +16894,7 @@
         <v>112900</v>
       </c>
       <c r="K324" t="n">
-        <v>23.07692307692308</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L324" t="n">
         <v>131760</v>
@@ -16923,7 +16945,7 @@
         <v>113300</v>
       </c>
       <c r="K325" t="n">
-        <v>7.692307692307693</v>
+        <v>-12.5</v>
       </c>
       <c r="L325" t="n">
         <v>131740</v>
@@ -16974,7 +16996,7 @@
         <v>113500</v>
       </c>
       <c r="K326" t="n">
-        <v>9.433962264150944</v>
+        <v>-16.12903225806452</v>
       </c>
       <c r="L326" t="n">
         <v>131720</v>
@@ -17025,7 +17047,7 @@
         <v>113500</v>
       </c>
       <c r="K327" t="n">
-        <v>11.53846153846154</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L327" t="n">
         <v>131670</v>
@@ -17076,7 +17098,7 @@
         <v>114100</v>
       </c>
       <c r="K328" t="n">
-        <v>7.407407407407407</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L328" t="n">
         <v>131600</v>
@@ -17127,7 +17149,7 @@
         <v>114100</v>
       </c>
       <c r="K329" t="n">
-        <v>7.407407407407407</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L329" t="n">
         <v>131480</v>
@@ -17178,7 +17200,7 @@
         <v>114200</v>
       </c>
       <c r="K330" t="n">
-        <v>0</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L330" t="n">
         <v>131410</v>
@@ -17229,7 +17251,7 @@
         <v>114300</v>
       </c>
       <c r="K331" t="n">
-        <v>-5.88235294117647</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L331" t="n">
         <v>131350</v>
@@ -17280,7 +17302,7 @@
         <v>114400</v>
       </c>
       <c r="K332" t="n">
-        <v>-5.88235294117647</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L332" t="n">
         <v>131240</v>
@@ -17331,7 +17353,7 @@
         <v>114800</v>
       </c>
       <c r="K333" t="n">
-        <v>0</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L333" t="n">
         <v>131190</v>
@@ -17382,7 +17404,7 @@
         <v>114800</v>
       </c>
       <c r="K334" t="n">
-        <v>-3.846153846153846</v>
+        <v>-20</v>
       </c>
       <c r="L334" t="n">
         <v>131120</v>
@@ -17433,7 +17455,7 @@
         <v>114800</v>
       </c>
       <c r="K335" t="n">
-        <v>-10.20408163265306</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L335" t="n">
         <v>131090</v>
@@ -17484,7 +17506,7 @@
         <v>114900</v>
       </c>
       <c r="K336" t="n">
-        <v>-16.66666666666666</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L336" t="n">
         <v>131030</v>
@@ -17535,7 +17557,7 @@
         <v>115000</v>
       </c>
       <c r="K337" t="n">
-        <v>-21.73913043478261</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L337" t="n">
         <v>130980</v>
@@ -17586,7 +17608,7 @@
         <v>115300</v>
       </c>
       <c r="K338" t="n">
-        <v>-20</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L338" t="n">
         <v>130960</v>
@@ -17637,7 +17659,7 @@
         <v>115300</v>
       </c>
       <c r="K339" t="n">
-        <v>-35</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L339" t="n">
         <v>130940</v>
@@ -17688,7 +17710,7 @@
         <v>115300</v>
       </c>
       <c r="K340" t="n">
-        <v>-23.52941176470588</v>
+        <v>0</v>
       </c>
       <c r="L340" t="n">
         <v>130930</v>
@@ -17739,7 +17761,7 @@
         <v>115400</v>
       </c>
       <c r="K341" t="n">
-        <v>-21.21212121212121</v>
+        <v>0</v>
       </c>
       <c r="L341" t="n">
         <v>130920</v>
@@ -17790,7 +17812,7 @@
         <v>115600</v>
       </c>
       <c r="K342" t="n">
-        <v>-41.93548387096774</v>
+        <v>-75</v>
       </c>
       <c r="L342" t="n">
         <v>130900</v>
@@ -17841,7 +17863,7 @@
         <v>115600</v>
       </c>
       <c r="K343" t="n">
-        <v>-37.93103448275862</v>
+        <v>-75</v>
       </c>
       <c r="L343" t="n">
         <v>130840</v>
@@ -17892,7 +17914,7 @@
         <v>115800</v>
       </c>
       <c r="K344" t="n">
-        <v>-37.93103448275862</v>
+        <v>-40</v>
       </c>
       <c r="L344" t="n">
         <v>130800</v>
@@ -17943,7 +17965,7 @@
         <v>116700</v>
       </c>
       <c r="K345" t="n">
-        <v>-47.05882352941176</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L345" t="n">
         <v>130670</v>
@@ -17994,7 +18016,7 @@
         <v>117000</v>
       </c>
       <c r="K346" t="n">
-        <v>-42.85714285714285</v>
+        <v>-50</v>
       </c>
       <c r="L346" t="n">
         <v>130580</v>
@@ -18096,7 +18118,7 @@
         <v>117200</v>
       </c>
       <c r="K348" t="n">
-        <v>-35.48387096774194</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L348" t="n">
         <v>130380</v>
@@ -18147,7 +18169,7 @@
         <v>117700</v>
       </c>
       <c r="K349" t="n">
-        <v>-44.44444444444444</v>
+        <v>-58.33333333333334</v>
       </c>
       <c r="L349" t="n">
         <v>130240</v>
@@ -18198,7 +18220,7 @@
         <v>117700</v>
       </c>
       <c r="K350" t="n">
-        <v>-42.85714285714285</v>
+        <v>-56.52173913043478</v>
       </c>
       <c r="L350" t="n">
         <v>130100</v>
@@ -18249,7 +18271,7 @@
         <v>118100</v>
       </c>
       <c r="K351" t="n">
-        <v>-26.31578947368421</v>
+        <v>-28</v>
       </c>
       <c r="L351" t="n">
         <v>130010</v>
@@ -18300,7 +18322,7 @@
         <v>118400</v>
       </c>
       <c r="K352" t="n">
-        <v>-30</v>
+        <v>-35.71428571428572</v>
       </c>
       <c r="L352" t="n">
         <v>129910</v>
@@ -18351,7 +18373,7 @@
         <v>118700</v>
       </c>
       <c r="K353" t="n">
-        <v>-33.33333333333333</v>
+        <v>-31.03448275862069</v>
       </c>
       <c r="L353" t="n">
         <v>129840</v>
@@ -18402,7 +18424,7 @@
         <v>119100</v>
       </c>
       <c r="K354" t="n">
-        <v>-39.53488372093023</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L354" t="n">
         <v>129710</v>
@@ -18453,7 +18475,7 @@
         <v>119100</v>
       </c>
       <c r="K355" t="n">
-        <v>-39.53488372093023</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L355" t="n">
         <v>129670</v>
@@ -18504,7 +18526,7 @@
         <v>119100</v>
       </c>
       <c r="K356" t="n">
-        <v>-38.09523809523809</v>
+        <v>-30</v>
       </c>
       <c r="L356" t="n">
         <v>129600</v>
@@ -18555,7 +18577,7 @@
         <v>119200</v>
       </c>
       <c r="K357" t="n">
-        <v>-38.09523809523809</v>
+        <v>-20</v>
       </c>
       <c r="L357" t="n">
         <v>129550</v>
@@ -18606,7 +18628,7 @@
         <v>119400</v>
       </c>
       <c r="K358" t="n">
-        <v>-36.58536585365854</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L358" t="n">
         <v>129490</v>
@@ -18657,7 +18679,7 @@
         <v>119500</v>
       </c>
       <c r="K359" t="n">
-        <v>-38.09523809523809</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L359" t="n">
         <v>129470</v>
@@ -18708,7 +18730,7 @@
         <v>119600</v>
       </c>
       <c r="K360" t="n">
-        <v>-39.53488372093023</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L360" t="n">
         <v>129440</v>
@@ -18759,7 +18781,7 @@
         <v>119700</v>
       </c>
       <c r="K361" t="n">
-        <v>-34.88372093023256</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L361" t="n">
         <v>129380</v>
@@ -18810,7 +18832,7 @@
         <v>119800</v>
       </c>
       <c r="K362" t="n">
-        <v>-33.33333333333333</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L362" t="n">
         <v>129340</v>
@@ -18861,7 +18883,7 @@
         <v>119900</v>
       </c>
       <c r="K363" t="n">
-        <v>-34.88372093023256</v>
+        <v>-50</v>
       </c>
       <c r="L363" t="n">
         <v>129260</v>
@@ -18912,7 +18934,7 @@
         <v>120100</v>
       </c>
       <c r="K364" t="n">
-        <v>-34.88372093023256</v>
+        <v>-20</v>
       </c>
       <c r="L364" t="n">
         <v>129240</v>
@@ -18963,7 +18985,7 @@
         <v>120200</v>
       </c>
       <c r="K365" t="n">
-        <v>-20</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L365" t="n">
         <v>129210</v>
@@ -19014,7 +19036,7 @@
         <v>120200</v>
       </c>
       <c r="K366" t="n">
-        <v>-31.25</v>
+        <v>-40</v>
       </c>
       <c r="L366" t="n">
         <v>129180</v>
@@ -19065,7 +19087,7 @@
         <v>120400</v>
       </c>
       <c r="K367" t="n">
-        <v>-21.21212121212121</v>
+        <v>0</v>
       </c>
       <c r="L367" t="n">
         <v>129160</v>
@@ -19116,7 +19138,7 @@
         <v>120500</v>
       </c>
       <c r="K368" t="n">
-        <v>-15.15151515151515</v>
+        <v>20</v>
       </c>
       <c r="L368" t="n">
         <v>129170</v>
@@ -19167,7 +19189,7 @@
         <v>121000</v>
       </c>
       <c r="K369" t="n">
-        <v>15.15151515151515</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L369" t="n">
         <v>129240</v>
@@ -19218,7 +19240,7 @@
         <v>121600</v>
       </c>
       <c r="K370" t="n">
-        <v>-2.564102564102564</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L370" t="n">
         <v>129260</v>
@@ -19269,7 +19291,7 @@
         <v>121900</v>
       </c>
       <c r="K371" t="n">
-        <v>-5.263157894736842</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L371" t="n">
         <v>129300</v>
@@ -19320,7 +19342,7 @@
         <v>122100</v>
       </c>
       <c r="K372" t="n">
-        <v>8.108108108108109</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L372" t="n">
         <v>129370</v>
@@ -19371,7 +19393,7 @@
         <v>122200</v>
       </c>
       <c r="K373" t="n">
-        <v>-2.857142857142857</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L373" t="n">
         <v>129440</v>
@@ -19422,7 +19444,7 @@
         <v>122200</v>
       </c>
       <c r="K374" t="n">
-        <v>9.67741935483871</v>
+        <v>30</v>
       </c>
       <c r="L374" t="n">
         <v>129490</v>
@@ -19473,7 +19495,7 @@
         <v>122600</v>
       </c>
       <c r="K375" t="n">
-        <v>-2.857142857142857</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L375" t="n">
         <v>129510</v>
@@ -19524,7 +19546,7 @@
         <v>122800</v>
       </c>
       <c r="K376" t="n">
-        <v>2.702702702702703</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L376" t="n">
         <v>129550</v>
@@ -19575,7 +19597,7 @@
         <v>123300</v>
       </c>
       <c r="K377" t="n">
-        <v>-12.19512195121951</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L377" t="n">
         <v>129520</v>
@@ -19626,7 +19648,7 @@
         <v>123900</v>
       </c>
       <c r="K378" t="n">
-        <v>-20</v>
+        <v>-51.72413793103448</v>
       </c>
       <c r="L378" t="n">
         <v>129420</v>
@@ -19677,7 +19699,7 @@
         <v>124500</v>
       </c>
       <c r="K379" t="n">
-        <v>-4</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L379" t="n">
         <v>129330</v>
@@ -19728,7 +19750,7 @@
         <v>125200</v>
       </c>
       <c r="K380" t="n">
-        <v>-14.28571428571428</v>
+        <v>-39.39393939393939</v>
       </c>
       <c r="L380" t="n">
         <v>129230</v>
@@ -19779,7 +19801,7 @@
         <v>125700</v>
       </c>
       <c r="K381" t="n">
-        <v>-6.666666666666667</v>
+        <v>-27.77777777777778</v>
       </c>
       <c r="L381" t="n">
         <v>129150</v>
@@ -19830,7 +19852,7 @@
         <v>125800</v>
       </c>
       <c r="K382" t="n">
-        <v>-3.333333333333333</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L382" t="n">
         <v>129060</v>
@@ -19881,7 +19903,7 @@
         <v>125800</v>
       </c>
       <c r="K383" t="n">
-        <v>-1.694915254237288</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L383" t="n">
         <v>128980</v>
@@ -19932,7 +19954,7 @@
         <v>125900</v>
       </c>
       <c r="K384" t="n">
-        <v>-6.896551724137931</v>
+        <v>-15.15151515151515</v>
       </c>
       <c r="L384" t="n">
         <v>128890</v>
@@ -19983,7 +20005,7 @@
         <v>126000</v>
       </c>
       <c r="K385" t="n">
-        <v>-3.448275862068965</v>
+        <v>-18.75</v>
       </c>
       <c r="L385" t="n">
         <v>128850</v>
@@ -20034,7 +20056,7 @@
         <v>126100</v>
       </c>
       <c r="K386" t="n">
-        <v>-5.084745762711865</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L386" t="n">
         <v>128780</v>
@@ -20085,7 +20107,7 @@
         <v>126200</v>
       </c>
       <c r="K387" t="n">
-        <v>-10.3448275862069</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L387" t="n">
         <v>128750</v>
@@ -20136,7 +20158,7 @@
         <v>126400</v>
       </c>
       <c r="K388" t="n">
-        <v>-15.25423728813559</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L388" t="n">
         <v>128760</v>
@@ -20187,7 +20209,7 @@
         <v>126400</v>
       </c>
       <c r="K389" t="n">
-        <v>-25.92592592592592</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L389" t="n">
         <v>128710</v>
@@ -20238,7 +20260,7 @@
         <v>126500</v>
       </c>
       <c r="K390" t="n">
-        <v>-14.28571428571428</v>
+        <v>-25</v>
       </c>
       <c r="L390" t="n">
         <v>128740</v>
@@ -20289,7 +20311,7 @@
         <v>126600</v>
       </c>
       <c r="K391" t="n">
-        <v>-23.40425531914894</v>
+        <v>-50</v>
       </c>
       <c r="L391" t="n">
         <v>128710</v>
@@ -20340,7 +20362,7 @@
         <v>126600</v>
       </c>
       <c r="K392" t="n">
-        <v>-28.88888888888889</v>
+        <v>-50</v>
       </c>
       <c r="L392" t="n">
         <v>128670</v>
@@ -20391,7 +20413,7 @@
         <v>127100</v>
       </c>
       <c r="K393" t="n">
-        <v>-34.69387755102041</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L393" t="n">
         <v>128580</v>
@@ -20442,7 +20464,7 @@
         <v>127100</v>
       </c>
       <c r="K394" t="n">
-        <v>-34.69387755102041</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L394" t="n">
         <v>128500</v>
@@ -20493,7 +20515,7 @@
         <v>127500</v>
       </c>
       <c r="K395" t="n">
-        <v>-34.69387755102041</v>
+        <v>-85.71428571428571</v>
       </c>
       <c r="L395" t="n">
         <v>128370</v>
@@ -20544,7 +20566,7 @@
         <v>127900</v>
       </c>
       <c r="K396" t="n">
-        <v>-29.41176470588236</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L396" t="n">
         <v>128290</v>
@@ -20595,7 +20617,7 @@
         <v>128200</v>
       </c>
       <c r="K397" t="n">
-        <v>-26.53061224489796</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L397" t="n">
         <v>128190</v>
@@ -20646,7 +20668,7 @@
         <v>128600</v>
       </c>
       <c r="K398" t="n">
-        <v>-23.40425531914894</v>
+        <v>-54.54545454545454</v>
       </c>
       <c r="L398" t="n">
         <v>128070</v>
@@ -20697,7 +20719,7 @@
         <v>129500</v>
       </c>
       <c r="K399" t="n">
-        <v>-52</v>
+        <v>-73.33333333333333</v>
       </c>
       <c r="L399" t="n">
         <v>127860</v>
@@ -20748,7 +20770,7 @@
         <v>129800</v>
       </c>
       <c r="K400" t="n">
-        <v>-34.78260869565217</v>
+        <v>-56.25</v>
       </c>
       <c r="L400" t="n">
         <v>127670</v>
@@ -20799,7 +20821,7 @@
         <v>130200</v>
       </c>
       <c r="K401" t="n">
-        <v>-55.55555555555556</v>
+        <v>-61.11111111111111</v>
       </c>
       <c r="L401" t="n">
         <v>127450</v>
@@ -20850,7 +20872,7 @@
         <v>130800</v>
       </c>
       <c r="K402" t="n">
-        <v>-64</v>
+        <v>-62.16216216216216</v>
       </c>
       <c r="L402" t="n">
         <v>127170</v>
@@ -20901,7 +20923,7 @@
         <v>131900</v>
       </c>
       <c r="K403" t="n">
-        <v>-34.42622950819672</v>
+        <v>-25</v>
       </c>
       <c r="L403" t="n">
         <v>127050</v>
@@ -20952,7 +20974,7 @@
         <v>132300</v>
       </c>
       <c r="K404" t="n">
-        <v>-37.5</v>
+        <v>-25</v>
       </c>
       <c r="L404" t="n">
         <v>126890</v>
@@ -21003,7 +21025,7 @@
         <v>132600</v>
       </c>
       <c r="K405" t="n">
-        <v>-42.42424242424242</v>
+        <v>-40.42553191489361</v>
       </c>
       <c r="L405" t="n">
         <v>126740</v>
@@ -21054,7 +21076,7 @@
         <v>132900</v>
       </c>
       <c r="K406" t="n">
-        <v>-35.29411764705883</v>
+        <v>-27.65957446808511</v>
       </c>
       <c r="L406" t="n">
         <v>126580</v>
@@ -21105,7 +21127,7 @@
         <v>133700</v>
       </c>
       <c r="K407" t="n">
-        <v>-20</v>
+        <v>-1.96078431372549</v>
       </c>
       <c r="L407" t="n">
         <v>126530</v>
@@ -21156,7 +21178,7 @@
         <v>134000</v>
       </c>
       <c r="K408" t="n">
-        <v>-13.1578947368421</v>
+        <v>24.44444444444444</v>
       </c>
       <c r="L408" t="n">
         <v>126550</v>
@@ -21207,7 +21229,7 @@
         <v>134100</v>
       </c>
       <c r="K409" t="n">
-        <v>-14.28571428571428</v>
+        <v>16.27906976744186</v>
       </c>
       <c r="L409" t="n">
         <v>126650</v>
@@ -21258,7 +21280,7 @@
         <v>134500</v>
       </c>
       <c r="K410" t="n">
-        <v>-20</v>
+        <v>16.27906976744186</v>
       </c>
       <c r="L410" t="n">
         <v>126680</v>
@@ -21309,7 +21331,7 @@
         <v>134700</v>
       </c>
       <c r="K411" t="n">
-        <v>-16.04938271604938</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L411" t="n">
         <v>126770</v>
@@ -21360,7 +21382,7 @@
         <v>134800</v>
       </c>
       <c r="K412" t="n">
-        <v>-17.07317073170732</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L412" t="n">
         <v>126910</v>
@@ -21411,7 +21433,7 @@
         <v>135100</v>
       </c>
       <c r="K413" t="n">
-        <v>-15</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L413" t="n">
         <v>126910</v>
@@ -21462,7 +21484,7 @@
         <v>135400</v>
       </c>
       <c r="K414" t="n">
-        <v>-10.8433734939759</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="L414" t="n">
         <v>126980</v>
@@ -21513,7 +21535,7 @@
         <v>135400</v>
       </c>
       <c r="K415" t="n">
-        <v>-6.329113924050633</v>
+        <v>28</v>
       </c>
       <c r="L415" t="n">
         <v>127080</v>
@@ -21564,7 +21586,7 @@
         <v>135500</v>
       </c>
       <c r="K416" t="n">
-        <v>-10.52631578947368</v>
+        <v>0</v>
       </c>
       <c r="L416" t="n">
         <v>127160</v>
@@ -21615,7 +21637,7 @@
         <v>135700</v>
       </c>
       <c r="K417" t="n">
-        <v>-4</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L417" t="n">
         <v>127180</v>
@@ -21666,7 +21688,7 @@
         <v>135900</v>
       </c>
       <c r="K418" t="n">
-        <v>4.10958904109589</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L418" t="n">
         <v>127190</v>
@@ -21717,7 +21739,7 @@
         <v>136400</v>
       </c>
       <c r="K419" t="n">
-        <v>24.63768115942029</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="L419" t="n">
         <v>127260</v>
@@ -21768,7 +21790,7 @@
         <v>136400</v>
       </c>
       <c r="K420" t="n">
-        <v>21.21212121212121</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L420" t="n">
         <v>127370</v>
@@ -21819,7 +21841,7 @@
         <v>136500</v>
       </c>
       <c r="K421" t="n">
-        <v>30.15873015873016</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="L421" t="n">
         <v>127470</v>
@@ -21870,7 +21892,7 @@
         <v>136700</v>
       </c>
       <c r="K422" t="n">
-        <v>45.76271186440678</v>
+        <v>100</v>
       </c>
       <c r="L422" t="n">
         <v>127600</v>
@@ -21921,7 +21943,7 @@
         <v>136800</v>
       </c>
       <c r="K423" t="n">
-        <v>30.61224489795918</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="L423" t="n">
         <v>127750</v>
@@ -21972,7 +21994,7 @@
         <v>137000</v>
       </c>
       <c r="K424" t="n">
-        <v>36.17021276595745</v>
+        <v>62.5</v>
       </c>
       <c r="L424" t="n">
         <v>127850</v>
@@ -22023,7 +22045,7 @@
         <v>137100</v>
       </c>
       <c r="K425" t="n">
-        <v>42.22222222222222</v>
+        <v>50</v>
       </c>
       <c r="L425" t="n">
         <v>127940</v>
@@ -22074,7 +22096,7 @@
         <v>137600</v>
       </c>
       <c r="K426" t="n">
-        <v>23.40425531914894</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L426" t="n">
         <v>127970</v>
@@ -22125,7 +22147,7 @@
         <v>138000</v>
       </c>
       <c r="K427" t="n">
-        <v>16.27906976744186</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L427" t="n">
         <v>128020</v>
@@ -22176,7 +22198,7 @@
         <v>138500</v>
       </c>
       <c r="K428" t="n">
-        <v>-2.222222222222222</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L428" t="n">
         <v>128000</v>
@@ -22227,7 +22249,7 @@
         <v>138800</v>
       </c>
       <c r="K429" t="n">
-        <v>6.382978723404255</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L429" t="n">
         <v>127960</v>
@@ -22278,7 +22300,7 @@
         <v>139100</v>
       </c>
       <c r="K430" t="n">
-        <v>8.695652173913043</v>
+        <v>-30.76923076923077</v>
       </c>
       <c r="L430" t="n">
         <v>127890</v>
@@ -22329,7 +22351,7 @@
         <v>139400</v>
       </c>
       <c r="K431" t="n">
-        <v>-2.127659574468085</v>
+        <v>-48.14814814814815</v>
       </c>
       <c r="L431" t="n">
         <v>127780</v>
@@ -22380,7 +22402,7 @@
         <v>139800</v>
       </c>
       <c r="K432" t="n">
-        <v>8</v>
+        <v>-26.66666666666667</v>
       </c>
       <c r="L432" t="n">
         <v>127690</v>
@@ -22431,7 +22453,7 @@
         <v>139900</v>
       </c>
       <c r="K433" t="n">
-        <v>16.66666666666666</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L433" t="n">
         <v>127620</v>
@@ -22482,7 +22504,7 @@
         <v>140000</v>
       </c>
       <c r="K434" t="n">
-        <v>8.695652173913043</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L434" t="n">
         <v>127560</v>
@@ -22533,7 +22555,7 @@
         <v>140000</v>
       </c>
       <c r="K435" t="n">
-        <v>8.695652173913043</v>
+        <v>0</v>
       </c>
       <c r="L435" t="n">
         <v>127510</v>
@@ -22584,7 +22606,7 @@
         <v>140000</v>
       </c>
       <c r="K436" t="n">
-        <v>6.666666666666667</v>
+        <v>-20</v>
       </c>
       <c r="L436" t="n">
         <v>127510</v>
@@ -22635,7 +22657,7 @@
         <v>140000</v>
       </c>
       <c r="K437" t="n">
-        <v>2.325581395348837</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L437" t="n">
         <v>127470</v>
@@ -22686,7 +22708,7 @@
         <v>140000</v>
       </c>
       <c r="K438" t="n">
-        <v>-2.439024390243902</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L438" t="n">
         <v>127480</v>
@@ -22737,7 +22759,7 @@
         <v>140400</v>
       </c>
       <c r="K439" t="n">
-        <v>-5</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L439" t="n">
         <v>127500</v>
@@ -22788,7 +22810,7 @@
         <v>140400</v>
       </c>
       <c r="K440" t="n">
-        <v>-5</v>
+        <v>80</v>
       </c>
       <c r="L440" t="n">
         <v>127550</v>
@@ -22839,7 +22861,7 @@
         <v>140800</v>
       </c>
       <c r="K441" t="n">
-        <v>2.325581395348837</v>
+        <v>80</v>
       </c>
       <c r="L441" t="n">
         <v>127670</v>
@@ -22890,7 +22912,7 @@
         <v>141000</v>
       </c>
       <c r="K442" t="n">
-        <v>-6.976744186046512</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L442" t="n">
         <v>127730</v>
@@ -22941,7 +22963,7 @@
         <v>141700</v>
       </c>
       <c r="K443" t="n">
-        <v>-18.36734693877551</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L443" t="n">
         <v>127710</v>
@@ -22992,7 +23014,7 @@
         <v>142000</v>
       </c>
       <c r="K444" t="n">
-        <v>-8</v>
+        <v>10</v>
       </c>
       <c r="L444" t="n">
         <v>127730</v>
@@ -23043,7 +23065,7 @@
         <v>142400</v>
       </c>
       <c r="K445" t="n">
-        <v>1.886792452830189</v>
+        <v>25</v>
       </c>
       <c r="L445" t="n">
         <v>127790</v>
@@ -23094,7 +23116,7 @@
         <v>142400</v>
       </c>
       <c r="K446" t="n">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="L446" t="n">
         <v>127850</v>
@@ -23145,7 +23167,7 @@
         <v>142400</v>
       </c>
       <c r="K447" t="n">
-        <v>4.545454545454546</v>
+        <v>25</v>
       </c>
       <c r="L447" t="n">
         <v>127910</v>
@@ -23196,7 +23218,7 @@
         <v>142800</v>
       </c>
       <c r="K448" t="n">
-        <v>25.58139534883721</v>
+        <v>25</v>
       </c>
       <c r="L448" t="n">
         <v>128010</v>
@@ -23247,7 +23269,7 @@
         <v>143100</v>
       </c>
       <c r="K449" t="n">
-        <v>25.58139534883721</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L449" t="n">
         <v>128100</v>
@@ -23298,7 +23320,7 @@
         <v>143100</v>
       </c>
       <c r="K450" t="n">
-        <v>35</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="L450" t="n">
         <v>128190</v>
@@ -23349,7 +23371,7 @@
         <v>143600</v>
       </c>
       <c r="K451" t="n">
-        <v>28.57142857142857</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L451" t="n">
         <v>128190</v>
@@ -23400,7 +23422,7 @@
         <v>143800</v>
       </c>
       <c r="K452" t="n">
-        <v>15</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L452" t="n">
         <v>128190</v>
@@ -23451,7 +23473,7 @@
         <v>143800</v>
       </c>
       <c r="K453" t="n">
-        <v>12.82051282051282</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L453" t="n">
         <v>128260</v>
@@ -23502,7 +23524,7 @@
         <v>144200</v>
       </c>
       <c r="K454" t="n">
-        <v>23.80952380952381</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L454" t="n">
         <v>128340</v>
@@ -23553,7 +23575,7 @@
         <v>144500</v>
       </c>
       <c r="K455" t="n">
-        <v>28.88888888888889</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L455" t="n">
         <v>128410</v>
@@ -23604,7 +23626,7 @@
         <v>144900</v>
       </c>
       <c r="K456" t="n">
-        <v>18.36734693877551</v>
+        <v>12</v>
       </c>
       <c r="L456" t="n">
         <v>128440</v>
@@ -23655,7 +23677,7 @@
         <v>144900</v>
       </c>
       <c r="K457" t="n">
-        <v>18.36734693877551</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L457" t="n">
         <v>128470</v>
@@ -23706,7 +23728,7 @@
         <v>145100</v>
       </c>
       <c r="K458" t="n">
-        <v>13.72549019607843</v>
+        <v>-30</v>
       </c>
       <c r="L458" t="n">
         <v>128440</v>
@@ -23757,7 +23779,7 @@
         <v>145400</v>
       </c>
       <c r="K459" t="n">
-        <v>12</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L459" t="n">
         <v>128410</v>
@@ -23808,7 +23830,7 @@
         <v>145800</v>
       </c>
       <c r="K460" t="n">
-        <v>3.703703703703703</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L460" t="n">
         <v>128340</v>
@@ -23859,7 +23881,7 @@
         <v>145900</v>
       </c>
       <c r="K461" t="n">
-        <v>-1.96078431372549</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L461" t="n">
         <v>128330</v>
@@ -23910,7 +23932,7 @@
         <v>146200</v>
       </c>
       <c r="K462" t="n">
-        <v>-3.846153846153846</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L462" t="n">
         <v>128310</v>
@@ -23961,7 +23983,7 @@
         <v>146300</v>
       </c>
       <c r="K463" t="n">
-        <v>13.04347826086956</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L463" t="n">
         <v>128300</v>
@@ -24012,7 +24034,7 @@
         <v>146400</v>
       </c>
       <c r="K464" t="n">
-        <v>9.090909090909092</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L464" t="n">
         <v>128260</v>
@@ -24063,7 +24085,7 @@
         <v>147000</v>
       </c>
       <c r="K465" t="n">
-        <v>13.04347826086956</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L465" t="n">
         <v>128250</v>
@@ -24114,7 +24136,7 @@
         <v>147200</v>
       </c>
       <c r="K466" t="n">
-        <v>8.333333333333332</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L466" t="n">
         <v>128260</v>
@@ -24165,7 +24187,7 @@
         <v>147500</v>
       </c>
       <c r="K467" t="n">
-        <v>13.72549019607843</v>
+        <v>25</v>
       </c>
       <c r="L467" t="n">
         <v>128300</v>
@@ -24216,7 +24238,7 @@
         <v>148100</v>
       </c>
       <c r="K468" t="n">
-        <v>16.9811320754717</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L468" t="n">
         <v>128420</v>
@@ -24267,7 +24289,7 @@
         <v>148200</v>
       </c>
       <c r="K469" t="n">
-        <v>9.803921568627452</v>
+        <v>50</v>
       </c>
       <c r="L469" t="n">
         <v>128500</v>
@@ -24318,7 +24340,7 @@
         <v>148200</v>
       </c>
       <c r="K470" t="n">
-        <v>9.803921568627452</v>
+        <v>47.82608695652174</v>
       </c>
       <c r="L470" t="n">
         <v>128620</v>
@@ -24369,7 +24391,7 @@
         <v>148400</v>
       </c>
       <c r="K471" t="n">
-        <v>25</v>
+        <v>72.72727272727273</v>
       </c>
       <c r="L471" t="n">
         <v>128750</v>
@@ -24420,7 +24442,7 @@
         <v>148400</v>
       </c>
       <c r="K472" t="n">
-        <v>30.43478260869566</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L472" t="n">
         <v>128910</v>
@@ -24471,7 +24493,7 @@
         <v>148600</v>
       </c>
       <c r="K473" t="n">
-        <v>25</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="L473" t="n">
         <v>129040</v>
@@ -24522,7 +24544,7 @@
         <v>148800</v>
       </c>
       <c r="K474" t="n">
-        <v>21.73913043478261</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L474" t="n">
         <v>129180</v>
@@ -24573,7 +24595,7 @@
         <v>149000</v>
       </c>
       <c r="K475" t="n">
-        <v>11.11111111111111</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L475" t="n">
         <v>129240</v>
@@ -24624,7 +24646,7 @@
         <v>149100</v>
       </c>
       <c r="K476" t="n">
-        <v>19.04761904761905</v>
+        <v>25</v>
       </c>
       <c r="L476" t="n">
         <v>129310</v>
@@ -24675,7 +24697,7 @@
         <v>149200</v>
       </c>
       <c r="K477" t="n">
-        <v>16.27906976744186</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L477" t="n">
         <v>129340</v>
@@ -24726,7 +24748,7 @@
         <v>150000</v>
       </c>
       <c r="K478" t="n">
-        <v>2.040816326530612</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L478" t="n">
         <v>129230</v>
@@ -24777,7 +24799,7 @@
         <v>150000</v>
       </c>
       <c r="K479" t="n">
-        <v>-4.347826086956522</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L479" t="n">
         <v>129130</v>
@@ -24828,7 +24850,7 @@
         <v>150400</v>
       </c>
       <c r="K480" t="n">
-        <v>-4.347826086956522</v>
+        <v>-80</v>
       </c>
       <c r="L480" t="n">
         <v>128990</v>
@@ -24879,7 +24901,7 @@
         <v>150800</v>
       </c>
       <c r="K481" t="n">
-        <v>2.040816326530612</v>
+        <v>-50</v>
       </c>
       <c r="L481" t="n">
         <v>128870</v>
@@ -24930,7 +24952,7 @@
         <v>151200</v>
       </c>
       <c r="K482" t="n">
-        <v>0</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L482" t="n">
         <v>128710</v>
@@ -24981,7 +25003,7 @@
         <v>151300</v>
       </c>
       <c r="K483" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="L483" t="n">
         <v>128580</v>
@@ -25032,7 +25054,7 @@
         <v>151500</v>
       </c>
       <c r="K484" t="n">
-        <v>1.96078431372549</v>
+        <v>-44</v>
       </c>
       <c r="L484" t="n">
         <v>128450</v>
@@ -25083,7 +25105,7 @@
         <v>152000</v>
       </c>
       <c r="K485" t="n">
-        <v>-20</v>
+        <v>-51.72413793103448</v>
       </c>
       <c r="L485" t="n">
         <v>128290</v>
@@ -25134,7 +25156,7 @@
         <v>152100</v>
       </c>
       <c r="K486" t="n">
-        <v>-18.36734693877551</v>
+        <v>-51.72413793103448</v>
       </c>
       <c r="L486" t="n">
         <v>128130</v>
@@ -25185,7 +25207,7 @@
         <v>152100</v>
       </c>
       <c r="K487" t="n">
-        <v>-26.08695652173913</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L487" t="n">
         <v>127980</v>
@@ -25236,7 +25258,7 @@
         <v>152400</v>
       </c>
       <c r="K488" t="n">
-        <v>-48.83720930232558</v>
+        <v>-41.66666666666667</v>
       </c>
       <c r="L488" t="n">
         <v>127880</v>
@@ -25287,7 +25309,7 @@
         <v>152400</v>
       </c>
       <c r="K489" t="n">
-        <v>-47.61904761904761</v>
+        <v>-30</v>
       </c>
       <c r="L489" t="n">
         <v>127780</v>
@@ -25338,7 +25360,7 @@
         <v>152900</v>
       </c>
       <c r="K490" t="n">
-        <v>-31.91489361702128</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L490" t="n">
         <v>127770</v>
@@ -25389,7 +25411,7 @@
         <v>153500</v>
       </c>
       <c r="K491" t="n">
-        <v>-45.09803921568628</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L491" t="n">
         <v>127660</v>
@@ -25491,7 +25513,7 @@
         <v>154200</v>
       </c>
       <c r="K493" t="n">
-        <v>-50</v>
+        <v>-62.96296296296296</v>
       </c>
       <c r="L493" t="n">
         <v>127370</v>
@@ -25542,7 +25564,7 @@
         <v>154300</v>
       </c>
       <c r="K494" t="n">
-        <v>-52.72727272727272</v>
+        <v>-47.82608695652174</v>
       </c>
       <c r="L494" t="n">
         <v>127210</v>
@@ -25593,7 +25615,7 @@
         <v>154300</v>
       </c>
       <c r="K495" t="n">
-        <v>-50.9433962264151</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L495" t="n">
         <v>127100</v>
@@ -25644,7 +25666,7 @@
         <v>154300</v>
       </c>
       <c r="K496" t="n">
-        <v>-50</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L496" t="n">
         <v>127000</v>
@@ -25695,7 +25717,7 @@
         <v>154800</v>
       </c>
       <c r="K497" t="n">
-        <v>-53.57142857142857</v>
+        <v>-50</v>
       </c>
       <c r="L497" t="n">
         <v>126850</v>
@@ -25746,7 +25768,7 @@
         <v>155200</v>
       </c>
       <c r="K498" t="n">
-        <v>-34.61538461538461</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L498" t="n">
         <v>126770</v>
@@ -25797,7 +25819,7 @@
         <v>155500</v>
       </c>
       <c r="K499" t="n">
-        <v>-38.18181818181819</v>
+        <v>-61.53846153846154</v>
       </c>
       <c r="L499" t="n">
         <v>126660</v>
@@ -25848,7 +25870,7 @@
         <v>155800</v>
       </c>
       <c r="K500" t="n">
-        <v>-25.92592592592592</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L500" t="n">
         <v>126530</v>
@@ -25899,7 +25921,7 @@
         <v>156100</v>
       </c>
       <c r="K501" t="n">
-        <v>-28.30188679245283</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L501" t="n">
         <v>126490</v>
@@ -25950,7 +25972,7 @@
         <v>156600</v>
       </c>
       <c r="K502" t="n">
-        <v>-29.62962962962963</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L502" t="n">
         <v>126470</v>
@@ -26001,7 +26023,7 @@
         <v>156800</v>
       </c>
       <c r="K503" t="n">
-        <v>-34.54545454545455</v>
+        <v>-20</v>
       </c>
       <c r="L503" t="n">
         <v>126430</v>
@@ -26052,7 +26074,7 @@
         <v>158300</v>
       </c>
       <c r="K504" t="n">
-        <v>-52.94117647058824</v>
+        <v>-50</v>
       </c>
       <c r="L504" t="n">
         <v>126230</v>
@@ -26103,7 +26125,7 @@
         <v>159300</v>
       </c>
       <c r="K505" t="n">
-        <v>-28.76712328767123</v>
+        <v>-20</v>
       </c>
       <c r="L505" t="n">
         <v>126130</v>
@@ -26154,7 +26176,7 @@
         <v>159500</v>
       </c>
       <c r="K506" t="n">
-        <v>-29.72972972972973</v>
+        <v>-14.8936170212766</v>
       </c>
       <c r="L506" t="n">
         <v>126010</v>
@@ -26205,7 +26227,7 @@
         <v>159500</v>
       </c>
       <c r="K507" t="n">
-        <v>-29.72972972972973</v>
+        <v>-25.58139534883721</v>
       </c>
       <c r="L507" t="n">
         <v>125940</v>
@@ -26256,7 +26278,7 @@
         <v>160600</v>
       </c>
       <c r="K508" t="n">
-        <v>-9.75609756097561</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L508" t="n">
         <v>125940</v>
@@ -26307,7 +26329,7 @@
         <v>161300</v>
       </c>
       <c r="K509" t="n">
-        <v>-16.85393258426966</v>
+        <v>-12.72727272727273</v>
       </c>
       <c r="L509" t="n">
         <v>125900</v>
@@ -26358,7 +26380,7 @@
         <v>161400</v>
       </c>
       <c r="K510" t="n">
-        <v>-24.70588235294118</v>
+        <v>-20.75471698113208</v>
       </c>
       <c r="L510" t="n">
         <v>125820</v>
@@ -26409,7 +26431,7 @@
         <v>161900</v>
       </c>
       <c r="K511" t="n">
-        <v>-11.9047619047619</v>
+        <v>-1.886792452830189</v>
       </c>
       <c r="L511" t="n">
         <v>125760</v>
@@ -26460,7 +26482,7 @@
         <v>162000</v>
       </c>
       <c r="K512" t="n">
-        <v>-2.564102564102564</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="L512" t="n">
         <v>125760</v>
@@ -26511,7 +26533,7 @@
         <v>162400</v>
       </c>
       <c r="K513" t="n">
-        <v>-7.317073170731707</v>
+        <v>31.70731707317073</v>
       </c>
       <c r="L513" t="n">
         <v>125740</v>
@@ -26562,7 +26584,7 @@
         <v>162900</v>
       </c>
       <c r="K514" t="n">
-        <v>-2.325581395348837</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L514" t="n">
         <v>125920</v>
@@ -26613,7 +26635,7 @@
         <v>163100</v>
       </c>
       <c r="K515" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L515" t="n">
         <v>126020</v>
@@ -26664,7 +26686,7 @@
         <v>163200</v>
       </c>
       <c r="K516" t="n">
-        <v>1.123595505617978</v>
+        <v>35.13513513513514</v>
       </c>
       <c r="L516" t="n">
         <v>126150</v>
@@ -26715,7 +26737,7 @@
         <v>163400</v>
       </c>
       <c r="K517" t="n">
-        <v>9.302325581395349</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L517" t="n">
         <v>126300</v>
@@ -26766,7 +26788,7 @@
         <v>163900</v>
       </c>
       <c r="K518" t="n">
-        <v>-1.149425287356322</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L518" t="n">
         <v>126290</v>
@@ -26817,7 +26839,7 @@
         <v>164400</v>
       </c>
       <c r="K519" t="n">
-        <v>-3.370786516853932</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L519" t="n">
         <v>126300</v>
@@ -26868,7 +26890,7 @@
         <v>164800</v>
       </c>
       <c r="K520" t="n">
-        <v>-2.222222222222222</v>
+        <v>3.448275862068965</v>
       </c>
       <c r="L520" t="n">
         <v>126360</v>
@@ -26919,7 +26941,7 @@
         <v>164800</v>
       </c>
       <c r="K521" t="n">
-        <v>-5.747126436781609</v>
+        <v>0</v>
       </c>
       <c r="L521" t="n">
         <v>126370</v>
@@ -26970,7 +26992,7 @@
         <v>164900</v>
       </c>
       <c r="K522" t="n">
-        <v>-1.204819277108434</v>
+        <v>12</v>
       </c>
       <c r="L522" t="n">
         <v>126360</v>
@@ -27021,7 +27043,7 @@
         <v>165200</v>
       </c>
       <c r="K523" t="n">
-        <v>4.761904761904762</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L523" t="n">
         <v>126420</v>
@@ -27072,7 +27094,7 @@
         <v>165500</v>
       </c>
       <c r="K524" t="n">
-        <v>22.22222222222222</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L524" t="n">
         <v>126400</v>
@@ -27123,7 +27145,7 @@
         <v>165500</v>
       </c>
       <c r="K525" t="n">
-        <v>9.67741935483871</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L525" t="n">
         <v>126360</v>
@@ -27174,7 +27196,7 @@
         <v>165600</v>
       </c>
       <c r="K526" t="n">
-        <v>14.75409836065574</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L526" t="n">
         <v>126320</v>
@@ -27225,7 +27247,7 @@
         <v>165600</v>
       </c>
       <c r="K527" t="n">
-        <v>14.75409836065574</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L527" t="n">
         <v>126260</v>
@@ -27276,7 +27298,7 @@
         <v>165600</v>
       </c>
       <c r="K528" t="n">
-        <v>-4</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L528" t="n">
         <v>126250</v>
@@ -27327,7 +27349,7 @@
         <v>166300</v>
       </c>
       <c r="K529" t="n">
-        <v>24</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L529" t="n">
         <v>126360</v>
@@ -27378,7 +27400,7 @@
         <v>166700</v>
       </c>
       <c r="K530" t="n">
-        <v>16.9811320754717</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L530" t="n">
         <v>126390</v>
@@ -27429,7 +27451,7 @@
         <v>166700</v>
       </c>
       <c r="K531" t="n">
-        <v>8.333333333333332</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L531" t="n">
         <v>126420</v>
@@ -27480,7 +27502,7 @@
         <v>166700</v>
       </c>
       <c r="K532" t="n">
-        <v>6.382978723404255</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L532" t="n">
         <v>126460</v>
@@ -27531,7 +27553,7 @@
         <v>166700</v>
       </c>
       <c r="K533" t="n">
-        <v>16.27906976744186</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L533" t="n">
         <v>126470</v>
@@ -27582,7 +27604,7 @@
         <v>166700</v>
       </c>
       <c r="K534" t="n">
-        <v>5.263157894736842</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L534" t="n">
         <v>126510</v>
@@ -27633,7 +27655,7 @@
         <v>167300</v>
       </c>
       <c r="K535" t="n">
-        <v>14.28571428571428</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L535" t="n">
         <v>126610</v>
@@ -27684,7 +27706,7 @@
         <v>167500</v>
       </c>
       <c r="K536" t="n">
-        <v>16.27906976744186</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="L536" t="n">
         <v>126720</v>
@@ -27735,7 +27757,7 @@
         <v>168200</v>
       </c>
       <c r="K537" t="n">
-        <v>-4.166666666666666</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="L537" t="n">
         <v>126760</v>
@@ -27786,7 +27808,7 @@
         <v>168300</v>
       </c>
       <c r="K538" t="n">
-        <v>4.545454545454546</v>
+        <v>-20</v>
       </c>
       <c r="L538" t="n">
         <v>126790</v>
@@ -27837,7 +27859,7 @@
         <v>168700</v>
       </c>
       <c r="K539" t="n">
-        <v>25.58139534883721</v>
+        <v>20</v>
       </c>
       <c r="L539" t="n">
         <v>126790</v>
@@ -27888,7 +27910,7 @@
         <v>168800</v>
       </c>
       <c r="K540" t="n">
-        <v>15</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L540" t="n">
         <v>126820</v>
@@ -27939,7 +27961,7 @@
         <v>169100</v>
       </c>
       <c r="K541" t="n">
-        <v>6.976744186046512</v>
+        <v>0</v>
       </c>
       <c r="L541" t="n">
         <v>126820</v>
@@ -27990,7 +28012,7 @@
         <v>169200</v>
       </c>
       <c r="K542" t="n">
-        <v>11.62790697674419</v>
+        <v>4</v>
       </c>
       <c r="L542" t="n">
         <v>126830</v>
@@ -28041,7 +28063,7 @@
         <v>169600</v>
       </c>
       <c r="K543" t="n">
-        <v>-4.545454545454546</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L543" t="n">
         <v>126800</v>
@@ -28092,7 +28114,7 @@
         <v>169600</v>
       </c>
       <c r="K544" t="n">
-        <v>2.439024390243902</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L544" t="n">
         <v>126770</v>
@@ -28143,7 +28165,7 @@
         <v>169900</v>
       </c>
       <c r="K545" t="n">
-        <v>-4.545454545454546</v>
+        <v>-58.33333333333334</v>
       </c>
       <c r="L545" t="n">
         <v>126650</v>
@@ -28194,7 +28216,7 @@
         <v>170000</v>
       </c>
       <c r="K546" t="n">
-        <v>-9.090909090909092</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L546" t="n">
         <v>126500</v>
@@ -28245,7 +28267,7 @@
         <v>170200</v>
       </c>
       <c r="K547" t="n">
-        <v>-13.04347826086956</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L547" t="n">
         <v>126400</v>
@@ -28296,7 +28318,7 @@
         <v>170300</v>
       </c>
       <c r="K548" t="n">
-        <v>-14.8936170212766</v>
+        <v>-87.5</v>
       </c>
       <c r="L548" t="n">
         <v>126300</v>
@@ -28347,7 +28369,7 @@
         <v>170300</v>
       </c>
       <c r="K549" t="n">
-        <v>-35</v>
+        <v>-86.66666666666667</v>
       </c>
       <c r="L549" t="n">
         <v>126160</v>
@@ -28398,7 +28420,7 @@
         <v>170600</v>
       </c>
       <c r="K550" t="n">
-        <v>-33.33333333333333</v>
+        <v>-86.66666666666667</v>
       </c>
       <c r="L550" t="n">
         <v>126000</v>
@@ -28449,7 +28471,7 @@
         <v>171100</v>
       </c>
       <c r="K551" t="n">
-        <v>-18.18181818181818</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L551" t="n">
         <v>125920</v>
@@ -28500,7 +28522,7 @@
         <v>171200</v>
       </c>
       <c r="K552" t="n">
-        <v>-20</v>
+        <v>-37.5</v>
       </c>
       <c r="L552" t="n">
         <v>125820</v>
@@ -28551,7 +28573,7 @@
         <v>171600</v>
       </c>
       <c r="K553" t="n">
-        <v>-26.53061224489796</v>
+        <v>-50</v>
       </c>
       <c r="L553" t="n">
         <v>125720</v>
@@ -28602,7 +28624,7 @@
         <v>172300</v>
       </c>
       <c r="K554" t="n">
-        <v>-10.71428571428571</v>
+        <v>0</v>
       </c>
       <c r="L554" t="n">
         <v>125690</v>
@@ -28653,7 +28675,7 @@
         <v>172300</v>
       </c>
       <c r="K555" t="n">
-        <v>-24</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L555" t="n">
         <v>125690</v>
@@ -28704,7 +28726,7 @@
         <v>172800</v>
       </c>
       <c r="K556" t="n">
-        <v>-35.84905660377358</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L556" t="n">
         <v>125650</v>
@@ -28755,7 +28777,7 @@
         <v>173200</v>
       </c>
       <c r="K557" t="n">
-        <v>-16</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L557" t="n">
         <v>125670</v>
@@ -28806,7 +28828,7 @@
         <v>173200</v>
       </c>
       <c r="K558" t="n">
-        <v>-14.28571428571428</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L558" t="n">
         <v>125700</v>
@@ -28857,7 +28879,7 @@
         <v>173500</v>
       </c>
       <c r="K559" t="n">
-        <v>-29.16666666666667</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L559" t="n">
         <v>125700</v>
@@ -28908,7 +28930,7 @@
         <v>173600</v>
       </c>
       <c r="K560" t="n">
-        <v>-25</v>
+        <v>-4</v>
       </c>
       <c r="L560" t="n">
         <v>125740</v>
@@ -28959,7 +28981,7 @@
         <v>173800</v>
       </c>
       <c r="K561" t="n">
-        <v>-14.8936170212766</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L561" t="n">
         <v>125750</v>
@@ -29010,7 +29032,7 @@
         <v>174400</v>
       </c>
       <c r="K562" t="n">
-        <v>-3.846153846153846</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L562" t="n">
         <v>125830</v>
@@ -29061,7 +29083,7 @@
         <v>174600</v>
       </c>
       <c r="K563" t="n">
-        <v>0</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L563" t="n">
         <v>125930</v>
@@ -29112,7 +29134,7 @@
         <v>174800</v>
       </c>
       <c r="K564" t="n">
-        <v>3.846153846153846</v>
+        <v>20</v>
       </c>
       <c r="L564" t="n">
         <v>125980</v>
@@ -29163,7 +29185,7 @@
         <v>175000</v>
       </c>
       <c r="K565" t="n">
-        <v>13.72549019607843</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="L565" t="n">
         <v>126050</v>
@@ -29214,7 +29236,7 @@
         <v>175000</v>
       </c>
       <c r="K566" t="n">
-        <v>16</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L566" t="n">
         <v>126170</v>
@@ -29265,7 +29287,7 @@
         <v>175100</v>
       </c>
       <c r="K567" t="n">
-        <v>22.44897959183674</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L567" t="n">
         <v>126260</v>
@@ -29316,7 +29338,7 @@
         <v>175100</v>
       </c>
       <c r="K568" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="L568" t="n">
         <v>126350</v>
@@ -29367,7 +29389,7 @@
         <v>175500</v>
       </c>
       <c r="K569" t="n">
-        <v>30.76923076923077</v>
+        <v>78.94736842105263</v>
       </c>
       <c r="L569" t="n">
         <v>126510</v>
@@ -29418,7 +29440,7 @@
         <v>175900</v>
       </c>
       <c r="K570" t="n">
-        <v>28.30188679245283</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L570" t="n">
         <v>126620</v>
@@ -29469,7 +29491,7 @@
         <v>176400</v>
       </c>
       <c r="K571" t="n">
-        <v>28.30188679245283</v>
+        <v>40</v>
       </c>
       <c r="L571" t="n">
         <v>126760</v>
@@ -29520,7 +29542,7 @@
         <v>177100</v>
       </c>
       <c r="K572" t="n">
-        <v>38.98305084745763</v>
+        <v>68</v>
       </c>
       <c r="L572" t="n">
         <v>126910</v>
@@ -29571,7 +29593,7 @@
         <v>177100</v>
       </c>
       <c r="K573" t="n">
-        <v>49.09090909090909</v>
+        <v>65.21739130434783</v>
       </c>
       <c r="L573" t="n">
         <v>127080</v>
@@ -29622,7 +29644,7 @@
         <v>177600</v>
       </c>
       <c r="K574" t="n">
-        <v>47.16981132075472</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L574" t="n">
         <v>127280</v>
@@ -29673,7 +29695,7 @@
         <v>177700</v>
       </c>
       <c r="K575" t="n">
-        <v>44.44444444444444</v>
+        <v>62.96296296296296</v>
       </c>
       <c r="L575" t="n">
         <v>127450</v>
@@ -29724,7 +29746,7 @@
         <v>177700</v>
       </c>
       <c r="K576" t="n">
-        <v>59.18367346938776</v>
+        <v>61.53846153846154</v>
       </c>
       <c r="L576" t="n">
         <v>127620</v>
@@ -29775,7 +29797,7 @@
         <v>177900</v>
       </c>
       <c r="K577" t="n">
-        <v>57.44680851063831</v>
+        <v>64.28571428571429</v>
       </c>
       <c r="L577" t="n">
         <v>127800</v>
@@ -29826,7 +29848,7 @@
         <v>178000</v>
       </c>
       <c r="K578" t="n">
-        <v>54.16666666666666</v>
+        <v>52</v>
       </c>
       <c r="L578" t="n">
         <v>127970</v>
@@ -29877,7 +29899,7 @@
         <v>178300</v>
       </c>
       <c r="K579" t="n">
-        <v>66.66666666666666</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="L579" t="n">
         <v>128130</v>
@@ -29928,7 +29950,7 @@
         <v>178400</v>
       </c>
       <c r="K580" t="n">
-        <v>62.5</v>
+        <v>70</v>
       </c>
       <c r="L580" t="n">
         <v>128320</v>
@@ -29979,7 +30001,7 @@
         <v>178400</v>
       </c>
       <c r="K581" t="n">
-        <v>60.86956521739131</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L581" t="n">
         <v>128460</v>
@@ -30030,7 +30052,7 @@
         <v>178800</v>
       </c>
       <c r="K582" t="n">
-        <v>40.90909090909091</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L582" t="n">
         <v>128490</v>
@@ -30081,7 +30103,7 @@
         <v>178900</v>
       </c>
       <c r="K583" t="n">
-        <v>44.18604651162791</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L583" t="n">
         <v>128510</v>
@@ -30132,7 +30154,7 @@
         <v>179100</v>
       </c>
       <c r="K584" t="n">
-        <v>44.18604651162791</v>
+        <v>0</v>
       </c>
       <c r="L584" t="n">
         <v>128500</v>
@@ -30183,7 +30205,7 @@
         <v>179300</v>
       </c>
       <c r="K585" t="n">
-        <v>34.88372093023256</v>
+        <v>-12.5</v>
       </c>
       <c r="L585" t="n">
         <v>128480</v>
@@ -30234,7 +30256,7 @@
         <v>179300</v>
       </c>
       <c r="K586" t="n">
-        <v>34.88372093023256</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L586" t="n">
         <v>128460</v>
@@ -30285,7 +30307,7 @@
         <v>179600</v>
       </c>
       <c r="K587" t="n">
-        <v>37.77777777777778</v>
+        <v>0</v>
       </c>
       <c r="L587" t="n">
         <v>128450</v>
@@ -30336,7 +30358,7 @@
         <v>179700</v>
       </c>
       <c r="K588" t="n">
-        <v>39.1304347826087</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L588" t="n">
         <v>128460</v>
@@ -30387,7 +30409,7 @@
         <v>179800</v>
       </c>
       <c r="K589" t="n">
-        <v>30.23255813953488</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L589" t="n">
         <v>128430</v>
@@ -30438,7 +30460,7 @@
         <v>180600</v>
       </c>
       <c r="K590" t="n">
-        <v>53.19148936170212</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L590" t="n">
         <v>128490</v>
@@ -30489,7 +30511,7 @@
         <v>181000</v>
       </c>
       <c r="K591" t="n">
-        <v>52.17391304347826</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L591" t="n">
         <v>128590</v>
@@ -30540,7 +30562,7 @@
         <v>181100</v>
       </c>
       <c r="K592" t="n">
-        <v>40</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L592" t="n">
         <v>128720</v>
@@ -30591,7 +30613,7 @@
         <v>181200</v>
       </c>
       <c r="K593" t="n">
-        <v>41.46341463414634</v>
+        <v>61.90476190476191</v>
       </c>
       <c r="L593" t="n">
         <v>128870</v>
@@ -30642,7 +30664,7 @@
         <v>181500</v>
       </c>
       <c r="K594" t="n">
-        <v>23.07692307692308</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="L594" t="n">
         <v>128970</v>
@@ -30693,7 +30715,7 @@
         <v>181800</v>
       </c>
       <c r="K595" t="n">
-        <v>31.70731707317073</v>
+        <v>60</v>
       </c>
       <c r="L595" t="n">
         <v>129120</v>
@@ -30744,7 +30766,7 @@
         <v>181900</v>
       </c>
       <c r="K596" t="n">
-        <v>33.33333333333333</v>
+        <v>56.52173913043478</v>
       </c>
       <c r="L596" t="n">
         <v>129280</v>
@@ -30795,7 +30817,7 @@
         <v>182700</v>
       </c>
       <c r="K597" t="n">
-        <v>41.66666666666667</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L597" t="n">
         <v>129490</v>
@@ -30846,7 +30868,7 @@
         <v>183400</v>
       </c>
       <c r="K598" t="n">
-        <v>25.92592592592592</v>
+        <v>38.88888888888889</v>
       </c>
       <c r="L598" t="n">
         <v>129620</v>
@@ -30897,7 +30919,7 @@
         <v>183500</v>
       </c>
       <c r="K599" t="n">
-        <v>19.23076923076923</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L599" t="n">
         <v>129750</v>
@@ -30948,7 +30970,7 @@
         <v>184000</v>
       </c>
       <c r="K600" t="n">
-        <v>28.57142857142857</v>
+        <v>20</v>
       </c>
       <c r="L600" t="n">
         <v>129850</v>
@@ -30999,7 +31021,7 @@
         <v>184000</v>
       </c>
       <c r="K601" t="n">
-        <v>28.57142857142857</v>
+        <v>24.13793103448276</v>
       </c>
       <c r="L601" t="n">
         <v>129910</v>
@@ -31050,7 +31072,7 @@
         <v>184500</v>
       </c>
       <c r="K602" t="n">
-        <v>26.31578947368421</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="L602" t="n">
         <v>129930</v>
@@ -31101,7 +31123,7 @@
         <v>184700</v>
       </c>
       <c r="K603" t="n">
-        <v>31.03448275862069</v>
+        <v>18.75</v>
       </c>
       <c r="L603" t="n">
         <v>129960</v>
@@ -31152,7 +31174,7 @@
         <v>185000</v>
       </c>
       <c r="K604" t="n">
-        <v>22.03389830508474</v>
+        <v>0</v>
       </c>
       <c r="L604" t="n">
         <v>129990</v>
@@ -31203,7 +31225,7 @@
         <v>185300</v>
       </c>
       <c r="K605" t="n">
-        <v>30</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L605" t="n">
         <v>130020</v>
@@ -31254,7 +31276,7 @@
         <v>185600</v>
       </c>
       <c r="K606" t="n">
-        <v>23.80952380952381</v>
+        <v>-31.03448275862069</v>
       </c>
       <c r="L606" t="n">
         <v>130010</v>
@@ -31305,7 +31327,7 @@
         <v>185700</v>
       </c>
       <c r="K607" t="n">
-        <v>18.0327868852459</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L607" t="n">
         <v>129910</v>
@@ -31356,7 +31378,7 @@
         <v>185800</v>
       </c>
       <c r="K608" t="n">
-        <v>18.0327868852459</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L608" t="n">
         <v>129890</v>
@@ -31407,7 +31429,7 @@
         <v>186000</v>
       </c>
       <c r="K609" t="n">
-        <v>16.12903225806452</v>
+        <v>-40</v>
       </c>
       <c r="L609" t="n">
         <v>129860</v>
@@ -31458,7 +31480,7 @@
         <v>186400</v>
       </c>
       <c r="K610" t="n">
-        <v>10.3448275862069</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L610" t="n">
         <v>129820</v>
@@ -31509,7 +31531,7 @@
         <v>186500</v>
       </c>
       <c r="K611" t="n">
-        <v>5.454545454545454</v>
+        <v>10</v>
       </c>
       <c r="L611" t="n">
         <v>129790</v>
@@ -31560,7 +31582,7 @@
         <v>186700</v>
       </c>
       <c r="K612" t="n">
-        <v>10.71428571428571</v>
+        <v>10</v>
       </c>
       <c r="L612" t="n">
         <v>129830</v>
@@ -31611,7 +31633,7 @@
         <v>186900</v>
       </c>
       <c r="K613" t="n">
-        <v>5.263157894736842</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L613" t="n">
         <v>129830</v>
@@ -31662,7 +31684,7 @@
         <v>187300</v>
       </c>
       <c r="K614" t="n">
-        <v>3.448275862068965</v>
+        <v>-20</v>
       </c>
       <c r="L614" t="n">
         <v>129820</v>
@@ -31713,7 +31735,7 @@
         <v>187800</v>
       </c>
       <c r="K615" t="n">
-        <v>6.666666666666667</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L615" t="n">
         <v>129830</v>
@@ -31764,7 +31786,7 @@
         <v>188100</v>
       </c>
       <c r="K616" t="n">
-        <v>0</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L616" t="n">
         <v>129840</v>
@@ -31815,7 +31837,7 @@
         <v>188400</v>
       </c>
       <c r="K617" t="n">
-        <v>-8.771929824561402</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="L617" t="n">
         <v>129890</v>
@@ -31866,7 +31888,7 @@
         <v>188600</v>
       </c>
       <c r="K618" t="n">
-        <v>0</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="L618" t="n">
         <v>129910</v>
@@ -31917,7 +31939,7 @@
         <v>188600</v>
       </c>
       <c r="K619" t="n">
-        <v>1.96078431372549</v>
+        <v>0</v>
       </c>
       <c r="L619" t="n">
         <v>129950</v>
@@ -31968,7 +31990,7 @@
         <v>188800</v>
       </c>
       <c r="K620" t="n">
-        <v>-4.166666666666666</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L620" t="n">
         <v>129970</v>
@@ -32019,7 +32041,7 @@
         <v>188800</v>
       </c>
       <c r="K621" t="n">
-        <v>-4.166666666666666</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L621" t="n">
         <v>129980</v>
@@ -32070,7 +32092,7 @@
         <v>189600</v>
       </c>
       <c r="K622" t="n">
-        <v>-9.803921568627452</v>
+        <v>-25.92592592592592</v>
       </c>
       <c r="L622" t="n">
         <v>129890</v>
@@ -32121,7 +32143,7 @@
         <v>189900</v>
       </c>
       <c r="K623" t="n">
-        <v>-19.23076923076923</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L623" t="n">
         <v>129790</v>
@@ -32172,7 +32194,7 @@
         <v>190500</v>
       </c>
       <c r="K624" t="n">
-        <v>-1.818181818181818</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L624" t="n">
         <v>129790</v>
@@ -32223,7 +32245,7 @@
         <v>190700</v>
       </c>
       <c r="K625" t="n">
-        <v>-11.11111111111111</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L625" t="n">
         <v>129720</v>
@@ -32274,7 +32296,7 @@
         <v>191100</v>
       </c>
       <c r="K626" t="n">
-        <v>-12.72727272727273</v>
+        <v>-40.74074074074074</v>
       </c>
       <c r="L626" t="n">
         <v>129640</v>
@@ -32325,7 +32347,7 @@
         <v>191600</v>
       </c>
       <c r="K627" t="n">
-        <v>-1.694915254237288</v>
+        <v>-13.33333333333333</v>
       </c>
       <c r="L627" t="n">
         <v>129580</v>
@@ -32376,7 +32398,7 @@
         <v>191700</v>
       </c>
       <c r="K628" t="n">
-        <v>-1.694915254237288</v>
+        <v>-9.67741935483871</v>
       </c>
       <c r="L628" t="n">
         <v>129550</v>
@@ -32427,7 +32449,7 @@
         <v>191900</v>
       </c>
       <c r="K629" t="n">
-        <v>-1.694915254237288</v>
+        <v>-22.58064516129032</v>
       </c>
       <c r="L629" t="n">
         <v>129500</v>
@@ -32478,7 +32500,7 @@
         <v>192400</v>
       </c>
       <c r="K630" t="n">
-        <v>0</v>
+        <v>-5.555555555555555</v>
       </c>
       <c r="L630" t="n">
         <v>129480</v>
@@ -32529,7 +32551,7 @@
         <v>192400</v>
       </c>
       <c r="K631" t="n">
-        <v>-1.694915254237288</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="L631" t="n">
         <v>129460</v>
@@ -32580,7 +32602,7 @@
         <v>192800</v>
       </c>
       <c r="K632" t="n">
-        <v>1.639344262295082</v>
+        <v>44.82758620689656</v>
       </c>
       <c r="L632" t="n">
         <v>129560</v>
@@ -32631,7 +32653,7 @@
         <v>193200</v>
       </c>
       <c r="K633" t="n">
-        <v>11.11111111111111</v>
+        <v>40.74074074074074</v>
       </c>
       <c r="L633" t="n">
         <v>129730</v>
@@ -32682,7 +32704,7 @@
         <v>193400</v>
       </c>
       <c r="K634" t="n">
-        <v>21.31147540983606</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L634" t="n">
         <v>129860</v>
@@ -32733,7 +32755,7 @@
         <v>194000</v>
       </c>
       <c r="K635" t="n">
-        <v>3.225806451612903</v>
+        <v>44.82758620689656</v>
       </c>
       <c r="L635" t="n">
         <v>129950</v>
@@ -32784,7 +32806,7 @@
         <v>194400</v>
       </c>
       <c r="K636" t="n">
-        <v>14.28571428571428</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L636" t="n">
         <v>130120</v>
@@ -32835,7 +32857,7 @@
         <v>194500</v>
       </c>
       <c r="K637" t="n">
-        <v>8.196721311475409</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="L637" t="n">
         <v>130230</v>
@@ -32886,7 +32908,7 @@
         <v>194700</v>
       </c>
       <c r="K638" t="n">
-        <v>8.196721311475409</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="L638" t="n">
         <v>130310</v>
@@ -32937,7 +32959,7 @@
         <v>195300</v>
       </c>
       <c r="K639" t="n">
-        <v>16.41791044776119</v>
+        <v>37.93103448275862</v>
       </c>
       <c r="L639" t="n">
         <v>130470</v>
@@ -32988,7 +33010,7 @@
         <v>195700</v>
       </c>
       <c r="K640" t="n">
-        <v>18.84057971014493</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L640" t="n">
         <v>130620</v>
@@ -33039,7 +33061,7 @@
         <v>195900</v>
       </c>
       <c r="K641" t="n">
-        <v>15.49295774647887</v>
+        <v>29.03225806451613</v>
       </c>
       <c r="L641" t="n">
         <v>130750</v>
@@ -33090,7 +33112,7 @@
         <v>196400</v>
       </c>
       <c r="K642" t="n">
-        <v>20.58823529411764</v>
+        <v>0</v>
       </c>
       <c r="L642" t="n">
         <v>130790</v>
@@ -33141,7 +33163,7 @@
         <v>196500</v>
       </c>
       <c r="K643" t="n">
-        <v>27.27272727272727</v>
+        <v>-3.225806451612903</v>
       </c>
       <c r="L643" t="n">
         <v>130800</v>
@@ -33192,7 +33214,7 @@
         <v>196800</v>
       </c>
       <c r="K644" t="n">
-        <v>14.28571428571428</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="L644" t="n">
         <v>130760</v>
@@ -33243,7 +33265,7 @@
         <v>196900</v>
       </c>
       <c r="K645" t="n">
-        <v>19.35483870967742</v>
+        <v>-4</v>
       </c>
       <c r="L645" t="n">
         <v>130790</v>
@@ -33294,7 +33316,7 @@
         <v>197500</v>
       </c>
       <c r="K646" t="n">
-        <v>15.625</v>
+        <v>-20</v>
       </c>
       <c r="L646" t="n">
         <v>130720</v>
@@ -33345,7 +33367,7 @@
         <v>197900</v>
       </c>
       <c r="K647" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L647" t="n">
         <v>130700</v>
@@ -33396,7 +33418,7 @@
         <v>198000</v>
       </c>
       <c r="K648" t="n">
-        <v>11.11111111111111</v>
+        <v>-25.92592592592592</v>
       </c>
       <c r="L648" t="n">
         <v>130690</v>
@@ -33447,7 +33469,7 @@
         <v>198400</v>
       </c>
       <c r="K649" t="n">
-        <v>7.692307692307693</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L649" t="n">
         <v>130580</v>
@@ -33498,7 +33520,7 @@
         <v>198900</v>
       </c>
       <c r="K650" t="n">
-        <v>-7.692307692307693</v>
+        <v>-60</v>
       </c>
       <c r="L650" t="n">
         <v>130380</v>
@@ -33549,7 +33571,7 @@
         <v>199000</v>
       </c>
       <c r="K651" t="n">
-        <v>-9.090909090909092</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L651" t="n">
         <v>130190</v>
@@ -33600,7 +33622,7 @@
         <v>199100</v>
       </c>
       <c r="K652" t="n">
-        <v>-14.28571428571428</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L652" t="n">
         <v>130060</v>
@@ -33651,7 +33673,7 @@
         <v>199300</v>
       </c>
       <c r="K653" t="n">
-        <v>-24.59016393442623</v>
+        <v>-52</v>
       </c>
       <c r="L653" t="n">
         <v>129900</v>
@@ -33702,7 +33724,7 @@
         <v>199700</v>
       </c>
       <c r="K654" t="n">
-        <v>-20.63492063492063</v>
+        <v>-35.71428571428572</v>
       </c>
       <c r="L654" t="n">
         <v>129810</v>
@@ -33753,7 +33775,7 @@
         <v>199700</v>
       </c>
       <c r="K655" t="n">
-        <v>-12.28070175438596</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L655" t="n">
         <v>129710</v>
@@ -33804,7 +33826,7 @@
         <v>199700</v>
       </c>
       <c r="K656" t="n">
-        <v>-20.75471698113208</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L656" t="n">
         <v>129670</v>
@@ -33855,7 +33877,7 @@
         <v>199700</v>
       </c>
       <c r="K657" t="n">
-        <v>-19.23076923076923</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L657" t="n">
         <v>129590</v>
@@ -33906,7 +33928,7 @@
         <v>200000</v>
       </c>
       <c r="K658" t="n">
-        <v>-9.433962264150944</v>
+        <v>0</v>
       </c>
       <c r="L658" t="n">
         <v>129550</v>
@@ -33957,7 +33979,7 @@
         <v>200000</v>
       </c>
       <c r="K659" t="n">
-        <v>-23.40425531914894</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L659" t="n">
         <v>129550</v>
@@ -34008,7 +34030,7 @@
         <v>200700</v>
       </c>
       <c r="K660" t="n">
-        <v>-44</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L660" t="n">
         <v>129530</v>
@@ -34059,7 +34081,7 @@
         <v>200900</v>
       </c>
       <c r="K661" t="n">
-        <v>-36</v>
+        <v>0</v>
       </c>
       <c r="L661" t="n">
         <v>129540</v>
@@ -34110,7 +34132,7 @@
         <v>201100</v>
       </c>
       <c r="K662" t="n">
-        <v>-23.40425531914894</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L662" t="n">
         <v>129560</v>
@@ -34161,7 +34183,7 @@
         <v>201400</v>
       </c>
       <c r="K663" t="n">
-        <v>-30.61224489795918</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L663" t="n">
         <v>129570</v>
@@ -34212,7 +34234,7 @@
         <v>202000</v>
       </c>
       <c r="K664" t="n">
-        <v>-11.53846153846154</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L664" t="n">
         <v>129600</v>
@@ -34263,7 +34285,7 @@
         <v>202100</v>
       </c>
       <c r="K665" t="n">
-        <v>-11.53846153846154</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L665" t="n">
         <v>129640</v>
@@ -34314,7 +34336,7 @@
         <v>202300</v>
       </c>
       <c r="K666" t="n">
-        <v>-4.166666666666666</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L666" t="n">
         <v>129660</v>
@@ -34365,7 +34387,7 @@
         <v>202300</v>
       </c>
       <c r="K667" t="n">
-        <v>-13.63636363636363</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L667" t="n">
         <v>129680</v>
@@ -34416,7 +34438,7 @@
         <v>202600</v>
       </c>
       <c r="K668" t="n">
-        <v>-17.39130434782609</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L668" t="n">
         <v>129640</v>
@@ -34467,7 +34489,7 @@
         <v>202600</v>
       </c>
       <c r="K669" t="n">
-        <v>-9.523809523809524</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L669" t="n">
         <v>129600</v>
@@ -34518,7 +34540,7 @@
         <v>203000</v>
       </c>
       <c r="K670" t="n">
-        <v>12.19512195121951</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L670" t="n">
         <v>129670</v>
@@ -34569,7 +34591,7 @@
         <v>203400</v>
       </c>
       <c r="K671" t="n">
-        <v>4.545454545454546</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L671" t="n">
         <v>129680</v>
@@ -34620,7 +34642,7 @@
         <v>203800</v>
       </c>
       <c r="K672" t="n">
-        <v>10.63829787234043</v>
+        <v>25</v>
       </c>
       <c r="L672" t="n">
         <v>129710</v>
@@ -34671,7 +34693,7 @@
         <v>203900</v>
       </c>
       <c r="K673" t="n">
-        <v>17.39130434782609</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L673" t="n">
         <v>129780</v>
@@ -34722,7 +34744,7 @@
         <v>203900</v>
       </c>
       <c r="K674" t="n">
-        <v>9.523809523809524</v>
+        <v>0</v>
       </c>
       <c r="L674" t="n">
         <v>129790</v>
@@ -34773,7 +34795,7 @@
         <v>203900</v>
       </c>
       <c r="K675" t="n">
-        <v>9.523809523809524</v>
+        <v>12.5</v>
       </c>
       <c r="L675" t="n">
         <v>129790</v>
@@ -34824,7 +34846,7 @@
         <v>204000</v>
       </c>
       <c r="K676" t="n">
-        <v>6.976744186046512</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L676" t="n">
         <v>129800</v>
@@ -34875,7 +34897,7 @@
         <v>204400</v>
       </c>
       <c r="K677" t="n">
-        <v>-2.127659574468085</v>
+        <v>0</v>
       </c>
       <c r="L677" t="n">
         <v>129770</v>
@@ -34926,7 +34948,7 @@
         <v>204500</v>
       </c>
       <c r="K678" t="n">
-        <v>-11.11111111111111</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L678" t="n">
         <v>129760</v>
@@ -34977,7 +34999,7 @@
         <v>204500</v>
       </c>
       <c r="K679" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L679" t="n">
         <v>129750</v>
@@ -35028,7 +35050,7 @@
         <v>204900</v>
       </c>
       <c r="K680" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L680" t="n">
         <v>129740</v>
@@ -35079,7 +35101,7 @@
         <v>204900</v>
       </c>
       <c r="K681" t="n">
-        <v>10</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L681" t="n">
         <v>129770</v>
@@ -35130,7 +35152,7 @@
         <v>205400</v>
       </c>
       <c r="K682" t="n">
-        <v>-6.976744186046512</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L682" t="n">
         <v>129710</v>
@@ -35181,7 +35203,7 @@
         <v>205800</v>
       </c>
       <c r="K683" t="n">
-        <v>9.090909090909092</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L683" t="n">
         <v>129680</v>
@@ -35232,7 +35254,7 @@
         <v>205800</v>
       </c>
       <c r="K684" t="n">
-        <v>-5.263157894736842</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L684" t="n">
         <v>129650</v>
@@ -35334,7 +35356,7 @@
         <v>205900</v>
       </c>
       <c r="K686" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L686" t="n">
         <v>129620</v>
@@ -35385,7 +35407,7 @@
         <v>206200</v>
       </c>
       <c r="K687" t="n">
-        <v>-7.692307692307693</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L687" t="n">
         <v>129620</v>
@@ -35436,7 +35458,7 @@
         <v>206400</v>
       </c>
       <c r="K688" t="n">
-        <v>5.263157894736842</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L688" t="n">
         <v>129650</v>
@@ -35487,7 +35509,7 @@
         <v>206700</v>
       </c>
       <c r="K689" t="n">
-        <v>12.19512195121951</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L689" t="n">
         <v>129710</v>
@@ -35538,7 +35560,7 @@
         <v>206700</v>
       </c>
       <c r="K690" t="n">
-        <v>2.702702702702703</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L690" t="n">
         <v>129730</v>
@@ -35589,7 +35611,7 @@
         <v>206700</v>
       </c>
       <c r="K691" t="n">
-        <v>15.15151515151515</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L691" t="n">
         <v>129750</v>
@@ -35640,7 +35662,7 @@
         <v>206900</v>
       </c>
       <c r="K692" t="n">
-        <v>9.67741935483871</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L692" t="n">
         <v>129840</v>
@@ -35691,7 +35713,7 @@
         <v>207000</v>
       </c>
       <c r="K693" t="n">
-        <v>9.67741935483871</v>
+        <v>50</v>
       </c>
       <c r="L693" t="n">
         <v>129900</v>
@@ -35742,7 +35764,7 @@
         <v>207100</v>
       </c>
       <c r="K694" t="n">
-        <v>6.25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L694" t="n">
         <v>129950</v>
@@ -35793,7 +35815,7 @@
         <v>207100</v>
       </c>
       <c r="K695" t="n">
-        <v>6.25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L695" t="n">
         <v>129990</v>
@@ -35844,7 +35866,7 @@
         <v>207400</v>
       </c>
       <c r="K696" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L696" t="n">
         <v>130000</v>
@@ -35895,7 +35917,7 @@
         <v>207600</v>
       </c>
       <c r="K697" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="L697" t="n">
         <v>130020</v>
@@ -35946,7 +35968,7 @@
         <v>208000</v>
       </c>
       <c r="K698" t="n">
-        <v>20</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L698" t="n">
         <v>130060</v>
@@ -35997,7 +36019,7 @@
         <v>208000</v>
       </c>
       <c r="K699" t="n">
-        <v>20</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L699" t="n">
         <v>130070</v>
@@ -36048,7 +36070,7 @@
         <v>208100</v>
       </c>
       <c r="K700" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="L700" t="n">
         <v>130070</v>
@@ -36099,7 +36121,7 @@
         <v>208300</v>
       </c>
       <c r="K701" t="n">
-        <v>0</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L701" t="n">
         <v>130050</v>
@@ -36150,7 +36172,7 @@
         <v>208400</v>
       </c>
       <c r="K702" t="n">
-        <v>13.33333333333333</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L702" t="n">
         <v>130000</v>
@@ -36201,7 +36223,7 @@
         <v>208400</v>
       </c>
       <c r="K703" t="n">
-        <v>0</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L703" t="n">
         <v>129940</v>
@@ -36252,7 +36274,7 @@
         <v>208500</v>
       </c>
       <c r="K704" t="n">
-        <v>-3.703703703703703</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L704" t="n">
         <v>129880</v>
@@ -36303,7 +36325,7 @@
         <v>208600</v>
       </c>
       <c r="K705" t="n">
-        <v>-3.703703703703703</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L705" t="n">
         <v>129830</v>
@@ -36354,7 +36376,7 @@
         <v>209000</v>
       </c>
       <c r="K706" t="n">
-        <v>-16.12903225806452</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L706" t="n">
         <v>129770</v>
@@ -36405,7 +36427,7 @@
         <v>209300</v>
       </c>
       <c r="K707" t="n">
-        <v>3.225806451612903</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L707" t="n">
         <v>129760</v>
@@ -36456,7 +36478,7 @@
         <v>209400</v>
       </c>
       <c r="K708" t="n">
-        <v>0</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L708" t="n">
         <v>129720</v>
@@ -36507,7 +36529,7 @@
         <v>209400</v>
       </c>
       <c r="K709" t="n">
-        <v>-11.11111111111111</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L709" t="n">
         <v>129680</v>
@@ -36558,7 +36580,7 @@
         <v>210100</v>
       </c>
       <c r="K710" t="n">
-        <v>-29.41176470588236</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L710" t="n">
         <v>129580</v>
@@ -36609,7 +36631,7 @@
         <v>210300</v>
       </c>
       <c r="K711" t="n">
-        <v>-33.33333333333333</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L711" t="n">
         <v>129480</v>
@@ -36660,7 +36682,7 @@
         <v>210400</v>
       </c>
       <c r="K712" t="n">
-        <v>-42.85714285714285</v>
+        <v>-50</v>
       </c>
       <c r="L712" t="n">
         <v>129380</v>
@@ -36711,7 +36733,7 @@
         <v>211000</v>
       </c>
       <c r="K713" t="n">
-        <v>-25</v>
+        <v>-12</v>
       </c>
       <c r="L713" t="n">
         <v>129340</v>
@@ -36762,7 +36784,7 @@
         <v>211300</v>
       </c>
       <c r="K714" t="n">
-        <v>-28.57142857142857</v>
+        <v>-25.92592592592592</v>
       </c>
       <c r="L714" t="n">
         <v>129280</v>
@@ -36813,7 +36835,7 @@
         <v>211600</v>
       </c>
       <c r="K715" t="n">
-        <v>-33.33333333333333</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L715" t="n">
         <v>129180</v>
@@ -36864,7 +36886,7 @@
         <v>211600</v>
       </c>
       <c r="K716" t="n">
-        <v>-28.57142857142857</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L716" t="n">
         <v>129120</v>
@@ -36915,7 +36937,7 @@
         <v>211600</v>
       </c>
       <c r="K717" t="n">
-        <v>-25</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L717" t="n">
         <v>129030</v>
@@ -36966,7 +36988,7 @@
         <v>211600</v>
       </c>
       <c r="K718" t="n">
-        <v>-38.88888888888889</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L718" t="n">
         <v>128930</v>
@@ -37017,7 +37039,7 @@
         <v>211700</v>
       </c>
       <c r="K719" t="n">
-        <v>-40.54054054054054</v>
+        <v>-25</v>
       </c>
       <c r="L719" t="n">
         <v>128820</v>
@@ -37068,7 +37090,7 @@
         <v>211700</v>
       </c>
       <c r="K720" t="n">
-        <v>-38.88888888888889</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L720" t="n">
         <v>128780</v>
@@ -37119,7 +37141,7 @@
         <v>212000</v>
       </c>
       <c r="K721" t="n">
-        <v>-40.54054054054054</v>
+        <v>-25</v>
       </c>
       <c r="L721" t="n">
         <v>128730</v>
@@ -37170,7 +37192,7 @@
         <v>212300</v>
       </c>
       <c r="K722" t="n">
-        <v>-28.2051282051282</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L722" t="n">
         <v>128720</v>
@@ -37221,7 +37243,7 @@
         <v>212300</v>
       </c>
       <c r="K723" t="n">
-        <v>-28.2051282051282</v>
+        <v>-40</v>
       </c>
       <c r="L723" t="n">
         <v>128650</v>
@@ -37272,7 +37294,7 @@
         <v>212300</v>
       </c>
       <c r="K724" t="n">
-        <v>-26.31578947368421</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L724" t="n">
         <v>128610</v>
@@ -37323,7 +37345,7 @@
         <v>212300</v>
       </c>
       <c r="K725" t="n">
-        <v>-29.72972972972973</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L725" t="n">
         <v>128600</v>
@@ -37374,7 +37396,7 @@
         <v>212300</v>
       </c>
       <c r="K726" t="n">
-        <v>-21.21212121212121</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L726" t="n">
         <v>128590</v>
@@ -37425,7 +37447,7 @@
         <v>212500</v>
       </c>
       <c r="K727" t="n">
-        <v>-37.5</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L727" t="n">
         <v>128560</v>
@@ -37476,7 +37498,7 @@
         <v>212800</v>
       </c>
       <c r="K728" t="n">
-        <v>-47.05882352941176</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L728" t="n">
         <v>128500</v>
@@ -37527,7 +37549,7 @@
         <v>213200</v>
       </c>
       <c r="K729" t="n">
-        <v>-31.57894736842105</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L729" t="n">
         <v>128490</v>
@@ -37578,7 +37600,7 @@
         <v>213300</v>
       </c>
       <c r="K730" t="n">
-        <v>-12.5</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L730" t="n">
         <v>128490</v>
@@ -37629,7 +37651,7 @@
         <v>213900</v>
       </c>
       <c r="K731" t="n">
-        <v>-22.22222222222222</v>
+        <v>-37.5</v>
       </c>
       <c r="L731" t="n">
         <v>128460</v>
@@ -37680,7 +37702,7 @@
         <v>214000</v>
       </c>
       <c r="K732" t="n">
-        <v>-22.22222222222222</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L732" t="n">
         <v>128390</v>
@@ -37731,7 +37753,7 @@
         <v>214000</v>
       </c>
       <c r="K733" t="n">
-        <v>-46.66666666666666</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L733" t="n">
         <v>128320</v>
@@ -37782,7 +37804,7 @@
         <v>214100</v>
       </c>
       <c r="K734" t="n">
-        <v>-42.85714285714285</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L734" t="n">
         <v>128240</v>
@@ -37833,7 +37855,7 @@
         <v>214300</v>
       </c>
       <c r="K735" t="n">
-        <v>-25.92592592592592</v>
+        <v>-30</v>
       </c>
       <c r="L735" t="n">
         <v>128180</v>
@@ -37884,7 +37906,7 @@
         <v>214600</v>
       </c>
       <c r="K736" t="n">
-        <v>-13.33333333333333</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L736" t="n">
         <v>128150</v>
@@ -37935,7 +37957,7 @@
         <v>214600</v>
       </c>
       <c r="K737" t="n">
-        <v>-13.33333333333333</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L737" t="n">
         <v>128140</v>
@@ -37986,7 +38008,7 @@
         <v>214600</v>
       </c>
       <c r="K738" t="n">
-        <v>-13.33333333333333</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L738" t="n">
         <v>128160</v>
@@ -38037,7 +38059,7 @@
         <v>214600</v>
       </c>
       <c r="K739" t="n">
-        <v>-10.3448275862069</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L739" t="n">
         <v>128140</v>
@@ -38088,7 +38110,7 @@
         <v>214600</v>
       </c>
       <c r="K740" t="n">
-        <v>-10.3448275862069</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L740" t="n">
         <v>128110</v>
@@ -38139,7 +38161,7 @@
         <v>214900</v>
       </c>
       <c r="K741" t="n">
-        <v>-10.3448275862069</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L741" t="n">
         <v>128110</v>
@@ -38190,7 +38212,7 @@
         <v>215200</v>
       </c>
       <c r="K742" t="n">
-        <v>-31.03448275862069</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L742" t="n">
         <v>128090</v>
@@ -38241,7 +38263,7 @@
         <v>215300</v>
       </c>
       <c r="K743" t="n">
-        <v>-26.66666666666667</v>
+        <v>0</v>
       </c>
       <c r="L743" t="n">
         <v>128080</v>
@@ -38292,7 +38314,7 @@
         <v>215800</v>
       </c>
       <c r="K744" t="n">
-        <v>-8.571428571428571</v>
+        <v>20</v>
       </c>
       <c r="L744" t="n">
         <v>128130</v>
@@ -38343,7 +38365,7 @@
         <v>215800</v>
       </c>
       <c r="K745" t="n">
-        <v>-8.571428571428571</v>
+        <v>0</v>
       </c>
       <c r="L745" t="n">
         <v>128160</v>
@@ -38394,7 +38416,7 @@
         <v>215900</v>
       </c>
       <c r="K746" t="n">
-        <v>-11.11111111111111</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L746" t="n">
         <v>128150</v>
@@ -38445,7 +38467,7 @@
         <v>216000</v>
       </c>
       <c r="K747" t="n">
-        <v>-2.857142857142857</v>
+        <v>0</v>
       </c>
       <c r="L747" t="n">
         <v>128150</v>
@@ -38496,7 +38518,7 @@
         <v>216400</v>
       </c>
       <c r="K748" t="n">
-        <v>16.66666666666666</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L748" t="n">
         <v>128190</v>
@@ -38547,7 +38569,7 @@
         <v>216900</v>
       </c>
       <c r="K749" t="n">
-        <v>-8.108108108108109</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L749" t="n">
         <v>128180</v>
@@ -38598,7 +38620,7 @@
         <v>217500</v>
       </c>
       <c r="K750" t="n">
-        <v>4.761904761904762</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="L750" t="n">
         <v>128230</v>
@@ -38649,7 +38671,7 @@
         <v>217500</v>
       </c>
       <c r="K751" t="n">
-        <v>22.22222222222222</v>
+        <v>47.82608695652174</v>
       </c>
       <c r="L751" t="n">
         <v>128310</v>
@@ -38700,7 +38722,7 @@
         <v>217700</v>
       </c>
       <c r="K752" t="n">
-        <v>29.72972972972973</v>
+        <v>50</v>
       </c>
       <c r="L752" t="n">
         <v>128440</v>
@@ -38751,7 +38773,7 @@
         <v>218000</v>
       </c>
       <c r="K753" t="n">
-        <v>20</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L753" t="n">
         <v>128530</v>
@@ -38802,7 +38824,7 @@
         <v>218400</v>
       </c>
       <c r="K754" t="n">
-        <v>11.62790697674419</v>
+        <v>0</v>
       </c>
       <c r="L754" t="n">
         <v>128530</v>
@@ -38853,7 +38875,7 @@
         <v>218600</v>
       </c>
       <c r="K755" t="n">
-        <v>2.325581395348837</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L755" t="n">
         <v>128510</v>
@@ -38904,7 +38926,7 @@
         <v>218700</v>
       </c>
       <c r="K756" t="n">
-        <v>-2.439024390243902</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L756" t="n">
         <v>128510</v>
@@ -38955,7 +38977,7 @@
         <v>219200</v>
       </c>
       <c r="K757" t="n">
-        <v>-13.04347826086956</v>
+        <v>-35.71428571428572</v>
       </c>
       <c r="L757" t="n">
         <v>128450</v>
@@ -39006,7 +39028,7 @@
         <v>219200</v>
       </c>
       <c r="K758" t="n">
-        <v>-13.04347826086956</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L758" t="n">
         <v>128350</v>
@@ -39057,7 +39079,7 @@
         <v>219500</v>
       </c>
       <c r="K759" t="n">
-        <v>-18.36734693877551</v>
+        <v>-70</v>
       </c>
       <c r="L759" t="n">
         <v>128270</v>
@@ -39108,7 +39130,7 @@
         <v>219700</v>
       </c>
       <c r="K760" t="n">
-        <v>-13.72549019607843</v>
+        <v>-54.54545454545454</v>
       </c>
       <c r="L760" t="n">
         <v>128150</v>
@@ -39159,7 +39181,7 @@
         <v>219700</v>
       </c>
       <c r="K761" t="n">
-        <v>-8.333333333333332</v>
+        <v>-70</v>
       </c>
       <c r="L761" t="n">
         <v>128030</v>
@@ -39210,7 +39232,7 @@
         <v>219900</v>
       </c>
       <c r="K762" t="n">
-        <v>-6.382978723404255</v>
+        <v>-68.42105263157895</v>
       </c>
       <c r="L762" t="n">
         <v>127870</v>
@@ -39261,7 +39283,7 @@
         <v>219900</v>
       </c>
       <c r="K763" t="n">
-        <v>-8.695652173913043</v>
+        <v>-60</v>
       </c>
       <c r="L763" t="n">
         <v>127740</v>
@@ -39312,7 +39334,7 @@
         <v>219900</v>
       </c>
       <c r="K764" t="n">
-        <v>-21.95121951219512</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L764" t="n">
         <v>127650</v>
@@ -39363,7 +39385,7 @@
         <v>219900</v>
       </c>
       <c r="K765" t="n">
-        <v>-21.95121951219512</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L765" t="n">
         <v>127580</v>
@@ -39414,7 +39436,7 @@
         <v>220100</v>
       </c>
       <c r="K766" t="n">
-        <v>-14.28571428571428</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L766" t="n">
         <v>127520</v>
@@ -39465,7 +39487,7 @@
         <v>220300</v>
       </c>
       <c r="K767" t="n">
-        <v>-20.93023255813954</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L767" t="n">
         <v>127490</v>
@@ -39516,7 +39538,7 @@
         <v>220700</v>
       </c>
       <c r="K768" t="n">
-        <v>-20.93023255813954</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L768" t="n">
         <v>127500</v>
@@ -39567,7 +39589,7 @@
         <v>220700</v>
       </c>
       <c r="K769" t="n">
-        <v>-10.52631578947368</v>
+        <v>20</v>
       </c>
       <c r="L769" t="n">
         <v>127540</v>
@@ -39618,7 +39640,7 @@
         <v>221000</v>
       </c>
       <c r="K770" t="n">
-        <v>-37.14285714285715</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L770" t="n">
         <v>127530</v>
@@ -39669,7 +39691,7 @@
         <v>221200</v>
       </c>
       <c r="K771" t="n">
-        <v>-40.54054054054054</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L771" t="n">
         <v>127500</v>
@@ -39720,7 +39742,7 @@
         <v>221200</v>
       </c>
       <c r="K772" t="n">
-        <v>-48.57142857142857</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L772" t="n">
         <v>127490</v>
@@ -39771,7 +39793,7 @@
         <v>221200</v>
       </c>
       <c r="K773" t="n">
-        <v>-43.75</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L773" t="n">
         <v>127480</v>
@@ -39822,7 +39844,7 @@
         <v>222000</v>
       </c>
       <c r="K774" t="n">
-        <v>-5.555555555555555</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L774" t="n">
         <v>127550</v>
@@ -39873,7 +39895,7 @@
         <v>222200</v>
       </c>
       <c r="K775" t="n">
-        <v>5.555555555555555</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L775" t="n">
         <v>127640</v>
@@ -39924,7 +39946,7 @@
         <v>222700</v>
       </c>
       <c r="K776" t="n">
-        <v>-10</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L776" t="n">
         <v>127660</v>
@@ -39975,7 +39997,7 @@
         <v>222900</v>
       </c>
       <c r="K777" t="n">
-        <v>-2.702702702702703</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L777" t="n">
         <v>127680</v>
@@ -40026,7 +40048,7 @@
         <v>223200</v>
       </c>
       <c r="K778" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L778" t="n">
         <v>127690</v>
@@ -40077,7 +40099,7 @@
         <v>223400</v>
       </c>
       <c r="K779" t="n">
-        <v>17.94871794871795</v>
+        <v>25</v>
       </c>
       <c r="L779" t="n">
         <v>127720</v>
@@ -40128,7 +40150,7 @@
         <v>223700</v>
       </c>
       <c r="K780" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="L780" t="n">
         <v>127810</v>
@@ -40179,7 +40201,7 @@
         <v>224200</v>
       </c>
       <c r="K781" t="n">
-        <v>28.88888888888889</v>
+        <v>53.33333333333334</v>
       </c>
       <c r="L781" t="n">
         <v>127970</v>
@@ -40230,7 +40252,7 @@
         <v>224500</v>
       </c>
       <c r="K782" t="n">
-        <v>26.08695652173913</v>
+        <v>39.39393939393939</v>
       </c>
       <c r="L782" t="n">
         <v>128100</v>
@@ -40281,7 +40303,7 @@
         <v>225300</v>
       </c>
       <c r="K783" t="n">
-        <v>37.03703703703704</v>
+        <v>39.39393939393939</v>
       </c>
       <c r="L783" t="n">
         <v>128310</v>
@@ -40332,7 +40354,7 @@
         <v>225500</v>
       </c>
       <c r="K784" t="n">
-        <v>32.14285714285715</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L784" t="n">
         <v>128420</v>
@@ -40383,7 +40405,7 @@
         <v>226100</v>
       </c>
       <c r="K785" t="n">
-        <v>38.70967741935484</v>
+        <v>58.82352941176471</v>
       </c>
       <c r="L785" t="n">
         <v>128570</v>
@@ -40434,7 +40456,7 @@
         <v>226300</v>
       </c>
       <c r="K786" t="n">
-        <v>38.70967741935484</v>
+        <v>70.58823529411765</v>
       </c>
       <c r="L786" t="n">
         <v>128790</v>
@@ -40485,7 +40507,7 @@
         <v>226500</v>
       </c>
       <c r="K787" t="n">
-        <v>38.70967741935484</v>
+        <v>57.57575757575758</v>
       </c>
       <c r="L787" t="n">
         <v>129010</v>
@@ -40536,7 +40558,7 @@
         <v>226600</v>
       </c>
       <c r="K788" t="n">
-        <v>32.20338983050847</v>
+        <v>50</v>
       </c>
       <c r="L788" t="n">
         <v>129190</v>
@@ -40587,7 +40609,7 @@
         <v>227100</v>
       </c>
       <c r="K789" t="n">
-        <v>37.5</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L789" t="n">
         <v>129400</v>
@@ -40638,7 +40660,7 @@
         <v>227100</v>
       </c>
       <c r="K790" t="n">
-        <v>44.26229508196721</v>
+        <v>44.82758620689656</v>
       </c>
       <c r="L790" t="n">
         <v>129580</v>
@@ -40689,7 +40711,7 @@
         <v>227500</v>
       </c>
       <c r="K791" t="n">
-        <v>52.38095238095239</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L791" t="n">
         <v>129750</v>
@@ -40740,7 +40762,7 @@
         <v>227500</v>
       </c>
       <c r="K792" t="n">
-        <v>52.38095238095239</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="L792" t="n">
         <v>129950</v>
@@ -40791,7 +40813,7 @@
         <v>227800</v>
       </c>
       <c r="K793" t="n">
-        <v>54.54545454545454</v>
+        <v>73.91304347826086</v>
       </c>
       <c r="L793" t="n">
         <v>130100</v>
@@ -40842,7 +40864,7 @@
         <v>228100</v>
       </c>
       <c r="K794" t="n">
-        <v>50.81967213114754</v>
+        <v>70</v>
       </c>
       <c r="L794" t="n">
         <v>130300</v>
@@ -40893,7 +40915,7 @@
         <v>228200</v>
       </c>
       <c r="K795" t="n">
-        <v>50</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="L795" t="n">
         <v>130450</v>
@@ -40944,7 +40966,7 @@
         <v>228300</v>
       </c>
       <c r="K796" t="n">
-        <v>60.71428571428571</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L796" t="n">
         <v>130570</v>
@@ -40995,7 +41017,7 @@
         <v>229300</v>
       </c>
       <c r="K797" t="n">
-        <v>40.625</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="L797" t="n">
         <v>130610</v>
@@ -41046,7 +41068,7 @@
         <v>229500</v>
       </c>
       <c r="K798" t="n">
-        <v>39.68253968253968</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L798" t="n">
         <v>130680</v>
@@ -41097,7 +41119,7 @@
         <v>229900</v>
       </c>
       <c r="K799" t="n">
-        <v>41.53846153846154</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="L799" t="n">
         <v>130740</v>
@@ -41148,7 +41170,7 @@
         <v>230100</v>
       </c>
       <c r="K800" t="n">
-        <v>34.375</v>
+        <v>0</v>
       </c>
       <c r="L800" t="n">
         <v>130780</v>
@@ -41199,7 +41221,7 @@
         <v>230500</v>
       </c>
       <c r="K801" t="n">
-        <v>20.63492063492063</v>
+        <v>-13.33333333333333</v>
       </c>
       <c r="L801" t="n">
         <v>130740</v>
@@ -41250,7 +41272,7 @@
         <v>231200</v>
       </c>
       <c r="K802" t="n">
-        <v>34.32835820895522</v>
+        <v>0</v>
       </c>
       <c r="L802" t="n">
         <v>130770</v>
@@ -41301,7 +41323,7 @@
         <v>231500</v>
       </c>
       <c r="K803" t="n">
-        <v>19.35483870967742</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L803" t="n">
         <v>130740</v>
@@ -41352,7 +41374,7 @@
         <v>231600</v>
       </c>
       <c r="K804" t="n">
-        <v>21.31147540983606</v>
+        <v>-23.52941176470588</v>
       </c>
       <c r="L804" t="n">
         <v>130670</v>
@@ -41403,7 +41425,7 @@
         <v>231800</v>
       </c>
       <c r="K805" t="n">
-        <v>8.771929824561402</v>
+        <v>-25.71428571428571</v>
       </c>
       <c r="L805" t="n">
         <v>130570</v>
@@ -41454,7 +41476,7 @@
         <v>231800</v>
       </c>
       <c r="K806" t="n">
-        <v>5.454545454545454</v>
+        <v>4</v>
       </c>
       <c r="L806" t="n">
         <v>130480</v>
@@ -41505,7 +41527,7 @@
         <v>232100</v>
       </c>
       <c r="K807" t="n">
-        <v>3.571428571428571</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L807" t="n">
         <v>130460</v>
@@ -41556,7 +41578,7 @@
         <v>232200</v>
       </c>
       <c r="K808" t="n">
-        <v>3.571428571428571</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L808" t="n">
         <v>130410</v>
@@ -41607,7 +41629,7 @@
         <v>232400</v>
       </c>
       <c r="K809" t="n">
-        <v>-9.433962264150944</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L809" t="n">
         <v>130300</v>
@@ -41658,7 +41680,7 @@
         <v>232500</v>
       </c>
       <c r="K810" t="n">
-        <v>-11.11111111111111</v>
+        <v>-30</v>
       </c>
       <c r="L810" t="n">
         <v>130200</v>
@@ -41709,7 +41731,7 @@
         <v>232600</v>
       </c>
       <c r="K811" t="n">
-        <v>-21.56862745098039</v>
+        <v>-100</v>
       </c>
       <c r="L811" t="n">
         <v>130130</v>
@@ -41760,7 +41782,7 @@
         <v>233100</v>
       </c>
       <c r="K812" t="n">
-        <v>-10.71428571428571</v>
+        <v>-37.5</v>
       </c>
       <c r="L812" t="n">
         <v>130040</v>
@@ -41811,7 +41833,7 @@
         <v>233300</v>
       </c>
       <c r="K813" t="n">
-        <v>-12.72727272727273</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L813" t="n">
         <v>130000</v>
@@ -41862,7 +41884,7 @@
         <v>233500</v>
       </c>
       <c r="K814" t="n">
-        <v>-14.81481481481481</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L814" t="n">
         <v>129990</v>
@@ -41913,7 +41935,7 @@
         <v>233600</v>
       </c>
       <c r="K815" t="n">
-        <v>-18.51851851851852</v>
+        <v>0</v>
       </c>
       <c r="L815" t="n">
         <v>129990</v>
@@ -41964,7 +41986,7 @@
         <v>233600</v>
       </c>
       <c r="K816" t="n">
-        <v>-16.9811320754717</v>
+        <v>20</v>
       </c>
       <c r="L816" t="n">
         <v>129990</v>
@@ -42015,7 +42037,7 @@
         <v>233600</v>
       </c>
       <c r="K817" t="n">
-        <v>2.325581395348837</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L817" t="n">
         <v>130020</v>
@@ -42066,7 +42088,7 @@
         <v>233800</v>
       </c>
       <c r="K818" t="n">
-        <v>2.325581395348837</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L818" t="n">
         <v>130080</v>
@@ -42117,7 +42139,7 @@
         <v>234100</v>
       </c>
       <c r="K819" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="L819" t="n">
         <v>130190</v>
@@ -42168,7 +42190,7 @@
         <v>234200</v>
       </c>
       <c r="K820" t="n">
-        <v>7.317073170731707</v>
+        <v>87.5</v>
       </c>
       <c r="L820" t="n">
         <v>130320</v>
@@ -42219,7 +42241,7 @@
         <v>234200</v>
       </c>
       <c r="K821" t="n">
-        <v>18.91891891891892</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L821" t="n">
         <v>130460</v>
@@ -42270,7 +42292,7 @@
         <v>234300</v>
       </c>
       <c r="K822" t="n">
-        <v>3.225806451612903</v>
+        <v>80</v>
       </c>
       <c r="L822" t="n">
         <v>130560</v>
@@ -42321,7 +42343,7 @@
         <v>235200</v>
       </c>
       <c r="K823" t="n">
-        <v>35.13513513513514</v>
+        <v>88.23529411764706</v>
       </c>
       <c r="L823" t="n">
         <v>130730</v>
@@ -42372,7 +42394,7 @@
         <v>235200</v>
       </c>
       <c r="K824" t="n">
-        <v>38.88888888888889</v>
+        <v>100</v>
       </c>
       <c r="L824" t="n">
         <v>130880</v>
@@ -42423,7 +42445,7 @@
         <v>235200</v>
       </c>
       <c r="K825" t="n">
-        <v>47.05882352941176</v>
+        <v>100</v>
       </c>
       <c r="L825" t="n">
         <v>131040</v>
@@ -42474,7 +42496,7 @@
         <v>235200</v>
       </c>
       <c r="K826" t="n">
-        <v>47.05882352941176</v>
+        <v>100</v>
       </c>
       <c r="L826" t="n">
         <v>131200</v>
@@ -42525,7 +42547,7 @@
         <v>235200</v>
       </c>
       <c r="K827" t="n">
-        <v>61.29032258064516</v>
+        <v>100</v>
       </c>
       <c r="L827" t="n">
         <v>131360</v>
@@ -42576,7 +42598,7 @@
         <v>235200</v>
       </c>
       <c r="K828" t="n">
-        <v>66.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L828" t="n">
         <v>131500</v>
@@ -42627,7 +42649,7 @@
         <v>235600</v>
       </c>
       <c r="K829" t="n">
-        <v>56.25</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L829" t="n">
         <v>131570</v>
@@ -42678,7 +42700,7 @@
         <v>235600</v>
       </c>
       <c r="K830" t="n">
-        <v>61.29032258064516</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L830" t="n">
         <v>131630</v>
@@ -42729,7 +42751,7 @@
         <v>235800</v>
       </c>
       <c r="K831" t="n">
-        <v>56.25</v>
+        <v>20</v>
       </c>
       <c r="L831" t="n">
         <v>131670</v>
@@ -42780,7 +42802,7 @@
         <v>235800</v>
       </c>
       <c r="K832" t="n">
-        <v>48.14814814814815</v>
+        <v>-100</v>
       </c>
       <c r="L832" t="n">
         <v>131700</v>
@@ -42831,7 +42853,7 @@
         <v>236000</v>
       </c>
       <c r="K833" t="n">
-        <v>33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L833" t="n">
         <v>131620</v>
@@ -42882,7 +42904,7 @@
         <v>236300</v>
       </c>
       <c r="K834" t="n">
-        <v>35.71428571428572</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L834" t="n">
         <v>131570</v>
@@ -42933,7 +42955,7 @@
         <v>236800</v>
       </c>
       <c r="K835" t="n">
-        <v>18.75</v>
+        <v>-62.5</v>
       </c>
       <c r="L835" t="n">
         <v>131470</v>
@@ -42984,7 +43006,7 @@
         <v>237200</v>
       </c>
       <c r="K836" t="n">
-        <v>27.77777777777778</v>
+        <v>-30</v>
       </c>
       <c r="L836" t="n">
         <v>131410</v>
@@ -43035,7 +43057,7 @@
         <v>237600</v>
       </c>
       <c r="K837" t="n">
-        <v>15</v>
+        <v>-41.66666666666667</v>
       </c>
       <c r="L837" t="n">
         <v>131310</v>
@@ -43086,7 +43108,7 @@
         <v>237800</v>
       </c>
       <c r="K838" t="n">
-        <v>5</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L838" t="n">
         <v>131190</v>
@@ -43137,7 +43159,7 @@
         <v>238100</v>
       </c>
       <c r="K839" t="n">
-        <v>5</v>
+        <v>-20</v>
       </c>
       <c r="L839" t="n">
         <v>131140</v>
@@ -43188,7 +43210,7 @@
         <v>238700</v>
       </c>
       <c r="K840" t="n">
-        <v>-11.11111111111111</v>
+        <v>-31.03448275862069</v>
       </c>
       <c r="L840" t="n">
         <v>131030</v>
@@ -43239,7 +43261,7 @@
         <v>239100</v>
       </c>
       <c r="K841" t="n">
-        <v>-2.040816326530612</v>
+        <v>-15.15151515151515</v>
       </c>
       <c r="L841" t="n">
         <v>130980</v>
@@ -43290,7 +43312,7 @@
         <v>239500</v>
       </c>
       <c r="K842" t="n">
-        <v>-11.53846153846154</v>
+        <v>-20</v>
       </c>
       <c r="L842" t="n">
         <v>130890</v>
@@ -43341,7 +43363,7 @@
         <v>239500</v>
       </c>
       <c r="K843" t="n">
-        <v>-34.88372093023256</v>
+        <v>-31.25</v>
       </c>
       <c r="L843" t="n">
         <v>130820</v>
@@ -43392,7 +43414,7 @@
         <v>239500</v>
       </c>
       <c r="K844" t="n">
-        <v>-34.88372093023256</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L844" t="n">
         <v>130720</v>
@@ -43443,7 +43465,7 @@
         <v>239900</v>
       </c>
       <c r="K845" t="n">
-        <v>-40.42553191489361</v>
+        <v>-48.14814814814815</v>
       </c>
       <c r="L845" t="n">
         <v>130630</v>
@@ -43494,7 +43516,7 @@
         <v>240000</v>
       </c>
       <c r="K846" t="n">
-        <v>-37.5</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L846" t="n">
         <v>130510</v>
@@ -43545,7 +43567,7 @@
         <v>240200</v>
       </c>
       <c r="K847" t="n">
-        <v>-32</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L847" t="n">
         <v>130450</v>
@@ -43596,7 +43618,7 @@
         <v>240400</v>
       </c>
       <c r="K848" t="n">
-        <v>-26.92307692307692</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L848" t="n">
         <v>130430</v>
@@ -43647,7 +43669,7 @@
         <v>240500</v>
       </c>
       <c r="K849" t="n">
-        <v>-18.36734693877551</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L849" t="n">
         <v>130390</v>
@@ -43698,7 +43720,7 @@
         <v>240700</v>
       </c>
       <c r="K850" t="n">
-        <v>-13.72549019607843</v>
+        <v>0</v>
       </c>
       <c r="L850" t="n">
         <v>130430</v>
@@ -43749,7 +43771,7 @@
         <v>241000</v>
       </c>
       <c r="K851" t="n">
-        <v>-3.846153846153846</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L851" t="n">
         <v>130460</v>
@@ -43800,7 +43822,7 @@
         <v>241500</v>
       </c>
       <c r="K852" t="n">
-        <v>-12.28070175438596</v>
+        <v>10</v>
       </c>
       <c r="L852" t="n">
         <v>130480</v>
@@ -43851,7 +43873,7 @@
         <v>241600</v>
       </c>
       <c r="K853" t="n">
-        <v>-7.142857142857142</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L853" t="n">
         <v>130510</v>
@@ -43902,7 +43924,7 @@
         <v>241700</v>
       </c>
       <c r="K854" t="n">
-        <v>-11.11111111111111</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L854" t="n">
         <v>130550</v>
@@ -43953,7 +43975,7 @@
         <v>242000</v>
       </c>
       <c r="K855" t="n">
-        <v>-7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L855" t="n">
         <v>130600</v>
@@ -44004,7 +44026,7 @@
         <v>242400</v>
       </c>
       <c r="K856" t="n">
-        <v>-7.692307692307693</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L856" t="n">
         <v>130680</v>
@@ -44055,7 +44077,7 @@
         <v>242400</v>
       </c>
       <c r="K857" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L857" t="n">
         <v>130740</v>
@@ -44106,7 +44128,7 @@
         <v>242600</v>
       </c>
       <c r="K858" t="n">
-        <v>8.333333333333332</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L858" t="n">
         <v>130800</v>
@@ -44157,7 +44179,7 @@
         <v>242700</v>
       </c>
       <c r="K859" t="n">
-        <v>4.347826086956522</v>
+        <v>20</v>
       </c>
       <c r="L859" t="n">
         <v>130860</v>
@@ -44208,7 +44230,7 @@
         <v>243200</v>
       </c>
       <c r="K860" t="n">
-        <v>28.88888888888889</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L860" t="n">
         <v>130950</v>
@@ -44259,7 +44281,7 @@
         <v>244000</v>
       </c>
       <c r="K861" t="n">
-        <v>34.69387755102041</v>
+        <v>76</v>
       </c>
       <c r="L861" t="n">
         <v>131090</v>
@@ -44310,7 +44332,7 @@
         <v>244500</v>
       </c>
       <c r="K862" t="n">
-        <v>52</v>
+        <v>79.31034482758621</v>
       </c>
       <c r="L862" t="n">
         <v>131330</v>
@@ -44361,7 +44383,7 @@
         <v>244800</v>
       </c>
       <c r="K863" t="n">
-        <v>43.39622641509434</v>
+        <v>61.29032258064516</v>
       </c>
       <c r="L863" t="n">
         <v>131530</v>
@@ -44412,7 +44434,7 @@
         <v>245100</v>
       </c>
       <c r="K864" t="n">
-        <v>46.42857142857143</v>
+        <v>80.64516129032258</v>
       </c>
       <c r="L864" t="n">
         <v>131750</v>
@@ -44463,7 +44485,7 @@
         <v>245500</v>
       </c>
       <c r="K865" t="n">
-        <v>46.42857142857143</v>
+        <v>54.83870967741935</v>
       </c>
       <c r="L865" t="n">
         <v>131960</v>
@@ -44514,7 +44536,7 @@
         <v>245700</v>
       </c>
       <c r="K866" t="n">
-        <v>47.36842105263158</v>
+        <v>57.57575757575758</v>
       </c>
       <c r="L866" t="n">
         <v>132150</v>
@@ -44565,7 +44587,7 @@
         <v>245900</v>
       </c>
       <c r="K867" t="n">
-        <v>40.35087719298245</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L867" t="n">
         <v>132320</v>
@@ -44616,7 +44638,7 @@
         <v>246600</v>
       </c>
       <c r="K868" t="n">
-        <v>22.58064516129032</v>
+        <v>17.94871794871795</v>
       </c>
       <c r="L868" t="n">
         <v>132400</v>
@@ -44667,7 +44689,7 @@
         <v>247000</v>
       </c>
       <c r="K869" t="n">
-        <v>26.15384615384616</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L869" t="n">
         <v>132510</v>
@@ -44718,7 +44740,7 @@
         <v>247100</v>
       </c>
       <c r="K870" t="n">
-        <v>21.875</v>
+        <v>-9.67741935483871</v>
       </c>
       <c r="L870" t="n">
         <v>132560</v>
@@ -44769,7 +44791,7 @@
         <v>247500</v>
       </c>
       <c r="K871" t="n">
-        <v>23.07692307692308</v>
+        <v>-13.33333333333333</v>
       </c>
       <c r="L871" t="n">
         <v>132570</v>
@@ -44820,7 +44842,7 @@
         <v>247600</v>
       </c>
       <c r="K872" t="n">
-        <v>34.42622950819672</v>
+        <v>0</v>
       </c>
       <c r="L872" t="n">
         <v>132540</v>
@@ -44871,7 +44893,7 @@
         <v>247900</v>
       </c>
       <c r="K873" t="n">
-        <v>36.50793650793651</v>
+        <v>0</v>
       </c>
       <c r="L873" t="n">
         <v>132570</v>
@@ -44922,7 +44944,7 @@
         <v>247900</v>
       </c>
       <c r="K874" t="n">
-        <v>35.48387096774194</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L874" t="n">
         <v>132570</v>
@@ -44973,7 +44995,7 @@
         <v>248300</v>
       </c>
       <c r="K875" t="n">
-        <v>33.33333333333333</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L875" t="n">
         <v>132570</v>
@@ -45024,7 +45046,7 @@
         <v>248600</v>
       </c>
       <c r="K876" t="n">
-        <v>32.25806451612903</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L876" t="n">
         <v>132580</v>
@@ -45075,7 +45097,7 @@
         <v>248600</v>
       </c>
       <c r="K877" t="n">
-        <v>32.25806451612903</v>
+        <v>50</v>
       </c>
       <c r="L877" t="n">
         <v>132610</v>
@@ -45126,7 +45148,7 @@
         <v>248700</v>
       </c>
       <c r="K878" t="n">
-        <v>31.14754098360656</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L878" t="n">
         <v>132720</v>
@@ -45177,7 +45199,7 @@
         <v>248700</v>
       </c>
       <c r="K879" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L879" t="n">
         <v>132790</v>
@@ -45228,7 +45250,7 @@
         <v>249000</v>
       </c>
       <c r="K880" t="n">
-        <v>17.24137931034483</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L880" t="n">
         <v>132840</v>
@@ -45279,7 +45301,7 @@
         <v>249400</v>
       </c>
       <c r="K881" t="n">
-        <v>11.11111111111111</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L881" t="n">
         <v>132890</v>
@@ -45381,7 +45403,7 @@
         <v>249800</v>
       </c>
       <c r="K883" t="n">
-        <v>0</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L883" t="n">
         <v>132890</v>
@@ -45432,7 +45454,7 @@
         <v>250100</v>
       </c>
       <c r="K884" t="n">
-        <v>0</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L884" t="n">
         <v>132890</v>
@@ -45483,7 +45505,7 @@
         <v>250400</v>
       </c>
       <c r="K885" t="n">
-        <v>2.040816326530612</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L885" t="n">
         <v>132900</v>
@@ -45534,7 +45556,7 @@
         <v>250700</v>
       </c>
       <c r="K886" t="n">
-        <v>4</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L886" t="n">
         <v>132910</v>
@@ -45585,7 +45607,7 @@
         <v>250700</v>
       </c>
       <c r="K887" t="n">
-        <v>8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="L887" t="n">
         <v>132920</v>
@@ -45636,7 +45658,7 @@
         <v>250700</v>
       </c>
       <c r="K888" t="n">
-        <v>26.82926829268293</v>
+        <v>0</v>
       </c>
       <c r="L888" t="n">
         <v>132920</v>
@@ -45687,7 +45709,7 @@
         <v>250700</v>
       </c>
       <c r="K889" t="n">
-        <v>18.91891891891892</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L889" t="n">
         <v>132920</v>
@@ -45738,7 +45760,7 @@
         <v>250900</v>
       </c>
       <c r="K890" t="n">
-        <v>26.31578947368421</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L890" t="n">
         <v>132970</v>
@@ -45789,7 +45811,7 @@
         <v>251400</v>
       </c>
       <c r="K891" t="n">
-        <v>2.564102564102564</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L891" t="n">
         <v>132930</v>
@@ -45891,7 +45913,7 @@
         <v>251500</v>
       </c>
       <c r="K893" t="n">
-        <v>-11.11111111111111</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L893" t="n">
         <v>132890</v>
@@ -45942,7 +45964,7 @@
         <v>252300</v>
       </c>
       <c r="K894" t="n">
-        <v>9.090909090909092</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L894" t="n">
         <v>132930</v>
@@ -45993,7 +46015,7 @@
         <v>252700</v>
       </c>
       <c r="K895" t="n">
-        <v>27.27272727272727</v>
+        <v>40</v>
       </c>
       <c r="L895" t="n">
         <v>133040</v>
@@ -46044,7 +46066,7 @@
         <v>254000</v>
       </c>
       <c r="K896" t="n">
-        <v>40.74074074074074</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L896" t="n">
         <v>133250</v>
@@ -46095,7 +46117,7 @@
         <v>254300</v>
       </c>
       <c r="K897" t="n">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L897" t="n">
         <v>133430</v>
@@ -46146,7 +46168,7 @@
         <v>254500</v>
       </c>
       <c r="K898" t="n">
-        <v>34.48275862068966</v>
+        <v>52.63157894736842</v>
       </c>
       <c r="L898" t="n">
         <v>133630</v>
@@ -46197,7 +46219,7 @@
         <v>255100</v>
       </c>
       <c r="K899" t="n">
-        <v>40.625</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L899" t="n">
         <v>133890</v>
@@ -46248,7 +46270,7 @@
         <v>256500</v>
       </c>
       <c r="K900" t="n">
-        <v>57.33333333333334</v>
+        <v>84.31372549019608</v>
       </c>
       <c r="L900" t="n">
         <v>134270</v>
@@ -46299,7 +46321,7 @@
         <v>257600</v>
       </c>
       <c r="K901" t="n">
-        <v>60.97560975609756</v>
+        <v>87.09677419354838</v>
       </c>
       <c r="L901" t="n">
         <v>134810</v>
@@ -46350,7 +46372,7 @@
         <v>257600</v>
       </c>
       <c r="K902" t="n">
-        <v>62.96296296296296</v>
+        <v>90.1639344262295</v>
       </c>
       <c r="L902" t="n">
         <v>135350</v>
@@ -46401,7 +46423,7 @@
         <v>258100</v>
       </c>
       <c r="K903" t="n">
-        <v>59.03614457831326</v>
+        <v>72.41379310344827</v>
       </c>
       <c r="L903" t="n">
         <v>135850</v>
@@ -46452,7 +46474,7 @@
         <v>258800</v>
       </c>
       <c r="K904" t="n">
-        <v>60.91954022988506</v>
+        <v>73.77049180327869</v>
       </c>
       <c r="L904" t="n">
         <v>136340</v>
@@ -46503,7 +46525,7 @@
         <v>259500</v>
       </c>
       <c r="K905" t="n">
-        <v>53.84615384615385</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L905" t="n">
         <v>136720</v>
@@ -46554,7 +46576,7 @@
         <v>259600</v>
       </c>
       <c r="K906" t="n">
-        <v>50.56179775280899</v>
+        <v>50.9433962264151</v>
       </c>
       <c r="L906" t="n">
         <v>136960</v>
@@ -46605,7 +46627,7 @@
         <v>259900</v>
       </c>
       <c r="K907" t="n">
-        <v>52.17391304347826</v>
+        <v>51.85185185185185</v>
       </c>
       <c r="L907" t="n">
         <v>137260</v>
@@ -46656,7 +46678,7 @@
         <v>261200</v>
       </c>
       <c r="K908" t="n">
-        <v>58.0952380952381</v>
+        <v>57.37704918032787</v>
       </c>
       <c r="L908" t="n">
         <v>137670</v>
@@ -46707,7 +46729,7 @@
         <v>261200</v>
       </c>
       <c r="K909" t="n">
-        <v>58.0952380952381</v>
+        <v>44.68085106382978</v>
       </c>
       <c r="L909" t="n">
         <v>138020</v>
@@ -46758,7 +46780,7 @@
         <v>261400</v>
       </c>
       <c r="K910" t="n">
-        <v>58.0952380952381</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="L910" t="n">
         <v>138250</v>
@@ -46809,7 +46831,7 @@
         <v>261400</v>
       </c>
       <c r="K911" t="n">
-        <v>66</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="L911" t="n">
         <v>138370</v>
@@ -46860,7 +46882,7 @@
         <v>262800</v>
       </c>
       <c r="K912" t="n">
-        <v>70.17543859649122</v>
+        <v>65.95744680851064</v>
       </c>
       <c r="L912" t="n">
         <v>138630</v>
@@ -46911,7 +46933,7 @@
         <v>263800</v>
       </c>
       <c r="K913" t="n">
-        <v>57.72357723577236</v>
+        <v>28</v>
       </c>
       <c r="L913" t="n">
         <v>138840</v>
@@ -46962,7 +46984,7 @@
         <v>263900</v>
       </c>
       <c r="K914" t="n">
-        <v>55.17241379310344</v>
+        <v>50</v>
       </c>
       <c r="L914" t="n">
         <v>138990</v>
@@ -47013,7 +47035,7 @@
         <v>264400</v>
       </c>
       <c r="K915" t="n">
-        <v>47.008547008547</v>
+        <v>37.5</v>
       </c>
       <c r="L915" t="n">
         <v>139160</v>
@@ -47064,7 +47086,7 @@
         <v>264700</v>
       </c>
       <c r="K916" t="n">
-        <v>36.44859813084112</v>
+        <v>25</v>
       </c>
       <c r="L916" t="n">
         <v>139310</v>
@@ -47115,7 +47137,7 @@
         <v>265000</v>
       </c>
       <c r="K917" t="n">
-        <v>36.44859813084112</v>
+        <v>-10.52631578947368</v>
       </c>
       <c r="L917" t="n">
         <v>139400</v>
@@ -47166,7 +47188,7 @@
         <v>265000</v>
       </c>
       <c r="K918" t="n">
-        <v>35.23809523809524</v>
+        <v>-10.52631578947368</v>
       </c>
       <c r="L918" t="n">
         <v>139360</v>
@@ -47217,7 +47239,7 @@
         <v>265200</v>
       </c>
       <c r="K919" t="n">
-        <v>28.71287128712871</v>
+        <v>-21.05263157894737</v>
       </c>
       <c r="L919" t="n">
         <v>139300</v>
@@ -47268,7 +47290,7 @@
         <v>265200</v>
       </c>
       <c r="K920" t="n">
-        <v>17.24137931034483</v>
+        <v>-21.05263157894737</v>
       </c>
       <c r="L920" t="n">
         <v>139220</v>
@@ -47319,7 +47341,7 @@
         <v>265400</v>
       </c>
       <c r="K921" t="n">
-        <v>7.692307692307693</v>
+        <v>-76.92307692307693</v>
       </c>
       <c r="L921" t="n">
         <v>139160</v>
@@ -47370,7 +47392,7 @@
         <v>265700</v>
       </c>
       <c r="K922" t="n">
-        <v>3.703703703703703</v>
+        <v>-68.42105263157895</v>
       </c>
       <c r="L922" t="n">
         <v>138930</v>
@@ -47421,7 +47443,7 @@
         <v>265700</v>
       </c>
       <c r="K923" t="n">
-        <v>10.52631578947368</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L923" t="n">
         <v>138800</v>
@@ -47472,7 +47494,7 @@
         <v>265900</v>
       </c>
       <c r="K924" t="n">
-        <v>-1.408450704225352</v>
+        <v>-73.33333333333333</v>
       </c>
       <c r="L924" t="n">
         <v>138640</v>
@@ -47523,7 +47545,7 @@
         <v>266200</v>
       </c>
       <c r="K925" t="n">
-        <v>13.43283582089552</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L925" t="n">
         <v>138560</v>
@@ -47574,7 +47596,7 @@
         <v>267000</v>
       </c>
       <c r="K926" t="n">
-        <v>24.32432432432433</v>
+        <v>30</v>
       </c>
       <c r="L926" t="n">
         <v>138590</v>
@@ -47625,7 +47647,7 @@
         <v>267300</v>
       </c>
       <c r="K927" t="n">
-        <v>16.21621621621622</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L927" t="n">
         <v>138620</v>
@@ -47676,7 +47698,7 @@
         <v>267900</v>
       </c>
       <c r="K928" t="n">
-        <v>-10.44776119402985</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L928" t="n">
         <v>138590</v>
@@ -47727,7 +47749,7 @@
         <v>268000</v>
       </c>
       <c r="K929" t="n">
-        <v>-8.823529411764707</v>
+        <v>0</v>
       </c>
       <c r="L929" t="n">
         <v>138590</v>
@@ -47778,7 +47800,7 @@
         <v>268000</v>
       </c>
       <c r="K930" t="n">
-        <v>-12.12121212121212</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L930" t="n">
         <v>138590</v>
@@ -47829,7 +47851,7 @@
         <v>268000</v>
       </c>
       <c r="K931" t="n">
-        <v>-12.12121212121212</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L931" t="n">
         <v>138570</v>
@@ -47880,7 +47902,7 @@
         <v>268000</v>
       </c>
       <c r="K932" t="n">
-        <v>-42.30769230769231</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L932" t="n">
         <v>138580</v>
@@ -47931,7 +47953,7 @@
         <v>268000</v>
       </c>
       <c r="K933" t="n">
-        <v>-28.57142857142857</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L933" t="n">
         <v>138590</v>
@@ -47982,7 +48004,7 @@
         <v>268200</v>
       </c>
       <c r="K934" t="n">
-        <v>-25.58139534883721</v>
+        <v>10</v>
       </c>
       <c r="L934" t="n">
         <v>138640</v>
@@ -48033,7 +48055,7 @@
         <v>268200</v>
       </c>
       <c r="K935" t="n">
-        <v>-15.78947368421053</v>
+        <v>-50</v>
       </c>
       <c r="L935" t="n">
         <v>138660</v>
@@ -48135,7 +48157,7 @@
         <v>268700</v>
       </c>
       <c r="K937" t="n">
-        <v>13.51351351351351</v>
+        <v>100</v>
       </c>
       <c r="L937" t="n">
         <v>138650</v>
@@ -48186,7 +48208,7 @@
         <v>269300</v>
       </c>
       <c r="K938" t="n">
-        <v>-2.325581395348837</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L938" t="n">
         <v>138670</v>
@@ -48237,7 +48259,7 @@
         <v>269800</v>
       </c>
       <c r="K939" t="n">
-        <v>13.04347826086956</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L939" t="n">
         <v>138730</v>
@@ -48288,7 +48310,7 @@
         <v>270000</v>
       </c>
       <c r="K940" t="n">
-        <v>8.333333333333332</v>
+        <v>20</v>
       </c>
       <c r="L940" t="n">
         <v>138770</v>
@@ -48339,7 +48361,7 @@
         <v>270000</v>
       </c>
       <c r="K941" t="n">
-        <v>4.347826086956522</v>
+        <v>20</v>
       </c>
       <c r="L941" t="n">
         <v>138810</v>
@@ -48390,7 +48412,7 @@
         <v>270100</v>
       </c>
       <c r="K942" t="n">
-        <v>13.63636363636363</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L942" t="n">
         <v>138860</v>
@@ -48441,7 +48463,7 @@
         <v>270100</v>
       </c>
       <c r="K943" t="n">
-        <v>13.63636363636363</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L943" t="n">
         <v>138910</v>
@@ -48492,7 +48514,7 @@
         <v>270600</v>
       </c>
       <c r="K944" t="n">
-        <v>6.382978723404255</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L944" t="n">
         <v>138890</v>
@@ -48543,7 +48565,7 @@
         <v>272200</v>
       </c>
       <c r="K945" t="n">
-        <v>-26.66666666666667</v>
+        <v>-56.75675675675676</v>
       </c>
       <c r="L945" t="n">
         <v>138710</v>
@@ -48594,7 +48616,7 @@
         <v>272900</v>
       </c>
       <c r="K946" t="n">
-        <v>-28.8135593220339</v>
+        <v>-38.09523809523809</v>
       </c>
       <c r="L946" t="n">
         <v>138570</v>
@@ -48645,7 +48667,7 @@
         <v>273500</v>
       </c>
       <c r="K947" t="n">
-        <v>-32.25806451612903</v>
+        <v>-38.09523809523809</v>
       </c>
       <c r="L947" t="n">
         <v>138350</v>
@@ -48696,7 +48718,7 @@
         <v>273800</v>
       </c>
       <c r="K948" t="n">
-        <v>-28.8135593220339</v>
+        <v>-60</v>
       </c>
       <c r="L948" t="n">
         <v>138160</v>
@@ -48747,7 +48769,7 @@
         <v>273900</v>
       </c>
       <c r="K949" t="n">
-        <v>-32.20338983050847</v>
+        <v>-58.97435897435898</v>
       </c>
       <c r="L949" t="n">
         <v>137910</v>
@@ -48798,7 +48820,7 @@
         <v>274000</v>
       </c>
       <c r="K950" t="n">
-        <v>-33.33333333333333</v>
+        <v>-60</v>
       </c>
       <c r="L950" t="n">
         <v>137670</v>
@@ -48849,7 +48871,7 @@
         <v>274000</v>
       </c>
       <c r="K951" t="n">
-        <v>-33.33333333333333</v>
+        <v>-64.1025641025641</v>
       </c>
       <c r="L951" t="n">
         <v>137430</v>
@@ -48900,7 +48922,7 @@
         <v>274700</v>
       </c>
       <c r="K952" t="n">
-        <v>-19.40298507462687</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L952" t="n">
         <v>137250</v>
@@ -48951,7 +48973,7 @@
         <v>275400</v>
       </c>
       <c r="K953" t="n">
-        <v>-27.02702702702703</v>
+        <v>-41.66666666666667</v>
       </c>
       <c r="L953" t="n">
         <v>137000</v>
@@ -49002,7 +49024,7 @@
         <v>275700</v>
       </c>
       <c r="K954" t="n">
-        <v>-25.33333333333334</v>
+        <v>-2.857142857142857</v>
       </c>
       <c r="L954" t="n">
         <v>136830</v>
@@ -49053,7 +49075,7 @@
         <v>276000</v>
       </c>
       <c r="K955" t="n">
-        <v>-28.2051282051282</v>
+        <v>-35.48387096774194</v>
       </c>
       <c r="L955" t="n">
         <v>136790</v>
@@ -49104,7 +49126,7 @@
         <v>276000</v>
       </c>
       <c r="K956" t="n">
-        <v>-33.33333333333333</v>
+        <v>-20</v>
       </c>
       <c r="L956" t="n">
         <v>136680</v>
@@ -49155,7 +49177,7 @@
         <v>276000</v>
       </c>
       <c r="K957" t="n">
-        <v>-36.98630136986301</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L957" t="n">
         <v>136630</v>
@@ -49206,7 +49228,7 @@
         <v>276000</v>
       </c>
       <c r="K958" t="n">
-        <v>-31.34328358208955</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L958" t="n">
         <v>136610</v>
@@ -49257,7 +49279,7 @@
         <v>276400</v>
       </c>
       <c r="K959" t="n">
-        <v>-33.33333333333333</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L959" t="n">
         <v>136640</v>
@@ -49308,7 +49330,7 @@
         <v>276800</v>
       </c>
       <c r="K960" t="n">
-        <v>-35.29411764705883</v>
+        <v>0</v>
       </c>
       <c r="L960" t="n">
         <v>136640</v>
@@ -49359,7 +49381,7 @@
         <v>276800</v>
       </c>
       <c r="K961" t="n">
-        <v>-35.29411764705883</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L961" t="n">
         <v>136640</v>
@@ -49410,7 +49432,7 @@
         <v>277200</v>
       </c>
       <c r="K962" t="n">
-        <v>-29.57746478873239</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L962" t="n">
         <v>136610</v>
@@ -49461,7 +49483,7 @@
         <v>278000</v>
       </c>
       <c r="K963" t="n">
-        <v>-36.70886075949367</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L963" t="n">
         <v>136570</v>
@@ -49512,7 +49534,7 @@
         <v>278100</v>
       </c>
       <c r="K964" t="n">
-        <v>-33.33333333333333</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L964" t="n">
         <v>136490</v>
@@ -49563,7 +49585,7 @@
         <v>278400</v>
       </c>
       <c r="K965" t="n">
-        <v>-9.67741935483871</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L965" t="n">
         <v>136470</v>
@@ -49614,7 +49636,7 @@
         <v>278400</v>
       </c>
       <c r="K966" t="n">
-        <v>-23.63636363636364</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L966" t="n">
         <v>136450</v>
@@ -49665,7 +49687,7 @@
         <v>278500</v>
       </c>
       <c r="K967" t="n">
-        <v>-16</v>
+        <v>-12</v>
       </c>
       <c r="L967" t="n">
         <v>136420</v>
@@ -49716,7 +49738,7 @@
         <v>278700</v>
       </c>
       <c r="K968" t="n">
-        <v>-6.122448979591836</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L968" t="n">
         <v>136410</v>
@@ -49767,7 +49789,7 @@
         <v>278700</v>
       </c>
       <c r="K969" t="n">
-        <v>-4.166666666666666</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L969" t="n">
         <v>136360</v>
@@ -49818,7 +49840,7 @@
         <v>279100</v>
       </c>
       <c r="K970" t="n">
-        <v>-9.803921568627452</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L970" t="n">
         <v>136310</v>
@@ -49869,7 +49891,7 @@
         <v>279100</v>
       </c>
       <c r="K971" t="n">
-        <v>-9.803921568627452</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L971" t="n">
         <v>136260</v>
@@ -49920,7 +49942,7 @@
         <v>279100</v>
       </c>
       <c r="K972" t="n">
-        <v>-27.27272727272727</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L972" t="n">
         <v>136170</v>
@@ -49971,7 +49993,7 @@
         <v>279300</v>
       </c>
       <c r="K973" t="n">
-        <v>-7.692307692307693</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L973" t="n">
         <v>136180</v>
@@ -50022,7 +50044,7 @@
         <v>279600</v>
       </c>
       <c r="K974" t="n">
-        <v>-7.692307692307693</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L974" t="n">
         <v>136230</v>
@@ -50073,7 +50095,7 @@
         <v>279700</v>
       </c>
       <c r="K975" t="n">
-        <v>-2.702702702702703</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L975" t="n">
         <v>136240</v>
@@ -50124,7 +50146,7 @@
         <v>280300</v>
       </c>
       <c r="K976" t="n">
-        <v>-16.27906976744186</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L976" t="n">
         <v>136190</v>
@@ -50175,7 +50197,7 @@
         <v>280300</v>
       </c>
       <c r="K977" t="n">
-        <v>-16.27906976744186</v>
+        <v>-37.5</v>
       </c>
       <c r="L977" t="n">
         <v>136150</v>
@@ -50226,7 +50248,7 @@
         <v>280700</v>
       </c>
       <c r="K978" t="n">
-        <v>-6.382978723404255</v>
+        <v>-10</v>
       </c>
       <c r="L978" t="n">
         <v>136130</v>
@@ -50277,7 +50299,7 @@
         <v>280800</v>
       </c>
       <c r="K979" t="n">
-        <v>-13.63636363636363</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L979" t="n">
         <v>136120</v>
@@ -50328,7 +50350,7 @@
         <v>280800</v>
       </c>
       <c r="K980" t="n">
-        <v>-5</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L980" t="n">
         <v>136150</v>
@@ -50379,7 +50401,7 @@
         <v>281000</v>
       </c>
       <c r="K981" t="n">
-        <v>-9.523809523809524</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L981" t="n">
         <v>136160</v>
@@ -50430,7 +50452,7 @@
         <v>281100</v>
       </c>
       <c r="K982" t="n">
-        <v>-17.94871794871795</v>
+        <v>0</v>
       </c>
       <c r="L982" t="n">
         <v>136180</v>
@@ -50481,7 +50503,7 @@
         <v>281900</v>
       </c>
       <c r="K983" t="n">
-        <v>-17.94871794871795</v>
+        <v>-47.82608695652174</v>
       </c>
       <c r="L983" t="n">
         <v>136100</v>
@@ -50532,7 +50554,7 @@
         <v>282000</v>
       </c>
       <c r="K984" t="n">
-        <v>-12.82051282051282</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L984" t="n">
         <v>136000</v>
@@ -50583,7 +50605,7 @@
         <v>282500</v>
       </c>
       <c r="K985" t="n">
-        <v>-7.317073170731707</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L985" t="n">
         <v>135960</v>
@@ -50634,7 +50656,7 @@
         <v>282600</v>
       </c>
       <c r="K986" t="n">
-        <v>-9.523809523809524</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L986" t="n">
         <v>135970</v>
@@ -50685,7 +50707,7 @@
         <v>282700</v>
       </c>
       <c r="K987" t="n">
-        <v>-9.523809523809524</v>
+        <v>-20</v>
       </c>
       <c r="L987" t="n">
         <v>135970</v>
@@ -50736,7 +50758,7 @@
         <v>282900</v>
       </c>
       <c r="K988" t="n">
-        <v>-19.04761904761905</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L988" t="n">
         <v>135910</v>
@@ -50787,7 +50809,7 @@
         <v>282900</v>
       </c>
       <c r="K989" t="n">
-        <v>-19.04761904761905</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L989" t="n">
         <v>135840</v>

--- a/BackTest/2019-10-25 BackTest BSV.xlsx
+++ b/BackTest/2019-10-25 BackTest BSV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-66.04839983000002</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-66.02939983000002</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>115500</v>
@@ -521,7 +521,7 @@
         <v>-64.97149983000001</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>115900</v>
@@ -562,7 +562,7 @@
         <v>-55.74989983000001</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>116000</v>
@@ -603,7 +603,7 @@
         <v>-45.25429983000001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>116200</v>
@@ -640,7 +640,7 @@
         <v>-39.07699983000001</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>116300</v>
@@ -681,7 +681,7 @@
         <v>32.10430016999999</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>116700</v>
@@ -722,7 +722,7 @@
         <v>41.32999845999998</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>116900</v>
@@ -759,7 +759,7 @@
         <v>40.79629845999998</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>117000</v>
@@ -800,7 +800,7 @@
         <v>40.79629845999998</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>116900</v>
@@ -841,7 +841,7 @@
         <v>52.22639845999998</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>116900</v>
@@ -878,7 +878,7 @@
         <v>52.22639845999998</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>117100</v>
@@ -919,7 +919,7 @@
         <v>52.22639845999998</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>117100</v>
@@ -960,7 +960,7 @@
         <v>52.22639845999998</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>117100</v>
@@ -997,7 +997,7 @@
         <v>-43.18450154000001</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>117100</v>
@@ -1038,7 +1038,7 @@
         <v>-40.62040154000002</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>116600</v>
@@ -1079,7 +1079,7 @@
         <v>-54.60580154000002</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>117000</v>
@@ -1120,7 +1120,7 @@
         <v>-54.60580154000002</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>116600</v>
@@ -1161,7 +1161,7 @@
         <v>-66.60580154000002</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>116600</v>
@@ -1202,7 +1202,7 @@
         <v>-105.50410154</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>116500</v>
@@ -1243,7 +1243,7 @@
         <v>-105.50410154</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>116000</v>
@@ -1284,7 +1284,7 @@
         <v>-105.50410154</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>116000</v>
@@ -1325,7 +1325,7 @@
         <v>-105.50410154</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>116000</v>
@@ -1366,7 +1366,7 @@
         <v>-101.04620154</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>116000</v>
@@ -1407,9 +1407,11 @@
         <v>-113.99860154</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>116800</v>
+      </c>
       <c r="J26" t="n">
         <v>117100</v>
       </c>
@@ -1446,9 +1448,11 @@
         <v>-110.24990154</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>116500</v>
+      </c>
       <c r="J27" t="n">
         <v>117100</v>
       </c>
@@ -1485,9 +1489,11 @@
         <v>-110.24990154</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>116800</v>
+      </c>
       <c r="J28" t="n">
         <v>117100</v>
       </c>
@@ -1524,9 +1530,11 @@
         <v>-26.81717678000003</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>116800</v>
+      </c>
       <c r="J29" t="n">
         <v>117100</v>
       </c>
@@ -1563,9 +1571,11 @@
         <v>-28.41147678000003</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>117100</v>
+      </c>
       <c r="J30" t="n">
         <v>117100</v>
       </c>
@@ -1602,9 +1612,11 @@
         <v>-25.20147678000003</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>116800</v>
+      </c>
       <c r="J31" t="n">
         <v>117100</v>
       </c>
@@ -1641,9 +1653,11 @@
         <v>7.732123219999973</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>117100</v>
+      </c>
       <c r="J32" t="n">
         <v>117100</v>
       </c>
@@ -1680,9 +1694,11 @@
         <v>-22.48427678000003</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>117400</v>
+      </c>
       <c r="J33" t="n">
         <v>117100</v>
       </c>
@@ -1719,9 +1735,11 @@
         <v>-22.48427678000003</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>117000</v>
+      </c>
       <c r="J34" t="n">
         <v>117100</v>
       </c>
@@ -1758,9 +1776,11 @@
         <v>12.60982321999997</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>117000</v>
+      </c>
       <c r="J35" t="n">
         <v>117100</v>
       </c>
@@ -1797,9 +1817,11 @@
         <v>12.60982321999997</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>117200</v>
+      </c>
       <c r="J36" t="n">
         <v>117100</v>
       </c>
@@ -1836,9 +1858,11 @@
         <v>131.46892322</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>117200</v>
+      </c>
       <c r="J37" t="n">
         <v>117100</v>
       </c>
@@ -1875,9 +1899,11 @@
         <v>131.46892322</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>117300</v>
+      </c>
       <c r="J38" t="n">
         <v>117100</v>
       </c>
@@ -1914,9 +1940,11 @@
         <v>125.84052322</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>117300</v>
+      </c>
       <c r="J39" t="n">
         <v>117100</v>
       </c>
@@ -1953,9 +1981,11 @@
         <v>125.90352322</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>117200</v>
+      </c>
       <c r="J40" t="n">
         <v>117100</v>
       </c>
@@ -1992,9 +2022,11 @@
         <v>126.28942322</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>117300</v>
+      </c>
       <c r="J41" t="n">
         <v>117100</v>
       </c>
@@ -2031,9 +2063,11 @@
         <v>117.30482322</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>117400</v>
+      </c>
       <c r="J42" t="n">
         <v>117100</v>
       </c>
@@ -2070,9 +2104,11 @@
         <v>180.71902322</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>117300</v>
+      </c>
       <c r="J43" t="n">
         <v>117100</v>
       </c>
@@ -2109,9 +2145,11 @@
         <v>180.71902322</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>117400</v>
+      </c>
       <c r="J44" t="n">
         <v>117100</v>
       </c>
@@ -2148,9 +2186,11 @@
         <v>180.71902322</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>117400</v>
+      </c>
       <c r="J45" t="n">
         <v>117100</v>
       </c>
@@ -2187,9 +2227,11 @@
         <v>194.89632322</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>117400</v>
+      </c>
       <c r="J46" t="n">
         <v>117100</v>
       </c>
@@ -2226,9 +2268,11 @@
         <v>205.01452322</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>117600</v>
+      </c>
       <c r="J47" t="n">
         <v>117100</v>
       </c>
@@ -2265,9 +2309,11 @@
         <v>232.51039609</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>117900</v>
+      </c>
       <c r="J48" t="n">
         <v>117100</v>
       </c>
@@ -2304,9 +2350,11 @@
         <v>237.53049609</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>118100</v>
+      </c>
       <c r="J49" t="n">
         <v>117100</v>
       </c>
@@ -2343,9 +2391,11 @@
         <v>193.30839609</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>118200</v>
+      </c>
       <c r="J50" t="n">
         <v>117100</v>
       </c>
@@ -2382,9 +2432,11 @@
         <v>138.72319609</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>118000</v>
+      </c>
       <c r="J51" t="n">
         <v>117100</v>
       </c>
@@ -2421,9 +2473,11 @@
         <v>116.99869609</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>117800</v>
+      </c>
       <c r="J52" t="n">
         <v>117100</v>
       </c>
@@ -2460,9 +2514,11 @@
         <v>110.97859609</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>117700</v>
+      </c>
       <c r="J53" t="n">
         <v>117100</v>
       </c>
@@ -2499,9 +2555,11 @@
         <v>116.95256301</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>117400</v>
+      </c>
       <c r="J54" t="n">
         <v>117100</v>
       </c>
@@ -2538,9 +2596,11 @@
         <v>116.37886301</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>117900</v>
+      </c>
       <c r="J55" t="n">
         <v>117100</v>
       </c>
@@ -2577,9 +2637,11 @@
         <v>178.13856301</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>117700</v>
+      </c>
       <c r="J56" t="n">
         <v>117100</v>
       </c>
@@ -2616,9 +2678,11 @@
         <v>178.13856301</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>117900</v>
+      </c>
       <c r="J57" t="n">
         <v>117100</v>
       </c>
@@ -2655,9 +2719,11 @@
         <v>334.49014607</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>117900</v>
+      </c>
       <c r="J58" t="n">
         <v>117100</v>
       </c>
@@ -2694,9 +2760,11 @@
         <v>270.14534607</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>118600</v>
+      </c>
       <c r="J59" t="n">
         <v>117100</v>
       </c>
@@ -2733,9 +2801,11 @@
         <v>275.5521460699999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>117900</v>
+      </c>
       <c r="J60" t="n">
         <v>117100</v>
       </c>
@@ -2772,9 +2842,11 @@
         <v>281.8336460699999</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>118200</v>
+      </c>
       <c r="J61" t="n">
         <v>117100</v>
       </c>
@@ -2811,9 +2883,11 @@
         <v>280.8594460699999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>118300</v>
+      </c>
       <c r="J62" t="n">
         <v>117100</v>
       </c>
@@ -2889,9 +2963,11 @@
         <v>295.5078460699999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>118000</v>
+      </c>
       <c r="J64" t="n">
         <v>117100</v>
       </c>
@@ -2928,9 +3004,11 @@
         <v>293.6317460699999</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>118200</v>
+      </c>
       <c r="J65" t="n">
         <v>117100</v>
       </c>
@@ -2967,9 +3045,11 @@
         <v>293.6317460699999</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>118000</v>
+      </c>
       <c r="J66" t="n">
         <v>117100</v>
       </c>
@@ -3006,9 +3086,11 @@
         <v>314.7547625599999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>118000</v>
+      </c>
       <c r="J67" t="n">
         <v>117100</v>
       </c>
@@ -3045,9 +3127,11 @@
         <v>314.7547625599999</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>118200</v>
+      </c>
       <c r="J68" t="n">
         <v>117100</v>
       </c>
@@ -3084,9 +3168,11 @@
         <v>314.7547625599999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>118200</v>
+      </c>
       <c r="J69" t="n">
         <v>117100</v>
       </c>
@@ -3123,9 +3209,11 @@
         <v>325.6991625599999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>118200</v>
+      </c>
       <c r="J70" t="n">
         <v>117100</v>
       </c>
@@ -3162,9 +3250,11 @@
         <v>491.5051625599999</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>118600</v>
+      </c>
       <c r="J71" t="n">
         <v>117100</v>
       </c>
@@ -3201,9 +3291,11 @@
         <v>632.3766625599999</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>119300</v>
+      </c>
       <c r="J72" t="n">
         <v>117100</v>
       </c>
@@ -4059,7 +4151,7 @@
         <v>1458.862324829999</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
@@ -4098,7 +4190,7 @@
         <v>1529.245724829999</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
@@ -4137,7 +4229,7 @@
         <v>1552.525029589999</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
@@ -4176,7 +4268,7 @@
         <v>1511.923329589999</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
@@ -4215,7 +4307,7 @@
         <v>1607.05390356</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
@@ -4254,7 +4346,7 @@
         <v>1500.948403559999</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
@@ -4293,7 +4385,7 @@
         <v>1470.434509909999</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
@@ -4410,7 +4502,7 @@
         <v>1384.800309909999</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
@@ -4683,7 +4775,7 @@
         <v>1796.824137359999</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
@@ -4722,7 +4814,7 @@
         <v>1788.06923736</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
@@ -4878,7 +4970,7 @@
         <v>1656.276899759999</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
@@ -4995,7 +5087,7 @@
         <v>1806.783499759999</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
@@ -5034,7 +5126,7 @@
         <v>1806.783499759999</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
@@ -5073,7 +5165,7 @@
         <v>1715.511899759999</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
@@ -5151,7 +5243,7 @@
         <v>1706.551299759999</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
@@ -5190,7 +5282,7 @@
         <v>1740.749799759999</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
@@ -5229,7 +5321,7 @@
         <v>1753.206399759999</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
@@ -5307,7 +5399,7 @@
         <v>1769.173399759999</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
@@ -25158,7 +25250,7 @@
         <v>3935.130021510001</v>
       </c>
       <c r="H635" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="n">
@@ -25166,15 +25258,13 @@
       </c>
       <c r="K635" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L635" t="n">
-        <v>1.091498719043553</v>
-      </c>
-      <c r="M635" t="n">
-        <v>1.013852813852814</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M635" t="inlineStr"/>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
@@ -25199,11 +25289,17 @@
         <v>4011.202221510001</v>
       </c>
       <c r="H636" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -25232,11 +25328,17 @@
         <v>3968.024021510001</v>
       </c>
       <c r="H637" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -25265,11 +25367,17 @@
         <v>3974.105318090001</v>
       </c>
       <c r="H638" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -25298,11 +25406,17 @@
         <v>3954.763618950001</v>
       </c>
       <c r="H639" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -25331,11 +25445,17 @@
         <v>3954.763618950001</v>
       </c>
       <c r="H640" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -25364,11 +25484,17 @@
         <v>3920.024318950001</v>
       </c>
       <c r="H641" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -25397,11 +25523,17 @@
         <v>3867.582018950001</v>
       </c>
       <c r="H642" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -25430,11 +25562,17 @@
         <v>3879.625218950001</v>
       </c>
       <c r="H643" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -25463,11 +25601,17 @@
         <v>3691.631118950001</v>
       </c>
       <c r="H644" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -25499,8 +25643,14 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -25532,8 +25682,14 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -25565,8 +25721,14 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -25598,8 +25760,14 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -25631,8 +25799,14 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -25664,8 +25838,14 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -25694,11 +25874,17 @@
         <v>3892.871018950001</v>
       </c>
       <c r="H651" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -25727,11 +25913,17 @@
         <v>3909.467618950001</v>
       </c>
       <c r="H652" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -25760,11 +25952,17 @@
         <v>3881.785918950001</v>
       </c>
       <c r="H653" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -25793,11 +25991,17 @@
         <v>3918.134218950001</v>
       </c>
       <c r="H654" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -25826,11 +26030,17 @@
         <v>3968.627818950001</v>
       </c>
       <c r="H655" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -25859,11 +26069,17 @@
         <v>4094.036518950001</v>
       </c>
       <c r="H656" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -25892,11 +26108,17 @@
         <v>3903.099218950001</v>
       </c>
       <c r="H657" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -25925,11 +26147,17 @@
         <v>3799.751918950001</v>
       </c>
       <c r="H658" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -25958,11 +26186,17 @@
         <v>4169.974118950001</v>
       </c>
       <c r="H659" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -25991,11 +26225,17 @@
         <v>4169.974118950001</v>
       </c>
       <c r="H660" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -26024,11 +26264,17 @@
         <v>4020.518418950001</v>
       </c>
       <c r="H661" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -26060,8 +26306,14 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -26093,8 +26345,14 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -26126,8 +26384,14 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -26159,8 +26423,14 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -26192,8 +26462,14 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -26225,8 +26501,14 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -26258,8 +26540,14 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -26291,8 +26579,14 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -26324,8 +26618,14 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -26357,8 +26657,14 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -26390,8 +26696,14 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -26423,8 +26735,14 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -26456,8 +26774,14 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -26489,8 +26813,14 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -26522,8 +26852,14 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -26555,8 +26891,14 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -26588,8 +26930,14 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -26621,8 +26969,14 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -26654,8 +27008,14 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -26687,8 +27047,14 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -26720,8 +27086,14 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -26753,8 +27125,14 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -26786,8 +27164,14 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -26819,8 +27203,14 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -26852,8 +27242,14 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -26885,8 +27281,14 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -26918,8 +27320,14 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -26951,8 +27359,14 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -26984,8 +27398,14 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -27017,8 +27437,14 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -27050,8 +27476,14 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -27083,8 +27515,14 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -27116,8 +27554,14 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -27149,8 +27593,14 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -27182,8 +27632,14 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -27215,8 +27671,14 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -27248,8 +27710,14 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -27281,8 +27749,14 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -27314,8 +27788,14 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -27347,8 +27827,14 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -27380,8 +27866,14 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -27413,8 +27905,14 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -27446,8 +27944,14 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -27479,8 +27983,14 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -27512,8 +28022,14 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -27545,8 +28061,14 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -27578,8 +28100,14 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -27611,8 +28139,14 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -27644,8 +28178,14 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -27677,8 +28217,14 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -27710,8 +28256,14 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="J712" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -27743,8 +28295,14 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="J713" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -27776,8 +28334,14 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="J714" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -27809,8 +28373,14 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="J715" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -27842,8 +28412,14 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="J716" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -27875,8 +28451,14 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="J717" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -27908,8 +28490,14 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="J718" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -27941,8 +28529,14 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="J719" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -27974,8 +28568,14 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="J720" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -28007,8 +28607,14 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="J721" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -28040,8 +28646,14 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="J722" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -28073,8 +28685,14 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="J723" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -28106,8 +28724,14 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="J724" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -28139,8 +28763,14 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="J725" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -28172,8 +28802,14 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="J726" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -28205,8 +28841,14 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="J727" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -28238,8 +28880,14 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="J728" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -28271,8 +28919,14 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="J729" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -28304,8 +28958,14 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="J730" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -28337,8 +28997,14 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="J731" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -28370,8 +29036,14 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="J732" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -28403,8 +29075,14 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="J733" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -28436,8 +29114,14 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="J734" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -28469,8 +29153,14 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="J735" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -28502,8 +29192,14 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="J736" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -28535,8 +29231,14 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="J737" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -28568,8 +29270,14 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="J738" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -28601,8 +29309,14 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="J739" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -28634,8 +29348,14 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="J740" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -28667,8 +29387,14 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="J741" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -28700,8 +29426,14 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="J742" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -28733,8 +29465,14 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="J743" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -28766,8 +29504,14 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="J744" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -28799,8 +29543,14 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="J745" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -28832,8 +29582,14 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="J746" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -28865,8 +29621,14 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="J747" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -28898,8 +29660,14 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="J748" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -28931,8 +29699,14 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="J749" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -28964,8 +29738,14 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="J750" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -28997,8 +29777,14 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="J751" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -29030,8 +29816,14 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="J752" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -29063,8 +29855,14 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="J753" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -29096,8 +29894,14 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="J754" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -29129,8 +29933,14 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="J755" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -29162,8 +29972,14 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="J756" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -29195,8 +30011,14 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="J757" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -29228,8 +30050,14 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="J758" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -29261,8 +30089,14 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="J759" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -29294,8 +30128,14 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="J760" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -29327,8 +30167,14 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="J761" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -29360,8 +30206,14 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="J762" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -29393,8 +30245,14 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="J763" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -29426,8 +30284,14 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="J764" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -29459,8 +30323,14 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="J765" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -29492,8 +30362,14 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="J766" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -29525,8 +30401,14 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="J767" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -29558,8 +30440,14 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="J768" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -29591,8 +30479,14 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="J769" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -29624,8 +30518,14 @@
         <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="J770" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -29657,8 +30557,14 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="J771" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -29690,8 +30596,14 @@
         <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="J772" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -29723,8 +30635,14 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="J773" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -29756,8 +30674,14 @@
         <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="J774" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -29789,8 +30713,14 @@
         <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="J775" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -29822,8 +30752,14 @@
         <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="J776" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -29855,8 +30791,14 @@
         <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="J777" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -29888,8 +30830,14 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="J778" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -29921,8 +30869,14 @@
         <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="J779" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -29954,8 +30908,14 @@
         <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="J780" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -29987,8 +30947,14 @@
         <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
-      <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="J781" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -30020,8 +30986,14 @@
         <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="J782" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -30053,8 +31025,14 @@
         <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="J783" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -30086,8 +31064,14 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="J784" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -30119,8 +31103,14 @@
         <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="J785" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -30152,8 +31142,14 @@
         <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="J786" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -30185,8 +31181,14 @@
         <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="J787" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -30218,8 +31220,14 @@
         <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="J788" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -30251,8 +31259,14 @@
         <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
-      <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="J789" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -30284,8 +31298,14 @@
         <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
-      <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="J790" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -30317,8 +31337,14 @@
         <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
-      <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="J791" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -30350,8 +31376,14 @@
         <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
-      <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="J792" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -30383,8 +31415,14 @@
         <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
-      <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="J793" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -30416,8 +31454,14 @@
         <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
-      <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="J794" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -30449,8 +31493,14 @@
         <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
-      <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="J795" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -30482,8 +31532,14 @@
         <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
-      <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="J796" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -30515,8 +31571,14 @@
         <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
-      <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="J797" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -30548,8 +31610,14 @@
         <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
-      <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="J798" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -30581,8 +31649,14 @@
         <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
-      <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="J799" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -30614,8 +31688,14 @@
         <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
-      <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="J800" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -30647,8 +31727,14 @@
         <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
-      <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="J801" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -30680,8 +31766,14 @@
         <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
-      <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="J802" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -30713,8 +31805,14 @@
         <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
-      <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="J803" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -30746,8 +31844,14 @@
         <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
-      <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="J804" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -30779,8 +31883,14 @@
         <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
-      <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="J805" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -30812,8 +31922,14 @@
         <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
-      <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="J806" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -30845,8 +31961,14 @@
         <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
-      <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="J807" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -30878,8 +32000,14 @@
         <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
-      <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="J808" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -30911,8 +32039,14 @@
         <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
-      <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="J809" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -30944,8 +32078,14 @@
         <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
-      <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="J810" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -30977,8 +32117,14 @@
         <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
-      <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+      <c r="J811" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -31010,8 +32156,14 @@
         <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
-      <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="J812" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -31043,8 +32195,14 @@
         <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
-      <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="J813" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -31076,8 +32234,14 @@
         <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
-      <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="J814" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -31109,8 +32273,14 @@
         <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
-      <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="J815" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -31142,8 +32312,14 @@
         <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
-      <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="J816" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -31175,8 +32351,14 @@
         <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
-      <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="J817" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -31208,8 +32390,14 @@
         <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
-      <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="J818" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -31241,8 +32429,14 @@
         <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
-      <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="J819" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -31274,8 +32468,14 @@
         <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
-      <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="J820" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -31307,8 +32507,14 @@
         <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
-      <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="J821" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -31340,8 +32546,14 @@
         <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
-      <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="J822" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -31373,8 +32585,14 @@
         <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
-      <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="J823" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -31406,8 +32624,14 @@
         <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="J824" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -31439,8 +32663,14 @@
         <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="J825" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -31472,8 +32702,14 @@
         <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
-      <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="J826" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -31505,8 +32741,14 @@
         <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
-      <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="J827" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -31538,8 +32780,14 @@
         <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
-      <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="J828" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -31571,8 +32819,14 @@
         <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
-      <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="J829" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -31604,8 +32858,14 @@
         <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
-      <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="J830" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -31637,8 +32897,14 @@
         <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
-      <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="J831" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -31670,8 +32936,14 @@
         <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
-      <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="J832" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -31703,8 +32975,14 @@
         <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
-      <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="J833" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -31736,8 +33014,14 @@
         <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
-      <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="J834" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -31769,8 +33053,14 @@
         <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
-      <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="J835" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -31802,8 +33092,14 @@
         <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
-      <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="J836" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -31835,8 +33131,14 @@
         <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
-      <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="J837" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -31868,8 +33170,14 @@
         <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
-      <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="J838" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -31901,8 +33209,14 @@
         <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
-      <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="J839" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -31934,8 +33248,14 @@
         <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
-      <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="J840" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -31967,8 +33287,14 @@
         <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
-      <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="J841" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -32000,8 +33326,14 @@
         <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
-      <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="J842" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -32033,8 +33365,14 @@
         <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
-      <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="J843" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -32066,8 +33404,14 @@
         <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
-      <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="J844" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -32099,8 +33443,14 @@
         <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
-      <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="J845" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -32132,8 +33482,14 @@
         <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
-      <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="J846" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -32165,8 +33521,14 @@
         <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
-      <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="J847" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -32198,8 +33560,14 @@
         <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
-      <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="J848" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -32231,8 +33599,14 @@
         <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
-      <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="J849" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -32264,8 +33638,14 @@
         <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
-      <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="J850" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -32297,8 +33677,14 @@
         <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
-      <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="J851" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -32330,8 +33716,14 @@
         <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
-      <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="J852" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -32363,8 +33755,14 @@
         <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
-      <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="J853" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -32393,11 +33791,17 @@
         <v>5087.969914729997</v>
       </c>
       <c r="H854" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
-      <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="J854" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -32426,11 +33830,17 @@
         <v>5063.811514729997</v>
       </c>
       <c r="H855" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
-      <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="J855" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -32459,11 +33869,17 @@
         <v>5009.105414729996</v>
       </c>
       <c r="H856" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
-      <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="J856" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -32492,11 +33908,17 @@
         <v>5016.944014729997</v>
       </c>
       <c r="H857" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
-      <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="J857" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -32525,11 +33947,17 @@
         <v>5018.543514729997</v>
       </c>
       <c r="H858" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
-      <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="J858" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -32561,8 +33989,14 @@
         <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
-      <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="J859" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -32594,8 +34028,14 @@
         <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
-      <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="J860" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -32627,8 +34067,14 @@
         <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
-      <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="J861" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -32660,8 +34106,14 @@
         <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
-      <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="J862" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -32693,8 +34145,14 @@
         <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
-      <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="J863" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -32726,8 +34184,14 @@
         <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
-      <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="J864" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -32759,8 +34223,14 @@
         <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
-      <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="J865" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -32792,8 +34262,14 @@
         <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
-      <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="J866" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -32825,8 +34301,14 @@
         <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
-      <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="J867" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -32858,8 +34340,14 @@
         <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
-      <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="J868" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -32891,8 +34379,14 @@
         <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
-      <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="J869" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -32924,8 +34418,14 @@
         <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
-      <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="J870" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -32957,8 +34457,14 @@
         <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
-      <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="J871" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -32990,8 +34496,14 @@
         <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
-      <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="J872" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -33023,8 +34535,14 @@
         <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
-      <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="J873" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -33056,8 +34574,14 @@
         <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
-      <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="J874" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -33089,8 +34613,14 @@
         <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
-      <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="J875" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -33122,8 +34652,14 @@
         <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
-      <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="J876" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -33155,8 +34691,14 @@
         <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
-      <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="J877" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -33188,8 +34730,14 @@
         <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
-      <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="J878" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -33221,8 +34769,14 @@
         <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
-      <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="J879" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -33254,8 +34808,14 @@
         <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
-      <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="J880" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -33287,8 +34847,14 @@
         <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
-      <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="J881" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -33320,8 +34886,14 @@
         <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
-      <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="J882" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -33353,8 +34925,14 @@
         <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
-      <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="J883" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -33386,8 +34964,14 @@
         <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
-      <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="J884" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -33419,8 +35003,14 @@
         <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
-      <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="J885" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -33452,8 +35042,14 @@
         <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
-      <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+      <c r="J886" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -33485,8 +35081,14 @@
         <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
-      <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="J887" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -33518,8 +35120,14 @@
         <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
-      <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+      <c r="J888" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -33551,8 +35159,14 @@
         <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
-      <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="J889" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -33584,8 +35198,14 @@
         <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
-      <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="J890" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -33617,8 +35237,14 @@
         <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
-      <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="J891" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -33650,8 +35276,14 @@
         <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
-      <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="J892" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -33683,8 +35315,14 @@
         <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
-      <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="J893" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -33716,8 +35354,14 @@
         <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
-      <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="J894" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -33749,8 +35393,14 @@
         <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
-      <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="J895" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -33782,8 +35432,14 @@
         <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
-      <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="J896" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -33815,8 +35471,14 @@
         <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
-      <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="J897" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -33848,8 +35510,14 @@
         <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
-      <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="J898" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -33881,8 +35549,14 @@
         <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
-      <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+      <c r="J899" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -33914,8 +35588,14 @@
         <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
-      <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+      <c r="J900" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -33947,8 +35627,14 @@
         <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
-      <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+      <c r="J901" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -33980,8 +35666,14 @@
         <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
-      <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+      <c r="J902" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -34013,8 +35705,14 @@
         <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
-      <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+      <c r="J903" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -34046,8 +35744,14 @@
         <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
-      <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+      <c r="J904" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -34079,8 +35783,14 @@
         <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
-      <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+      <c r="J905" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -34112,8 +35822,14 @@
         <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
-      <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+      <c r="J906" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -34145,8 +35861,14 @@
         <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
-      <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+      <c r="J907" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -34178,8 +35900,14 @@
         <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
-      <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
+      <c r="J908" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -34211,8 +35939,14 @@
         <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
-      <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
+      <c r="J909" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -34244,8 +35978,14 @@
         <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
-      <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr"/>
+      <c r="J910" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -34277,8 +36017,14 @@
         <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
-      <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr"/>
+      <c r="J911" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -34310,8 +36056,14 @@
         <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
-      <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
+      <c r="J912" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -34343,8 +36095,14 @@
         <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
-      <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr"/>
+      <c r="J913" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -34376,8 +36134,14 @@
         <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
-      <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr"/>
+      <c r="J914" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -34409,8 +36173,14 @@
         <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
-      <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr"/>
+      <c r="J915" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -34442,8 +36212,14 @@
         <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
-      <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr"/>
+      <c r="J916" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -34475,8 +36251,14 @@
         <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
-      <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr"/>
+      <c r="J917" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -34508,8 +36290,14 @@
         <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
-      <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr"/>
+      <c r="J918" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -34541,8 +36329,14 @@
         <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
-      <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr"/>
+      <c r="J919" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -34574,8 +36368,14 @@
         <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
-      <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr"/>
+      <c r="J920" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -34607,8 +36407,14 @@
         <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
-      <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr"/>
+      <c r="J921" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -34640,8 +36446,14 @@
         <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
-      <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr"/>
+      <c r="J922" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -34673,8 +36485,14 @@
         <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
-      <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr"/>
+      <c r="J923" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -34706,8 +36524,14 @@
         <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
-      <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr"/>
+      <c r="J924" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -34739,8 +36563,14 @@
         <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
-      <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr"/>
+      <c r="J925" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -34772,8 +36602,14 @@
         <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
-      <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr"/>
+      <c r="J926" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -34802,11 +36638,17 @@
         <v>7247.922799119996</v>
       </c>
       <c r="H927" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
-      <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr"/>
+      <c r="J927" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -34835,11 +36677,17 @@
         <v>7248.782799119996</v>
       </c>
       <c r="H928" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
-      <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr"/>
+      <c r="J928" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K928" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -34868,11 +36716,17 @@
         <v>7205.640299119996</v>
       </c>
       <c r="H929" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
-      <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr"/>
+      <c r="J929" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K929" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -34904,8 +36758,14 @@
         <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
-      <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr"/>
+      <c r="J930" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K930" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -34937,8 +36797,14 @@
         <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
-      <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr"/>
+      <c r="J931" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K931" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -34970,8 +36836,14 @@
         <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
-      <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr"/>
+      <c r="J932" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K932" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -35003,8 +36875,14 @@
         <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
-      <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr"/>
+      <c r="J933" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K933" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -35036,8 +36914,14 @@
         <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
-      <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr"/>
+      <c r="J934" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K934" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -35069,8 +36953,14 @@
         <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
-      <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr"/>
+      <c r="J935" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K935" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -35102,8 +36992,14 @@
         <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
-      <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr"/>
+      <c r="J936" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K936" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -35135,8 +37031,14 @@
         <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
-      <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr"/>
+      <c r="J937" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K937" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -35168,8 +37070,14 @@
         <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
-      <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr"/>
+      <c r="J938" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K938" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -35201,8 +37109,14 @@
         <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
-      <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr"/>
+      <c r="J939" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K939" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -35234,8 +37148,14 @@
         <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
-      <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr"/>
+      <c r="J940" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K940" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -35267,8 +37187,14 @@
         <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
-      <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr"/>
+      <c r="J941" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K941" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -35300,8 +37226,14 @@
         <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
-      <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr"/>
+      <c r="J942" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K942" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -35333,8 +37265,14 @@
         <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
-      <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr"/>
+      <c r="J943" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K943" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -35363,11 +37301,17 @@
         <v>7352.549441559996</v>
       </c>
       <c r="H944" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
-      <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr"/>
+      <c r="J944" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K944" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -35399,8 +37343,14 @@
         <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
-      <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr"/>
+      <c r="J945" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K945" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -35432,8 +37382,14 @@
         <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
-      <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr"/>
+      <c r="J946" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K946" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -35465,8 +37421,14 @@
         <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
-      <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr"/>
+      <c r="J947" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K947" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -35498,8 +37460,14 @@
         <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
-      <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr"/>
+      <c r="J948" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K948" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -35531,8 +37499,14 @@
         <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
-      <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr"/>
+      <c r="J949" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K949" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -35564,8 +37538,14 @@
         <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
-      <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr"/>
+      <c r="J950" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K950" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -35597,8 +37577,14 @@
         <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
-      <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr"/>
+      <c r="J951" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K951" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -35630,8 +37616,14 @@
         <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
-      <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr"/>
+      <c r="J952" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K952" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -35663,8 +37655,14 @@
         <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
-      <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr"/>
+      <c r="J953" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K953" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -35696,8 +37694,14 @@
         <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
-      <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr"/>
+      <c r="J954" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K954" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -35729,8 +37733,14 @@
         <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
-      <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr"/>
+      <c r="J955" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K955" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -35762,8 +37772,14 @@
         <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
-      <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr"/>
+      <c r="J956" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K956" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -35795,8 +37811,14 @@
         <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
-      <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr"/>
+      <c r="J957" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K957" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -35825,11 +37847,17 @@
         <v>8499.169299209998</v>
       </c>
       <c r="H958" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
-      <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr"/>
+      <c r="J958" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K958" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -35858,11 +37886,17 @@
         <v>8809.419946309998</v>
       </c>
       <c r="H959" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
-      <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr"/>
+      <c r="J959" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K959" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -35891,11 +37925,17 @@
         <v>10026.00877873</v>
       </c>
       <c r="H960" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
-      <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr"/>
+      <c r="J960" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K960" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -35924,11 +37964,17 @@
         <v>10026.00877873</v>
       </c>
       <c r="H961" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
-      <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr"/>
+      <c r="J961" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K961" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -35957,11 +38003,17 @@
         <v>9733.719576269998</v>
       </c>
       <c r="H962" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
-      <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr"/>
+      <c r="J962" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K962" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -35990,11 +38042,17 @@
         <v>9915.084111229997</v>
       </c>
       <c r="H963" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
-      <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr"/>
+      <c r="J963" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K963" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -36023,15 +38081,23 @@
         <v>9738.797102929997</v>
       </c>
       <c r="H964" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I964" t="inlineStr"/>
-      <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr"/>
+      <c r="J964" t="n">
+        <v>117100</v>
+      </c>
+      <c r="K964" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L964" t="n">
-        <v>1</v>
-      </c>
-      <c r="M964" t="inlineStr"/>
+        <v>1.170064047822374</v>
+      </c>
+      <c r="M964" t="n">
+        <v>1.013852813852814</v>
+      </c>
     </row>
     <row r="965">
       <c r="A965" s="1" t="n">
@@ -36056,7 +38122,7 @@
         <v>9653.310902929998</v>
       </c>
       <c r="H965" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -36089,7 +38155,7 @@
         <v>9717.579802929997</v>
       </c>
       <c r="H966" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -36122,7 +38188,7 @@
         <v>10454.95866346</v>
       </c>
       <c r="H967" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -36155,7 +38221,7 @@
         <v>10454.95866346</v>
       </c>
       <c r="H968" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -36188,7 +38254,7 @@
         <v>10610.31296346</v>
       </c>
       <c r="H969" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -36221,7 +38287,7 @@
         <v>10610.31296346</v>
       </c>
       <c r="H970" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -36254,7 +38320,7 @@
         <v>11186.29256346</v>
       </c>
       <c r="H971" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -36287,7 +38353,7 @@
         <v>10948.29576155</v>
       </c>
       <c r="H972" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -36320,7 +38386,7 @@
         <v>11172.92536155</v>
       </c>
       <c r="H973" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -36353,7 +38419,7 @@
         <v>10929.97656155</v>
       </c>
       <c r="H974" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -36386,7 +38452,7 @@
         <v>10757.55756155</v>
       </c>
       <c r="H975" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -36419,7 +38485,7 @@
         <v>10740.64138611</v>
       </c>
       <c r="H976" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -36452,7 +38518,7 @@
         <v>10740.64138611</v>
       </c>
       <c r="H977" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -36485,7 +38551,7 @@
         <v>10666.97248611</v>
       </c>
       <c r="H978" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -36518,7 +38584,7 @@
         <v>10666.97248611</v>
       </c>
       <c r="H979" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -36551,7 +38617,7 @@
         <v>10720.82279015</v>
       </c>
       <c r="H980" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -36584,7 +38650,7 @@
         <v>10693.66579015</v>
       </c>
       <c r="H981" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -36617,7 +38683,7 @@
         <v>10693.66579015</v>
       </c>
       <c r="H982" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -36650,7 +38716,7 @@
         <v>10493.13909015</v>
       </c>
       <c r="H983" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -36683,7 +38749,7 @@
         <v>10494.77759015</v>
       </c>
       <c r="H984" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -36716,7 +38782,7 @@
         <v>10640.60475167</v>
       </c>
       <c r="H985" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -36749,7 +38815,7 @@
         <v>10604.14745167</v>
       </c>
       <c r="H986" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -36782,7 +38848,7 @@
         <v>10453.08701319</v>
       </c>
       <c r="H987" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -36815,7 +38881,7 @@
         <v>10484.48561319</v>
       </c>
       <c r="H988" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -37442,7 +39508,7 @@
         <v>10310.79191319</v>
       </c>
       <c r="H1007" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -37508,7 +39574,7 @@
         <v>10031.63241319</v>
       </c>
       <c r="H1009" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -37541,7 +39607,7 @@
         <v>10031.63241319</v>
       </c>
       <c r="H1010" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -37574,7 +39640,7 @@
         <v>10135.44125087</v>
       </c>
       <c r="H1011" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -37607,7 +39673,7 @@
         <v>10135.02125087</v>
       </c>
       <c r="H1012" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -37838,7 +39904,7 @@
         <v>10202.40312663</v>
       </c>
       <c r="H1019" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -37871,7 +39937,7 @@
         <v>10202.40312663</v>
       </c>
       <c r="H1020" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -37904,7 +39970,7 @@
         <v>10203.05312663</v>
       </c>
       <c r="H1021" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
@@ -37937,7 +40003,7 @@
         <v>10102.44732663</v>
       </c>
       <c r="H1022" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
@@ -37970,7 +40036,7 @@
         <v>10077.07102663</v>
       </c>
       <c r="H1023" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
@@ -38003,7 +40069,7 @@
         <v>10115.17202663</v>
       </c>
       <c r="H1024" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -38036,7 +40102,7 @@
         <v>10115.17202663</v>
       </c>
       <c r="H1025" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -38069,7 +40135,7 @@
         <v>10072.38922663</v>
       </c>
       <c r="H1026" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -38102,7 +40168,7 @@
         <v>10080.10562663</v>
       </c>
       <c r="H1027" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -38135,7 +40201,7 @@
         <v>10080.10562663</v>
       </c>
       <c r="H1028" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -38267,7 +40333,7 @@
         <v>10038.36402663</v>
       </c>
       <c r="H1032" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -38366,7 +40432,7 @@
         <v>8922.595326629997</v>
       </c>
       <c r="H1035" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -38399,7 +40465,7 @@
         <v>8922.595326629997</v>
       </c>
       <c r="H1036" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -38432,7 +40498,7 @@
         <v>9058.476128239996</v>
       </c>
       <c r="H1037" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -38443,6 +40509,6 @@
       <c r="M1037" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>